--- a/graph/Graphs.xlsx
+++ b/graph/Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SerKin0\Documents\LaTeX\Лабораторная работа 6-Исследование электронных ламп диода и триода\IBTC-physics-2k3s-latex-vacuum-tube-diodes-triodes\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF9ED28-C3AB-4668-90A8-DD39B9CD58A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F14A8C-A3B0-45CD-A59A-3F340101CCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E9884957-8132-4B22-A6C3-69341D62379A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E9884957-8132-4B22-A6C3-69341D62379A}"/>
   </bookViews>
   <sheets>
     <sheet name="Анодная характеристика триода" sheetId="1" r:id="rId1"/>
@@ -385,12 +385,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -398,6 +392,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1625,6 +1625,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'ВАХ диода'!$B$3:$B$12</c:f>
@@ -6722,8 +6736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2DBD95-3BBB-4329-A964-DC42FA0A821F}">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7084,8 +7098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B45CBFB-C1B1-48BC-9795-2209B8496CD0}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7103,35 +7117,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="D2" s="23" t="s">
+      <c r="A2" s="25"/>
+      <c r="D2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
+      <c r="A3" s="25"/>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
@@ -7150,513 +7164,513 @@
       <c r="I3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="27"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="1">
         <v>-5.5</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="21"/>
-      <c r="F4" s="25"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="25">
+      <c r="H4" s="23">
         <v>-5.55</v>
       </c>
       <c r="I4" s="21">
         <v>0.53</v>
       </c>
-      <c r="J4" s="27"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="1">
         <f>B4+0.5</f>
         <v>-5</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="21"/>
-      <c r="F5" s="25"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="21"/>
-      <c r="H5" s="25">
+      <c r="H5" s="23">
         <v>-4.97</v>
       </c>
       <c r="I5" s="21">
         <v>0.87</v>
       </c>
-      <c r="J5" s="27"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B24" si="0">B5+0.5</f>
         <v>-4.5</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="25">
+      <c r="F6" s="23">
         <v>-4.53</v>
       </c>
       <c r="G6" s="21">
         <v>0.37</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="23">
         <v>-4.54</v>
       </c>
       <c r="I6" s="21">
         <v>1.28</v>
       </c>
-      <c r="J6" s="27"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="25">
+      <c r="F7" s="23">
         <v>-4</v>
       </c>
       <c r="G7" s="21">
         <v>0.73</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="23">
         <v>-4.03</v>
       </c>
       <c r="I7" s="21">
         <v>1.92</v>
       </c>
-      <c r="J7" s="27"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>-3.5</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="25">
+      <c r="F8" s="23">
         <v>-3.52</v>
       </c>
       <c r="G8" s="21">
         <v>1.2</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="23">
         <v>-3.5</v>
       </c>
       <c r="I8" s="21">
         <v>2.78</v>
       </c>
-      <c r="J8" s="27"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="23">
         <v>-3.16</v>
       </c>
       <c r="E9" s="21">
         <v>0.5</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="23">
         <v>-3.08</v>
       </c>
       <c r="G9" s="21">
         <v>1.78</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="23">
         <v>-3.1</v>
       </c>
       <c r="I9" s="21">
         <v>3.55</v>
       </c>
-      <c r="J9" s="27"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>-2.5</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="23">
         <v>-2.38</v>
       </c>
       <c r="E10" s="21">
         <v>1.31</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="23">
         <v>-2.5</v>
       </c>
       <c r="G10" s="21">
         <v>2.78</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="23">
         <v>-2.5299999999999998</v>
       </c>
       <c r="I10" s="21">
         <v>4.78</v>
       </c>
-      <c r="J10" s="27"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="23">
         <v>-2.04</v>
       </c>
       <c r="E11" s="21">
         <v>1.85</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="23">
         <v>-2</v>
       </c>
       <c r="G11" s="21">
         <v>3.8</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="23">
         <v>-2.04</v>
       </c>
       <c r="I11" s="21">
         <v>6.09</v>
       </c>
-      <c r="J11" s="27"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>-1.5</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="23">
         <v>-1.54</v>
       </c>
       <c r="E12" s="21">
         <v>2.78</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="23">
         <v>-1.54</v>
       </c>
       <c r="G12" s="21">
         <v>4.96</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="23">
         <v>-1.5</v>
       </c>
       <c r="I12" s="21">
         <v>7.56</v>
       </c>
-      <c r="J12" s="27"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="23">
         <v>-1.0900000000000001</v>
       </c>
       <c r="E13" s="21">
         <v>3.76</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="23">
         <v>-0.95</v>
       </c>
       <c r="G13" s="21">
         <v>6.4</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="23">
         <v>-1.05</v>
       </c>
       <c r="I13" s="21">
         <v>8.9</v>
       </c>
-      <c r="J13" s="27"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="23">
         <v>-0.55000000000000004</v>
       </c>
       <c r="E14" s="21">
         <v>5.16</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="23">
         <v>-0.56999999999999995</v>
       </c>
       <c r="G14" s="21">
         <v>7.6</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="23">
         <v>-0.55000000000000004</v>
       </c>
       <c r="I14" s="21">
         <v>10.48</v>
       </c>
-      <c r="J14" s="27"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="23">
         <v>0.08</v>
       </c>
       <c r="E15" s="21">
         <v>6.8</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="23">
         <v>0.06</v>
       </c>
       <c r="G15" s="21">
         <v>9.5</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="23">
         <v>0.11</v>
       </c>
       <c r="I15" s="21">
         <v>12.62</v>
       </c>
-      <c r="J15" s="27"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="23">
         <v>0.52</v>
       </c>
       <c r="E16" s="21">
         <v>7.9</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="23">
         <v>0.52</v>
       </c>
       <c r="G16" s="21">
         <v>10.78</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="23">
         <v>0.51</v>
       </c>
       <c r="I16" s="21">
         <v>13.85</v>
       </c>
-      <c r="J16" s="27"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="23">
         <v>1.02</v>
       </c>
       <c r="E17" s="21">
         <v>9.16</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="23">
         <v>0.98</v>
       </c>
       <c r="G17" s="21">
         <v>12.12</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="23">
         <v>1.07</v>
       </c>
       <c r="I17" s="21">
         <v>15.54</v>
       </c>
-      <c r="J17" s="27"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="23">
         <v>1.57</v>
       </c>
       <c r="E18" s="21">
         <v>10.6</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="23">
         <v>1.5</v>
       </c>
       <c r="G18" s="21">
         <v>13.49</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="23">
         <v>1.48</v>
       </c>
       <c r="I18" s="21">
         <v>16.77</v>
       </c>
-      <c r="J18" s="27"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="23">
         <v>2.04</v>
       </c>
       <c r="E19" s="21">
         <v>11.85</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="23">
         <v>2.13</v>
       </c>
       <c r="G19" s="21">
         <v>15.34</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="23">
         <v>2.09</v>
       </c>
       <c r="I19" s="21">
         <v>18.66</v>
       </c>
-      <c r="J19" s="27"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="23">
         <v>2.54</v>
       </c>
       <c r="E20" s="21">
         <v>13.21</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="23">
         <v>2.5299999999999998</v>
       </c>
       <c r="G20" s="21">
         <v>16.52</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="23">
         <v>2.5499999999999998</v>
       </c>
       <c r="I20" s="21">
         <v>20.13</v>
       </c>
-      <c r="J20" s="27"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="23">
         <v>3.04</v>
       </c>
       <c r="E21" s="21">
         <v>14.62</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="23">
         <v>2.99</v>
       </c>
       <c r="G21" s="21">
         <v>17.920000000000002</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="23">
         <v>3.07</v>
       </c>
       <c r="I21" s="21">
         <v>21.83</v>
       </c>
-      <c r="J21" s="27"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="23">
         <v>3.57</v>
       </c>
       <c r="E22" s="21">
         <v>16.149999999999999</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="23">
         <v>3.5</v>
       </c>
       <c r="G22" s="21">
         <v>19.510000000000002</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="23">
         <v>3.52</v>
       </c>
       <c r="I22" s="21">
         <v>23.26</v>
       </c>
-      <c r="J22" s="27"/>
+      <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="1">
         <f>B22+0.5</f>
         <v>4</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="23">
         <v>4.08</v>
       </c>
       <c r="E23" s="21">
         <v>17.7</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="23">
         <v>4.0199999999999996</v>
       </c>
       <c r="G23" s="21">
         <v>21.17</v>
       </c>
-      <c r="H23" s="25"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="27"/>
+      <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="24">
         <v>4.47</v>
       </c>
       <c r="E24" s="22">
         <v>18.899999999999999</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="24">
         <v>4.51</v>
       </c>
       <c r="G24" s="22">
         <v>22.75</v>
       </c>
-      <c r="H24" s="26"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="22"/>
     </row>
   </sheetData>

--- a/graph/Graphs.xlsx
+++ b/graph/Graphs.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SerKin0\Documents\LaTeX\Лабораторная работа 6-Исследование электронных ламп диода и триода\IBTC-physics-2k3s-latex-vacuum-tube-diodes-triodes\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F14A8C-A3B0-45CD-A59A-3F340101CCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF7AC95-82BE-4AB2-A63D-00D7079BB574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E9884957-8132-4B22-A6C3-69341D62379A}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{E9884957-8132-4B22-A6C3-69341D62379A}"/>
   </bookViews>
   <sheets>
     <sheet name="Анодная характеристика триода" sheetId="1" r:id="rId1"/>
-    <sheet name="ВАХ диода" sheetId="2" r:id="rId2"/>
-    <sheet name="Максимально допустимый ток" sheetId="3" r:id="rId3"/>
-    <sheet name="Сеточная характеристика" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId2"/>
+    <sheet name="ВАХ диода" sheetId="2" r:id="rId3"/>
+    <sheet name="Максимально допустимый ток" sheetId="3" r:id="rId4"/>
+    <sheet name="Сеточная характеристика" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>U, В</t>
   </si>
@@ -82,11 +83,29 @@
   <si>
     <t>U_c, В</t>
   </si>
+  <si>
+    <t>\infty</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>2U_вых</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>Множитель</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -319,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -353,9 +372,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -392,12 +408,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1512,6 +1539,541 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Лист1!$H$4:$H$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="16"/>
+                  <c:pt idx="0">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>700</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1100</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1700</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2100</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5400</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5800</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6600</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7600</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8400</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>13000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>15000</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>17000</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>19000</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>21000</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Лист1!$H$4:$H$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="16"/>
+                  <c:pt idx="0">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>700</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1100</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1700</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2100</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5400</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5800</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6600</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7600</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8400</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>13000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>15000</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>17000</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>19000</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>21000</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$4:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>270000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>900000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$4:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.7999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED01-4154-B762-E01A6796D601}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="835723600"/>
+        <c:axId val="1098100832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="835723600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1098100832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1098100832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="835723600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1637,7 +2199,37 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2058,7 +2650,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2696,7 +3288,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3812,6 +4404,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5876,20 +6508,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4026</xdr:rowOff>
+      <xdr:colOff>35497</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>58454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5918,6 +7066,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>183694</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5CDFF44-01D4-B21D-F674-507E512612E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5958,7 +7147,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5999,7 +7188,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6357,17 +7546,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4394BA5C-D61B-4222-85B9-8159D3D0F758}">
-  <dimension ref="B1:O22"/>
+  <dimension ref="B1:O47"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="1"/>
     <col min="10" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -6377,46 +7567,46 @@
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="7"/>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="2"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>0</v>
       </c>
       <c r="C4" s="8"/>
@@ -6428,10 +7618,13 @@
         <v>0.13</v>
       </c>
       <c r="G4" s="9"/>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>10</v>
       </c>
       <c r="C5" s="8"/>
@@ -6442,11 +7635,13 @@
       <c r="F5" s="11">
         <v>4.67</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="H5" s="20">
+        <v>250</v>
+      </c>
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>20</v>
       </c>
       <c r="C6" s="8"/>
@@ -6457,11 +7652,13 @@
       <c r="F6" s="11">
         <v>6.01</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="H6" s="20">
+        <v>125</v>
+      </c>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>30</v>
       </c>
       <c r="C7" s="8"/>
@@ -6474,11 +7671,13 @@
       <c r="F7" s="11">
         <v>7.5</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="H7" s="20">
+        <v>83.333333333333329</v>
+      </c>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>40</v>
       </c>
       <c r="C8" s="8"/>
@@ -6491,11 +7690,13 @@
       <c r="F8" s="11">
         <v>8.9700000000000006</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="H8" s="20">
+        <v>62.5</v>
+      </c>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>50</v>
       </c>
       <c r="C9" s="8"/>
@@ -6508,11 +7709,13 @@
       <c r="F9" s="11">
         <v>10.47</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="H9" s="20">
+        <v>50</v>
+      </c>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>60</v>
       </c>
       <c r="C10" s="8">
@@ -6527,11 +7730,13 @@
       <c r="F10" s="11">
         <v>12</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="H10" s="20">
+        <v>41.666666666666664</v>
+      </c>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>70</v>
       </c>
       <c r="C11" s="8">
@@ -6546,11 +7751,13 @@
       <c r="F11" s="11">
         <v>13.59</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="H11" s="20">
+        <v>35.714285714285715</v>
+      </c>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>80</v>
       </c>
       <c r="C12" s="8">
@@ -6565,11 +7772,13 @@
       <c r="F12" s="11">
         <v>15.2</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="H12" s="20">
+        <v>31.25</v>
+      </c>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>90</v>
       </c>
       <c r="C13" s="8">
@@ -6584,11 +7793,13 @@
       <c r="F13" s="11">
         <v>16.88</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="H13" s="20">
+        <v>27.777777777777775</v>
+      </c>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>100</v>
       </c>
       <c r="C14" s="8">
@@ -6603,11 +7814,13 @@
       <c r="F14" s="11">
         <v>18.57</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="H14" s="20">
+        <v>25</v>
+      </c>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>110</v>
       </c>
       <c r="C15" s="8">
@@ -6622,11 +7835,13 @@
       <c r="F15" s="11">
         <v>20.309999999999999</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="H15" s="20">
+        <v>22.727272727272727</v>
+      </c>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>120</v>
       </c>
       <c r="C16" s="8">
@@ -6639,11 +7854,13 @@
         <v>15.45</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
+      <c r="H16" s="20">
+        <v>20.833333333333332</v>
+      </c>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>130</v>
       </c>
       <c r="C17" s="8">
@@ -6656,11 +7873,13 @@
         <v>17.600000000000001</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
+      <c r="H17" s="20">
+        <v>19.230769230769234</v>
+      </c>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>140</v>
       </c>
       <c r="C18" s="8">
@@ -6671,11 +7890,13 @@
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
+      <c r="H18" s="20">
+        <v>17.857142857142858</v>
+      </c>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>150</v>
       </c>
       <c r="C19" s="8">
@@ -6684,11 +7905,13 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
+      <c r="H19" s="20">
+        <v>16.666666666666668</v>
+      </c>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>160</v>
       </c>
       <c r="C20" s="8">
@@ -6697,11 +7920,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
+      <c r="H20" s="20">
+        <v>15.625</v>
+      </c>
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>170</v>
       </c>
       <c r="C21" s="8">
@@ -6710,11 +7935,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
+      <c r="H21" s="20">
+        <v>14.705882352941176</v>
+      </c>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>180</v>
       </c>
       <c r="C22" s="12">
@@ -6723,8 +7950,748 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
+      <c r="H22" s="21">
+        <v>13.888888888888888</v>
+      </c>
       <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23" s="13">
+        <v>190</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="H23" s="26">
+        <v>13.157894736842104</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="14">
+        <v>200</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="H24" s="26">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="13">
+        <v>210</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="H25" s="26">
+        <v>11.904761904761903</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="14">
+        <v>220</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="H26" s="26">
+        <v>11.363636363636363</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="13">
+        <v>230</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="H27" s="26">
+        <v>10.869565217391305</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="14">
+        <v>240</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="H28" s="26">
+        <v>10.416666666666666</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D35" s="13">
+        <v>10</v>
+      </c>
+      <c r="E35" s="11">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="13">
+        <v>20</v>
+      </c>
+      <c r="E36" s="11">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D37" s="13">
+        <v>30</v>
+      </c>
+      <c r="E37" s="11">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D38" s="13">
+        <v>40</v>
+      </c>
+      <c r="E38" s="11">
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D39" s="13">
+        <v>50</v>
+      </c>
+      <c r="E39" s="11">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D40" s="13">
+        <v>60</v>
+      </c>
+      <c r="E40" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D41" s="13">
+        <v>70</v>
+      </c>
+      <c r="E41" s="11">
+        <v>13.59</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D42" s="13">
+        <v>80</v>
+      </c>
+      <c r="E42" s="11">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D43" s="13">
+        <v>90</v>
+      </c>
+      <c r="E43" s="11">
+        <v>16.88</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D44" s="13">
+        <v>100</v>
+      </c>
+      <c r="E44" s="11">
+        <v>18.57</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D45" s="13">
+        <v>110</v>
+      </c>
+      <c r="E45" s="11">
+        <v>20.309999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D46" s="13">
+        <v>120</v>
+      </c>
+      <c r="E46" s="10">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D47" s="13">
+        <v>130</v>
+      </c>
+      <c r="E47" s="10">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1A7CA5-6721-4819-A6AD-9AC2B2D8FA6F}">
+  <dimension ref="A3:H19"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f>(2+30/B4)*D4/100</f>
+        <v>50</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="31">
+        <f>10^2</f>
+        <v>100</v>
+      </c>
+      <c r="D4" s="33">
+        <f>B4*C4</f>
+        <v>1000</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0.36</v>
+      </c>
+      <c r="F4" s="30">
+        <f>E4/0.2</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <f>D4/1000</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="32">
+        <f>(2 * B4 + 30) / 100 * C4</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f>(2+30/B5)*D5/100</f>
+        <v>700</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20</v>
+      </c>
+      <c r="C5" s="31">
+        <f t="shared" ref="C5:C9" si="0">10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="D5" s="33">
+        <f>B5*C5</f>
+        <v>20000</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F5" s="30">
+        <f t="shared" ref="F5:F19" si="1">E5/0.2</f>
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G19" si="2">D5/1000</f>
+        <v>20</v>
+      </c>
+      <c r="H5" s="32">
+        <f t="shared" ref="H5:H19" si="3">(2 * B5 + 30) / 100 * C5</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f>(2+30/B6)*D6/100</f>
+        <v>1100</v>
+      </c>
+      <c r="B6" s="1">
+        <v>40</v>
+      </c>
+      <c r="C6" s="31">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D6" s="33">
+        <f>B6*C6</f>
+        <v>40000</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="F6" s="30">
+        <f t="shared" si="1"/>
+        <v>1.7799999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="H6" s="32">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f>(2+30/B7)*D7/100</f>
+        <v>1300</v>
+      </c>
+      <c r="B7" s="1">
+        <v>50</v>
+      </c>
+      <c r="C7" s="31">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D7" s="33">
+        <f>B7*C7</f>
+        <v>50000</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="F7" s="30">
+        <f t="shared" si="1"/>
+        <v>1.7399999999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H7" s="32">
+        <f t="shared" si="3"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f>(2+30/B8)*D8/100</f>
+        <v>1700</v>
+      </c>
+      <c r="B8" s="1">
+        <v>70</v>
+      </c>
+      <c r="C8" s="31">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D8" s="33">
+        <f>B8*C8</f>
+        <v>70000</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F8" s="30">
+        <f t="shared" si="1"/>
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="H8" s="32">
+        <f t="shared" si="3"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f>(2+30/B9)*D9/100</f>
+        <v>2100</v>
+      </c>
+      <c r="B9" s="1">
+        <v>90</v>
+      </c>
+      <c r="C9" s="31">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D9" s="33">
+        <f>B9*C9</f>
+        <v>90000</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F9" s="30">
+        <f t="shared" si="1"/>
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H9" s="32">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f>(2+30/B10)*D10/100</f>
+        <v>5400</v>
+      </c>
+      <c r="B10" s="1">
+        <v>12</v>
+      </c>
+      <c r="C10" s="31">
+        <f t="shared" ref="C10:C18" si="4">10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="D10" s="33">
+        <f>B10*C10</f>
+        <v>120000</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F10" s="30">
+        <f t="shared" si="1"/>
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="H10" s="32">
+        <f t="shared" si="3"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f>(2+30/B11)*D11/100</f>
+        <v>5799.9999999999991</v>
+      </c>
+      <c r="B11" s="1">
+        <v>14</v>
+      </c>
+      <c r="C11" s="31">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="D11" s="33">
+        <f>B11*C11</f>
+        <v>140000</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F11" s="30">
+        <f t="shared" si="1"/>
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="H11" s="32">
+        <f t="shared" si="3"/>
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f>(2+30/B12)*D12/100</f>
+        <v>6600</v>
+      </c>
+      <c r="B12" s="1">
+        <v>18</v>
+      </c>
+      <c r="C12" s="31">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="D12" s="33">
+        <f>B12*C12</f>
+        <v>180000</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F12" s="30">
+        <f t="shared" si="1"/>
+        <v>1.7199999999999998</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="H12" s="32">
+        <f t="shared" si="3"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f>(2+30/B13)*D13/100</f>
+        <v>7600</v>
+      </c>
+      <c r="B13" s="1">
+        <v>23</v>
+      </c>
+      <c r="C13" s="31">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="D13" s="33">
+        <f>B13*C13</f>
+        <v>230000</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" si="1"/>
+        <v>1.7199999999999998</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="H13" s="32">
+        <f t="shared" si="3"/>
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f>(2+30/B14)*D14/100</f>
+        <v>8400</v>
+      </c>
+      <c r="B14" s="1">
+        <v>27</v>
+      </c>
+      <c r="C14" s="31">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="D14" s="33">
+        <f>B14*C14</f>
+        <v>270000</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="F14" s="30">
+        <f t="shared" si="1"/>
+        <v>1.68</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="H14" s="32">
+        <f t="shared" si="3"/>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f>(2+30/B15)*D15/100</f>
+        <v>13000</v>
+      </c>
+      <c r="B15" s="1">
+        <v>50</v>
+      </c>
+      <c r="C15" s="31">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="D15" s="33">
+        <f>B15*C15</f>
+        <v>500000</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0.308</v>
+      </c>
+      <c r="F15" s="30">
+        <f t="shared" si="1"/>
+        <v>1.5399999999999998</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="H15" s="32">
+        <f t="shared" si="3"/>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f>(2+30/B16)*D16/100</f>
+        <v>15000</v>
+      </c>
+      <c r="B16" s="1">
+        <v>60</v>
+      </c>
+      <c r="C16" s="31">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="D16" s="33">
+        <f>B16*C16</f>
+        <v>600000</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F16" s="30">
+        <f t="shared" si="1"/>
+        <v>1.4399999999999997</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="H16" s="32">
+        <f t="shared" si="3"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f>(2+30/B17)*D17/100</f>
+        <v>16999.999999999996</v>
+      </c>
+      <c r="B17" s="1">
+        <v>70</v>
+      </c>
+      <c r="C17" s="31">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="D17" s="33">
+        <f>B17*C17</f>
+        <v>700000</v>
+      </c>
+      <c r="E17" s="29">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F17" s="30">
+        <f t="shared" si="1"/>
+        <v>1.36</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="H17" s="32">
+        <f t="shared" si="3"/>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f>(2+30/B18)*D18/100</f>
+        <v>19000</v>
+      </c>
+      <c r="B18" s="1">
+        <v>80</v>
+      </c>
+      <c r="C18" s="31">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="D18" s="33">
+        <f>B18*C18</f>
+        <v>800000</v>
+      </c>
+      <c r="E18" s="29">
+        <v>0.254</v>
+      </c>
+      <c r="F18" s="30">
+        <f t="shared" si="1"/>
+        <v>1.27</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="H18" s="32">
+        <f t="shared" si="3"/>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f>(2+30/B19)*D19/100</f>
+        <v>21000</v>
+      </c>
+      <c r="B19" s="1">
+        <v>90</v>
+      </c>
+      <c r="C19" s="31">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="D19" s="33">
+        <f>B19*C19</f>
+        <v>900000</v>
+      </c>
+      <c r="E19" s="29">
+        <v>0.24</v>
+      </c>
+      <c r="F19" s="30">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="H19" s="32">
+        <f t="shared" si="3"/>
+        <v>21000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6732,12 +8699,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2DBD95-3BBB-4329-A964-DC42FA0A821F}">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6750,87 +8717,87 @@
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>2</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>3.78</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>4</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>10.16</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>6</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>16.88</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>8</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>24.84</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>10</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>32.4</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>12</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>40.9</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>14</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>49.94</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>16</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>62.4</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>18</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>73.52</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>20</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>86.31</v>
       </c>
     </row>
@@ -6840,12 +8807,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42AB24A-B1EF-4497-B49F-FF2EF80BADF0}">
   <dimension ref="B2:C28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -6868,222 +8835,222 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>10</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <f>$C$2/B5*1000</f>
         <v>250</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>20</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <f t="shared" ref="C6:C28" si="0">$C$2/B6*1000</f>
         <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>30</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>40</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>50</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>60</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>70</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <f t="shared" si="0"/>
         <v>35.714285714285715</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>80</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <f t="shared" si="0"/>
         <v>31.25</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>90</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <f t="shared" si="0"/>
         <v>27.777777777777775</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>100</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>110</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <f t="shared" si="0"/>
         <v>22.727272727272727</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>120</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <f t="shared" si="0"/>
         <v>20.833333333333332</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>130</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <f t="shared" si="0"/>
         <v>19.230769230769234</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>140</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <f t="shared" si="0"/>
         <v>17.857142857142858</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>150</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>160</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <f t="shared" si="0"/>
         <v>15.625</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>170</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <f t="shared" si="0"/>
         <v>14.705882352941176</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>180</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <f t="shared" si="0"/>
         <v>13.888888888888888</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>190</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <f t="shared" si="0"/>
         <v>13.157894736842104</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>200</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>210</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <f t="shared" si="0"/>
         <v>11.904761904761903</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>220</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <f t="shared" si="0"/>
         <v>11.363636363636363</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <v>230</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <f t="shared" si="0"/>
         <v>10.869565217391305</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <v>240</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="21">
         <f t="shared" si="0"/>
         <v>10.416666666666666</v>
       </c>
@@ -7094,11 +9061,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B45CBFB-C1B1-48BC-9795-2209B8496CD0}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -7117,35 +9084,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="D2" s="26" t="s">
+      <c r="A2" s="24"/>
+      <c r="D2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="25"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+      <c r="A3" s="24"/>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
@@ -7164,514 +9131,514 @@
       <c r="I3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="25"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1">
         <v>-5.5</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="23">
+      <c r="D4" s="22"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="22">
         <v>-5.55</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="20">
         <v>0.53</v>
       </c>
-      <c r="J4" s="25"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1">
         <f>B4+0.5</f>
         <v>-5</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="23">
+      <c r="D5" s="22"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="22">
         <v>-4.97</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>0.87</v>
       </c>
-      <c r="J5" s="25"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B24" si="0">B5+0.5</f>
         <v>-4.5</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="23">
+      <c r="D6" s="22"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="22">
         <v>-4.53</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>0.37</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>-4.54</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>1.28</v>
       </c>
-      <c r="J6" s="25"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="23">
+      <c r="D7" s="22"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="22">
         <v>-4</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>0.73</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>-4.03</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="20">
         <v>1.92</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>-3.5</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="23">
+      <c r="D8" s="22"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="22">
         <v>-3.52</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>1.2</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>-3.5</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <v>2.78</v>
       </c>
-      <c r="J8" s="25"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>-3.16</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>0.5</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>-3.08</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>1.78</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>-3.1</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <v>3.55</v>
       </c>
-      <c r="J9" s="25"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>-2.5</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>-2.38</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>1.31</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>-2.5</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>2.78</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>-2.5299999999999998</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="20">
         <v>4.78</v>
       </c>
-      <c r="J10" s="25"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>-2.04</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>1.85</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>-2</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>3.8</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>-2.04</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="20">
         <v>6.09</v>
       </c>
-      <c r="J11" s="25"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>-1.5</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>-1.54</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>2.78</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>-1.54</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <v>4.96</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>-1.5</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="20">
         <v>7.56</v>
       </c>
-      <c r="J12" s="25"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>-1.0900000000000001</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>3.76</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>-0.95</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>6.4</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>-1.05</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="20">
         <v>8.9</v>
       </c>
-      <c r="J13" s="25"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>5.16</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="20">
         <v>7.6</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <v>10.48</v>
       </c>
-      <c r="J14" s="25"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <v>0.08</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>6.8</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>0.06</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="20">
         <v>9.5</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>0.11</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <v>12.62</v>
       </c>
-      <c r="J15" s="25"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <v>0.52</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>7.9</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>0.52</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <v>10.78</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>0.51</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="20">
         <v>13.85</v>
       </c>
-      <c r="J16" s="25"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>1.02</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>9.16</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>0.98</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="20">
         <v>12.12</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>1.07</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="20">
         <v>15.54</v>
       </c>
-      <c r="J17" s="25"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>1.57</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>10.6</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>1.5</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <v>13.49</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>1.48</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="20">
         <v>16.77</v>
       </c>
-      <c r="J18" s="25"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <v>2.04</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>11.85</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>2.13</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>15.34</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>2.09</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="20">
         <v>18.66</v>
       </c>
-      <c r="J19" s="25"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <v>2.54</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>13.21</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="20">
         <v>16.52</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <v>2.5499999999999998</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="20">
         <v>20.13</v>
       </c>
-      <c r="J20" s="25"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="22">
         <v>3.04</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>14.62</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>2.99</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="20">
         <v>17.920000000000002</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <v>3.07</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="20">
         <v>21.83</v>
       </c>
-      <c r="J21" s="25"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="22">
         <v>3.57</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>16.149999999999999</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>3.5</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="20">
         <v>19.510000000000002</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>3.52</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="20">
         <v>23.26</v>
       </c>
-      <c r="J22" s="25"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="1">
         <f>B22+0.5</f>
         <v>4</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <v>4.08</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="20">
         <v>17.7</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>4.0199999999999996</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="20">
         <v>21.17</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="25"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="23">
         <v>4.47</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <v>18.899999999999999</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="23">
         <v>4.51</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="21">
         <v>22.75</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="22"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/graph/Graphs.xlsx
+++ b/graph/Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SerKin0\Documents\LaTeX\Лабораторная работа 6-Исследование электронных ламп диода и триода\IBTC-physics-2k3s-latex-vacuum-tube-diodes-triodes\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF7AC95-82BE-4AB2-A63D-00D7079BB574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B9488C-4093-42DE-B741-9489A4A38BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{E9884957-8132-4B22-A6C3-69341D62379A}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="704" xr2:uid="{E9884957-8132-4B22-A6C3-69341D62379A}"/>
   </bookViews>
   <sheets>
     <sheet name="Анодная характеристика триода" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="ВАХ диода" sheetId="2" r:id="rId3"/>
     <sheet name="Максимально допустимый ток" sheetId="3" r:id="rId4"/>
     <sheet name="Сеточная характеристика" sheetId="4" r:id="rId5"/>
+    <sheet name="Зависимость K от 50кОм" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
   <si>
     <t>U, В</t>
   </si>
@@ -98,13 +99,29 @@
   <si>
     <t>Множитель</t>
   </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>$\nu,~\text{кГц}$</t>
+  </si>
+  <si>
+    <t>$2U_\text{вых},~\text{В}$</t>
+  </si>
+  <si>
+    <t>$R,~\text{кОм}$</t>
+  </si>
+  <si>
+    <t>$K$</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -338,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -414,17 +431,27 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3409,11 +3436,25 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Сеточная характеристика'!$D$4:$D$24</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>--</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>--</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>--</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>--</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>--</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>-3.16</c:v>
                 </c:pt>
@@ -3427,10 +3468,10 @@
                   <c:v>-1.54</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.0900000000000001</c:v>
+                  <c:v>-1.09</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.55000000000000004</c:v>
+                  <c:v>-0.55</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.08</c:v>
@@ -3462,8 +3503,8 @@
                 <c:pt idx="20">
                   <c:v>4.47</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -3471,6 +3512,21 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -3566,16 +3622,21 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Сеточная характеристика'!$F$4:$F$24</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>--</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>--</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>-4.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4</c:v>
+                  <c:v>-4.00</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-3.52</c:v>
@@ -3584,10 +3645,10 @@
                   <c:v>-3.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.5</c:v>
+                  <c:v>-2.50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2</c:v>
+                  <c:v>-2.00</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-1.54</c:v>
@@ -3596,7 +3657,7 @@
                   <c:v>-0.95</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.56999999999999995</c:v>
+                  <c:v>-0.57</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.06</c:v>
@@ -3608,28 +3669,28 @@
                   <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5</c:v>
+                  <c:v>1.50</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.5299999999999998</c:v>
+                  <c:v>2.53</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.99</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.5</c:v>
+                  <c:v>3.50</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.0199999999999996</c:v>
+                  <c:v>4.02</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4.51</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -3637,6 +3698,12 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>0.37</c:v>
                 </c:pt>
@@ -3741,10 +3808,9 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Сеточная характеристика'!$H$4:$H$24</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>-5.55</c:v>
@@ -3759,25 +3825,25 @@
                   <c:v>-4.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.5</c:v>
+                  <c:v>-3.50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.1</c:v>
+                  <c:v>-3.10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.5299999999999998</c:v>
+                  <c:v>-2.53</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-2.04</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.5</c:v>
+                  <c:v>-1.50</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-1.05</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.55000000000000004</c:v>
+                  <c:v>-0.55</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.11</c:v>
@@ -3795,7 +3861,7 @@
                   <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.5499999999999998</c:v>
+                  <c:v>2.55</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3.07</c:v>
@@ -3803,8 +3869,14 @@
                 <c:pt idx="18">
                   <c:v>3.52</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="19">
+                  <c:v>--</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>--</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -3868,6 +3940,12 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>23.26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7028,16 +7106,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>35497</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>58454</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>596881</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>124600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>473648</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:rowOff>30617</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7192,16 +7270,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7546,10 +7624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4394BA5C-D61B-4222-85B9-8159D3D0F758}">
-  <dimension ref="B1:O47"/>
+  <dimension ref="B1:S47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7559,13 +7637,15 @@
     <col min="5" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="1"/>
-    <col min="10" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="16" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" s="7"/>
       <c r="C2" s="18" t="s">
         <v>4</v>
@@ -7583,7 +7663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
@@ -7605,7 +7685,7 @@
       <c r="H3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" s="13">
         <v>0</v>
       </c>
@@ -7621,9 +7701,40 @@
       <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="39">
+        <f>B4*0.005+0.299</f>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f>IF(C4,C4*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f>IF(D4,D4*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="R4" s="38">
+        <f>IF(E4,E4*0.002+0.02,"--")</f>
+        <v>2.0279999999999999E-2</v>
+      </c>
+      <c r="S4" s="38">
+        <f>IF(F4,F4*0.002+0.02,"--")</f>
+        <v>2.026E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" s="13">
         <v>10</v>
       </c>
@@ -7638,9 +7749,44 @@
       <c r="H5" s="20">
         <v>250</v>
       </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J5" s="1">
+        <f>IF((C5-C4)/($B5-$B4)=0,0,(C5-C4)/($B5-$B4))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:M20" si="0">(D5-D4)/($B5-$B4)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="31">
+        <f t="shared" ref="L5:L6" si="1">($B5-$B4)/(E5-E4) *1000</f>
+        <v>8000</v>
+      </c>
+      <c r="M5" s="31">
+        <f t="shared" ref="M5:M6" si="2">($B5-$B4)/(F5-F4) *1000</f>
+        <v>2202.6431718061672</v>
+      </c>
+      <c r="O5" s="39">
+        <f t="shared" ref="O5:O22" si="3">B5*0.005+0.299</f>
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f>IF(C5,C5*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="Q5" s="2" t="str">
+        <f>IF(D5,D5*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="R5" s="38">
+        <f>IF(E5,E5*0.002+0.02,"--")</f>
+        <v>2.2780000000000002E-2</v>
+      </c>
+      <c r="S5" s="38">
+        <f>IF(F5,F5*0.002+0.02,"--")</f>
+        <v>2.9339999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="13">
         <v>20</v>
       </c>
@@ -7655,9 +7801,44 @@
       <c r="H6" s="20">
         <v>125</v>
       </c>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J6" s="1">
+        <f>(C6-C5)/($B6-$B5)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="31">
+        <f t="shared" si="1"/>
+        <v>10416.666666666664</v>
+      </c>
+      <c r="M6" s="31">
+        <f t="shared" si="2"/>
+        <v>7462.6865671641799</v>
+      </c>
+      <c r="O6" s="39">
+        <f t="shared" si="3"/>
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f>IF(C6,C6*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="Q6" s="2" t="str">
+        <f>IF(D6,D6*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="R6" s="38">
+        <f>IF(E6,E6*0.002+0.02,"--")</f>
+        <v>2.47E-2</v>
+      </c>
+      <c r="S6" s="38">
+        <f>IF(F6,F6*0.002+0.02,"--")</f>
+        <v>3.202E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="13">
         <v>30</v>
       </c>
@@ -7674,9 +7855,44 @@
       <c r="H7" s="20">
         <v>83.333333333333329</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J7" s="1">
+        <f t="shared" ref="J7:J9" si="4">(C7-C6)/($B7-$B6)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="31">
+        <f t="shared" ref="K7:K10" si="5">($B7-$B6)/(D7-D6) *1000</f>
+        <v>62500</v>
+      </c>
+      <c r="L7" s="31">
+        <f t="shared" ref="L7" si="6">($B7-$B6)/(E7-E6) *1000</f>
+        <v>9615.3846153846152</v>
+      </c>
+      <c r="M7" s="31">
+        <f t="shared" ref="M7" si="7">($B7-$B6)/(F7-F6) *1000</f>
+        <v>6711.4093959731536</v>
+      </c>
+      <c r="O7" s="39">
+        <f t="shared" si="3"/>
+        <v>0.44899999999999995</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f>IF(C7,C7*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="Q7" s="38">
+        <f>IF(D7,D7*0.002+0.02,"--")</f>
+        <v>2.0320000000000001E-2</v>
+      </c>
+      <c r="R7" s="38">
+        <f>IF(E7,E7*0.002+0.02,"--")</f>
+        <v>2.6780000000000002E-2</v>
+      </c>
+      <c r="S7" s="38">
+        <f>IF(F7,F7*0.002+0.02,"--")</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" s="13">
         <v>40</v>
       </c>
@@ -7693,9 +7909,44 @@
       <c r="H8" s="20">
         <v>62.5</v>
       </c>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J8" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="31">
+        <f t="shared" si="5"/>
+        <v>26315.78947368421</v>
+      </c>
+      <c r="L8" s="31">
+        <f t="shared" ref="L8:L17" si="8">($B8-$B7)/(E8-E7) *1000</f>
+        <v>9009.0090090090089</v>
+      </c>
+      <c r="M8" s="31">
+        <f t="shared" ref="M8:M14" si="9">($B8-$B7)/(F8-F7) *1000</f>
+        <v>6802.7210884353708</v>
+      </c>
+      <c r="O8" s="39">
+        <f t="shared" si="3"/>
+        <v>0.499</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f>IF(C8,C8*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="Q8" s="38">
+        <f>IF(D8,D8*0.002+0.02,"--")</f>
+        <v>2.1080000000000002E-2</v>
+      </c>
+      <c r="R8" s="38">
+        <f>IF(E8,E8*0.002+0.02,"--")</f>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="S8" s="38">
+        <f>IF(F8,F8*0.002+0.02,"--")</f>
+        <v>3.7940000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="13">
         <v>50</v>
       </c>
@@ -7712,9 +7963,44 @@
       <c r="H9" s="20">
         <v>50</v>
       </c>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J9" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="31">
+        <f t="shared" si="5"/>
+        <v>16949.152542372885</v>
+      </c>
+      <c r="L9" s="31">
+        <f t="shared" si="8"/>
+        <v>7874.0157480314992</v>
+      </c>
+      <c r="M9" s="31">
+        <f t="shared" si="9"/>
+        <v>6666.666666666667</v>
+      </c>
+      <c r="O9" s="39">
+        <f t="shared" si="3"/>
+        <v>0.54899999999999993</v>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f>IF(C9,C9*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="Q9" s="38">
+        <f>IF(D9,D9*0.002+0.02,"--")</f>
+        <v>2.2260000000000002E-2</v>
+      </c>
+      <c r="R9" s="38">
+        <f>IF(E9,E9*0.002+0.02,"--")</f>
+        <v>3.1539999999999999E-2</v>
+      </c>
+      <c r="S9" s="38">
+        <f>IF(F9,F9*0.002+0.02,"--")</f>
+        <v>4.0940000000000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10" s="13">
         <v>60</v>
       </c>
@@ -7733,9 +8019,43 @@
       <c r="H10" s="20">
         <v>41.666666666666664</v>
       </c>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="31">
+        <f t="shared" si="5"/>
+        <v>12987.012987012988</v>
+      </c>
+      <c r="L10" s="31">
+        <f t="shared" si="8"/>
+        <v>8333.3333333333321</v>
+      </c>
+      <c r="M10" s="31">
+        <f t="shared" si="9"/>
+        <v>6535.9477124183031</v>
+      </c>
+      <c r="O10" s="39">
+        <f t="shared" si="3"/>
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="P10" s="38">
+        <f>IF(C10,C10*0.002+0.02,"--")</f>
+        <v>2.0240000000000001E-2</v>
+      </c>
+      <c r="Q10" s="38">
+        <f>IF(D10,D10*0.002+0.02,"--")</f>
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="R10" s="38">
+        <f>IF(E10,E10*0.002+0.02,"--")</f>
+        <v>3.3939999999999998E-2</v>
+      </c>
+      <c r="S10" s="38">
+        <f>IF(F10,F10*0.002+0.02,"--")</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11" s="13">
         <v>70</v>
       </c>
@@ -7754,9 +8074,44 @@
       <c r="H11" s="20">
         <v>35.714285714285715</v>
       </c>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J11" s="31">
+        <f>($B11-$B10)/(C11-C10) *1000</f>
+        <v>45454.545454545449</v>
+      </c>
+      <c r="K11" s="31">
+        <f>($B11-$B10)/(D11-D10) *1000</f>
+        <v>10989.010989010987</v>
+      </c>
+      <c r="L11" s="31">
+        <f t="shared" si="8"/>
+        <v>7352.9411764705865</v>
+      </c>
+      <c r="M11" s="31">
+        <f t="shared" si="9"/>
+        <v>6289.3081761006297</v>
+      </c>
+      <c r="O11" s="39">
+        <f t="shared" si="3"/>
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="P11" s="38">
+        <f>IF(C11,C11*0.002+0.02,"--")</f>
+        <v>2.068E-2</v>
+      </c>
+      <c r="Q11" s="38">
+        <f>IF(D11,D11*0.002+0.02,"--")</f>
+        <v>2.562E-2</v>
+      </c>
+      <c r="R11" s="38">
+        <f>IF(E11,E11*0.002+0.02,"--")</f>
+        <v>3.6659999999999998E-2</v>
+      </c>
+      <c r="S11" s="38">
+        <f>IF(F11,F11*0.002+0.02,"--")</f>
+        <v>4.718E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="13">
         <v>80</v>
       </c>
@@ -7775,9 +8130,44 @@
       <c r="H12" s="20">
         <v>31.25</v>
       </c>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J12" s="31">
+        <f t="shared" ref="J12:J22" si="10">($B12-$B11)/(C12-C11) *1000</f>
+        <v>26315.789473684214</v>
+      </c>
+      <c r="K12" s="31">
+        <f t="shared" ref="K12:K18" si="11">($B12-$B11)/(D12-D11) *1000</f>
+        <v>9900.9900990099031</v>
+      </c>
+      <c r="L12" s="31">
+        <f t="shared" si="8"/>
+        <v>7194.2446043165437</v>
+      </c>
+      <c r="M12" s="31">
+        <f t="shared" si="9"/>
+        <v>6211.1801242236043</v>
+      </c>
+      <c r="O12" s="39">
+        <f t="shared" si="3"/>
+        <v>0.69900000000000007</v>
+      </c>
+      <c r="P12" s="38">
+        <f>IF(C12,C12*0.002+0.02,"--")</f>
+        <v>2.1440000000000001E-2</v>
+      </c>
+      <c r="Q12" s="38">
+        <f>IF(D12,D12*0.002+0.02,"--")</f>
+        <v>2.7640000000000001E-2</v>
+      </c>
+      <c r="R12" s="38">
+        <f>IF(E12,E12*0.002+0.02,"--")</f>
+        <v>3.9440000000000003E-2</v>
+      </c>
+      <c r="S12" s="38">
+        <f>IF(F12,F12*0.002+0.02,"--")</f>
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13" s="13">
         <v>90</v>
       </c>
@@ -7796,9 +8186,44 @@
       <c r="H13" s="20">
         <v>27.777777777777775</v>
       </c>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J13" s="31">
+        <f t="shared" si="10"/>
+        <v>18518.518518518518</v>
+      </c>
+      <c r="K13" s="31">
+        <f t="shared" si="11"/>
+        <v>9090.9090909090901</v>
+      </c>
+      <c r="L13" s="31">
+        <f t="shared" si="8"/>
+        <v>6802.721088435379</v>
+      </c>
+      <c r="M13" s="31">
+        <f t="shared" si="9"/>
+        <v>5952.3809523809532</v>
+      </c>
+      <c r="O13" s="39">
+        <f t="shared" si="3"/>
+        <v>0.749</v>
+      </c>
+      <c r="P13" s="38">
+        <f>IF(C13,C13*0.002+0.02,"--")</f>
+        <v>2.2520000000000002E-2</v>
+      </c>
+      <c r="Q13" s="38">
+        <f>IF(D13,D13*0.002+0.02,"--")</f>
+        <v>2.9839999999999998E-2</v>
+      </c>
+      <c r="R13" s="38">
+        <f>IF(E13,E13*0.002+0.02,"--")</f>
+        <v>4.2380000000000001E-2</v>
+      </c>
+      <c r="S13" s="38">
+        <f>IF(F13,F13*0.002+0.02,"--")</f>
+        <v>5.3760000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" s="13">
         <v>100</v>
       </c>
@@ -7817,9 +8242,44 @@
       <c r="H14" s="20">
         <v>25</v>
       </c>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J14" s="31">
+        <f t="shared" si="10"/>
+        <v>14492.753623188406</v>
+      </c>
+      <c r="K14" s="31">
+        <f t="shared" si="11"/>
+        <v>7936.5079365079373</v>
+      </c>
+      <c r="L14" s="31">
+        <f t="shared" si="8"/>
+        <v>6493.5064935064902</v>
+      </c>
+      <c r="M14" s="31">
+        <f t="shared" si="9"/>
+        <v>5917.1597633136053</v>
+      </c>
+      <c r="O14" s="39">
+        <f t="shared" si="3"/>
+        <v>0.79899999999999993</v>
+      </c>
+      <c r="P14" s="38">
+        <f>IF(C14,C14*0.002+0.02,"--")</f>
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="Q14" s="38">
+        <f>IF(D14,D14*0.002+0.02,"--")</f>
+        <v>3.236E-2</v>
+      </c>
+      <c r="R14" s="38">
+        <f>IF(E14,E14*0.002+0.02,"--")</f>
+        <v>4.546E-2</v>
+      </c>
+      <c r="S14" s="38">
+        <f>IF(F14,F14*0.002+0.02,"--")</f>
+        <v>5.7139999999999996E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15" s="13">
         <v>110</v>
       </c>
@@ -7838,9 +8298,44 @@
       <c r="H15" s="20">
         <v>22.727272727272727</v>
       </c>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J15" s="31">
+        <f t="shared" si="10"/>
+        <v>12195.121951219511</v>
+      </c>
+      <c r="K15" s="31">
+        <f t="shared" si="11"/>
+        <v>7812.4999999999982</v>
+      </c>
+      <c r="L15" s="31">
+        <f t="shared" si="8"/>
+        <v>6289.3081761006297</v>
+      </c>
+      <c r="M15" s="31">
+        <f>($B15-$B14)/(F15-F14) *1000</f>
+        <v>5747.1264367816138</v>
+      </c>
+      <c r="O15" s="39">
+        <f t="shared" si="3"/>
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="P15" s="38">
+        <f>IF(C15,C15*0.002+0.02,"--")</f>
+        <v>2.554E-2</v>
+      </c>
+      <c r="Q15" s="38">
+        <f>IF(D15,D15*0.002+0.02,"--")</f>
+        <v>3.492E-2</v>
+      </c>
+      <c r="R15" s="38">
+        <f>IF(E15,E15*0.002+0.02,"--")</f>
+        <v>4.8640000000000003E-2</v>
+      </c>
+      <c r="S15" s="38">
+        <f>IF(F15,F15*0.002+0.02,"--")</f>
+        <v>6.0619999999999993E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="13">
         <v>120</v>
       </c>
@@ -7857,9 +8352,43 @@
       <c r="H16" s="20">
         <v>20.833333333333332</v>
       </c>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J16" s="31">
+        <f t="shared" si="10"/>
+        <v>10526.315789473681</v>
+      </c>
+      <c r="K16" s="31">
+        <f t="shared" si="11"/>
+        <v>7633.5877862595444</v>
+      </c>
+      <c r="L16" s="31">
+        <f t="shared" si="8"/>
+        <v>8849.5575221239014</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="39">
+        <f t="shared" si="3"/>
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="P16" s="38">
+        <f>IF(C16,C16*0.002+0.02,"--")</f>
+        <v>2.7439999999999999E-2</v>
+      </c>
+      <c r="Q16" s="38">
+        <f>IF(D16,D16*0.002+0.02,"--")</f>
+        <v>3.7540000000000004E-2</v>
+      </c>
+      <c r="R16" s="38">
+        <f>IF(E16,E16*0.002+0.02,"--")</f>
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="S16" s="2" t="str">
+        <f>IF(F16,F16*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="13">
         <v>130</v>
       </c>
@@ -7876,9 +8405,44 @@
       <c r="H17" s="20">
         <v>19.230769230769234</v>
       </c>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J17" s="31">
+        <f t="shared" si="10"/>
+        <v>9708.7378640776715</v>
+      </c>
+      <c r="K17" s="31">
+        <f t="shared" si="11"/>
+        <v>7194.2446043165437</v>
+      </c>
+      <c r="L17" s="31">
+        <f t="shared" si="8"/>
+        <v>4651.1627906976701</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="39">
+        <f t="shared" si="3"/>
+        <v>0.94900000000000007</v>
+      </c>
+      <c r="P17" s="38">
+        <f>IF(C17,C17*0.002+0.02,"--")</f>
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="Q17" s="38">
+        <f>IF(D17,D17*0.002+0.02,"--")</f>
+        <v>4.0320000000000002E-2</v>
+      </c>
+      <c r="R17" s="38">
+        <f>IF(E17,E17*0.002+0.02,"--")</f>
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="S17" s="2" t="str">
+        <f>IF(F17,F17*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="13">
         <v>140</v>
       </c>
@@ -7893,9 +8457,43 @@
       <c r="H18" s="20">
         <v>17.857142857142858</v>
       </c>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J18" s="31">
+        <f t="shared" si="10"/>
+        <v>8474.5762711864427</v>
+      </c>
+      <c r="K18" s="31">
+        <f t="shared" si="11"/>
+        <v>6711.4093959731536</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="39">
+        <f t="shared" si="3"/>
+        <v>0.99900000000000011</v>
+      </c>
+      <c r="P18" s="38">
+        <f>IF(C18,C18*0.002+0.02,"--")</f>
+        <v>3.1859999999999999E-2</v>
+      </c>
+      <c r="Q18" s="38">
+        <f>IF(D18,D18*0.002+0.02,"--")</f>
+        <v>4.3300000000000005E-2</v>
+      </c>
+      <c r="R18" s="2" t="str">
+        <f>IF(E18,E18*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="S18" s="2" t="str">
+        <f>IF(F18,F18*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="13">
         <v>150</v>
       </c>
@@ -7908,9 +8506,43 @@
       <c r="H19" s="20">
         <v>16.666666666666668</v>
       </c>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J19" s="31">
+        <f t="shared" si="10"/>
+        <v>8196.7213114754049</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="39">
+        <f t="shared" si="3"/>
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="P19" s="38">
+        <f>IF(C19,C19*0.002+0.02,"--")</f>
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="Q19" s="2" t="str">
+        <f>IF(D19,D19*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="R19" s="2" t="str">
+        <f>IF(E19,E19*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="S19" s="2" t="str">
+        <f>IF(F19,F19*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="13">
         <v>160</v>
       </c>
@@ -7923,9 +8555,44 @@
       <c r="H20" s="20">
         <v>15.625</v>
       </c>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J20" s="31">
+        <f t="shared" si="10"/>
+        <v>7751.9379844961286</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="39">
+        <f t="shared" si="3"/>
+        <v>1.099</v>
+      </c>
+      <c r="P20" s="38">
+        <f>IF(C20,C20*0.002+0.02,"--")</f>
+        <v>3.6879999999999996E-2</v>
+      </c>
+      <c r="Q20" s="2" t="str">
+        <f>IF(D20,D20*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="R20" s="2" t="str">
+        <f>IF(E20,E20*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="S20" s="2" t="str">
+        <f>IF(F20,F20*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="13">
         <v>170</v>
       </c>
@@ -7938,9 +8605,44 @@
       <c r="H21" s="20">
         <v>14.705882352941176</v>
       </c>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="31">
+        <f t="shared" si="10"/>
+        <v>7142.8571428571413</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" ref="K21:K22" si="12">(D21-D20)/($B21-$B20)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" ref="L21:L22" si="13">(E21-E20)/($B21-$B20)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" ref="M21:M22" si="14">(F21-F20)/($B21-$B20)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="39">
+        <f t="shared" si="3"/>
+        <v>1.149</v>
+      </c>
+      <c r="P21" s="38">
+        <f>IF(C21,C21*0.002+0.02,"--")</f>
+        <v>3.968E-2</v>
+      </c>
+      <c r="Q21" s="2" t="str">
+        <f>IF(D21,D21*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="R21" s="2" t="str">
+        <f>IF(E21,E21*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="S21" s="2" t="str">
+        <f>IF(F21,F21*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <v>180</v>
       </c>
@@ -7953,9 +8655,44 @@
       <c r="H22" s="21">
         <v>13.888888888888888</v>
       </c>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J22" s="31">
+        <f t="shared" si="10"/>
+        <v>6993.006993006994</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="39">
+        <f t="shared" si="3"/>
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="P22" s="38">
+        <f>IF(C22,C22*0.002+0.02,"--")</f>
+        <v>4.2540000000000001E-2</v>
+      </c>
+      <c r="Q22" s="2" t="str">
+        <f>IF(D22,D22*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="R22" s="2" t="str">
+        <f>IF(E22,E22*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="S22" s="2" t="str">
+        <f>IF(F22,F22*0.002+0.02,"--")</f>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="13">
         <v>190</v>
       </c>
@@ -7967,7 +8704,7 @@
         <v>13.157894736842104</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14">
         <v>200</v>
       </c>
@@ -7979,7 +8716,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="13">
         <v>210</v>
       </c>
@@ -7991,7 +8728,7 @@
         <v>11.904761904761903</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="14">
         <v>220</v>
       </c>
@@ -8003,7 +8740,7 @@
         <v>11.363636363636363</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="13">
         <v>230</v>
       </c>
@@ -8015,7 +8752,7 @@
         <v>10.869565217391305</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
         <v>240</v>
       </c>
@@ -8150,8 +8887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1A7CA5-6721-4819-A6AD-9AC2B2D8FA6F}">
   <dimension ref="A3:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8183,24 +8920,24 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <f>(2+30/B4)*D4/100</f>
+        <f t="shared" ref="A4:A19" si="0">(2+30/B4)*D4/100</f>
         <v>50</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="29">
         <f>10^2</f>
         <v>100</v>
       </c>
-      <c r="D4" s="33">
-        <f>B4*C4</f>
+      <c r="D4" s="31">
+        <f t="shared" ref="D4:D19" si="1">B4*C4</f>
         <v>1000</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="27">
         <v>0.36</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="28">
         <f>E4/0.2</f>
         <v>1.7999999999999998</v>
       </c>
@@ -8208,488 +8945,488 @@
         <f>D4/1000</f>
         <v>1</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="30">
         <f>(2 * B4 + 30) / 100 * C4</f>
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <f>(2+30/B5)*D5/100</f>
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
       <c r="B5" s="1">
         <v>20</v>
       </c>
-      <c r="C5" s="31">
-        <f t="shared" ref="C5:C9" si="0">10^3</f>
+      <c r="C5" s="29">
+        <f t="shared" ref="C5:C9" si="2">10^3</f>
         <v>1000</v>
       </c>
-      <c r="D5" s="33">
-        <f>B5*C5</f>
+      <c r="D5" s="31">
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="27">
         <v>0.35199999999999998</v>
       </c>
-      <c r="F5" s="30">
-        <f t="shared" ref="F5:F19" si="1">E5/0.2</f>
+      <c r="F5" s="28">
+        <f t="shared" ref="F5:F19" si="3">E5/0.2</f>
         <v>1.7599999999999998</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G19" si="2">D5/1000</f>
+        <f t="shared" ref="G5:G19" si="4">D5/1000</f>
         <v>20</v>
       </c>
-      <c r="H5" s="32">
-        <f t="shared" ref="H5:H19" si="3">(2 * B5 + 30) / 100 * C5</f>
+      <c r="H5" s="30">
+        <f t="shared" ref="H5:H19" si="5">(2 * B5 + 30) / 100 * C5</f>
         <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <f>(2+30/B6)*D6/100</f>
+        <f t="shared" si="0"/>
         <v>1100</v>
       </c>
       <c r="B6" s="1">
         <v>40</v>
       </c>
-      <c r="C6" s="31">
-        <f t="shared" si="0"/>
+      <c r="C6" s="29">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="D6" s="33">
-        <f>B6*C6</f>
+      <c r="D6" s="31">
+        <f t="shared" si="1"/>
         <v>40000</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="27">
         <v>0.35599999999999998</v>
       </c>
-      <c r="F6" s="30">
-        <f t="shared" si="1"/>
+      <c r="F6" s="28">
+        <f t="shared" si="3"/>
         <v>1.7799999999999998</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="H6" s="32">
-        <f t="shared" si="3"/>
+      <c r="H6" s="30">
+        <f t="shared" si="5"/>
         <v>1100</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <f>(2+30/B7)*D7/100</f>
+        <f t="shared" si="0"/>
         <v>1300</v>
       </c>
       <c r="B7" s="1">
         <v>50</v>
       </c>
-      <c r="C7" s="31">
-        <f t="shared" si="0"/>
+      <c r="C7" s="29">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="D7" s="33">
-        <f>B7*C7</f>
+      <c r="D7" s="31">
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="27">
         <v>0.34799999999999998</v>
       </c>
-      <c r="F7" s="30">
-        <f t="shared" si="1"/>
+      <c r="F7" s="28">
+        <f t="shared" si="3"/>
         <v>1.7399999999999998</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="H7" s="32">
-        <f t="shared" si="3"/>
+      <c r="H7" s="30">
+        <f t="shared" si="5"/>
         <v>1300</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f>(2+30/B8)*D8/100</f>
+        <f t="shared" si="0"/>
         <v>1700</v>
       </c>
       <c r="B8" s="1">
         <v>70</v>
       </c>
-      <c r="C8" s="31">
-        <f t="shared" si="0"/>
+      <c r="C8" s="29">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="D8" s="33">
-        <f>B8*C8</f>
+      <c r="D8" s="31">
+        <f t="shared" si="1"/>
         <v>70000</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="27">
         <v>0.35199999999999998</v>
       </c>
-      <c r="F8" s="30">
-        <f t="shared" si="1"/>
+      <c r="F8" s="28">
+        <f t="shared" si="3"/>
         <v>1.7599999999999998</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="H8" s="32">
-        <f t="shared" si="3"/>
+      <c r="H8" s="30">
+        <f t="shared" si="5"/>
         <v>1700</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <f>(2+30/B9)*D9/100</f>
+        <f t="shared" si="0"/>
         <v>2100</v>
       </c>
       <c r="B9" s="1">
         <v>90</v>
       </c>
-      <c r="C9" s="31">
-        <f t="shared" si="0"/>
+      <c r="C9" s="29">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="D9" s="33">
-        <f>B9*C9</f>
+      <c r="D9" s="31">
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="27">
         <v>0.35199999999999998</v>
       </c>
-      <c r="F9" s="30">
-        <f t="shared" si="1"/>
+      <c r="F9" s="28">
+        <f t="shared" si="3"/>
         <v>1.7599999999999998</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="H9" s="32">
-        <f t="shared" si="3"/>
+      <c r="H9" s="30">
+        <f t="shared" si="5"/>
         <v>2100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <f>(2+30/B10)*D10/100</f>
+        <f t="shared" si="0"/>
         <v>5400</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
       </c>
-      <c r="C10" s="31">
-        <f t="shared" ref="C10:C18" si="4">10^4</f>
+      <c r="C10" s="29">
+        <f t="shared" ref="C10:C18" si="6">10^4</f>
         <v>10000</v>
       </c>
-      <c r="D10" s="33">
-        <f>B10*C10</f>
+      <c r="D10" s="31">
+        <f t="shared" si="1"/>
         <v>120000</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="27">
         <v>0.35199999999999998</v>
       </c>
-      <c r="F10" s="30">
-        <f t="shared" si="1"/>
+      <c r="F10" s="28">
+        <f t="shared" si="3"/>
         <v>1.7599999999999998</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="H10" s="32">
-        <f t="shared" si="3"/>
+      <c r="H10" s="30">
+        <f t="shared" si="5"/>
         <v>5400</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <f>(2+30/B11)*D11/100</f>
+        <f t="shared" si="0"/>
         <v>5799.9999999999991</v>
       </c>
       <c r="B11" s="1">
         <v>14</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="29">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="D11" s="31">
+        <f t="shared" si="1"/>
+        <v>140000</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F11" s="28">
+        <f t="shared" si="3"/>
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="4"/>
-        <v>10000</v>
-      </c>
-      <c r="D11" s="33">
-        <f>B11*C11</f>
-        <v>140000</v>
-      </c>
-      <c r="E11" s="29">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="F11" s="30">
-        <f t="shared" si="1"/>
-        <v>1.7599999999999998</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="H11" s="32">
-        <f t="shared" si="3"/>
+      <c r="H11" s="30">
+        <f t="shared" si="5"/>
         <v>5800</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <f>(2+30/B12)*D12/100</f>
+        <f t="shared" si="0"/>
         <v>6600</v>
       </c>
       <c r="B12" s="1">
         <v>18</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="29">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="D12" s="31">
+        <f t="shared" si="1"/>
+        <v>180000</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F12" s="28">
+        <f t="shared" si="3"/>
+        <v>1.7199999999999998</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="4"/>
-        <v>10000</v>
-      </c>
-      <c r="D12" s="33">
-        <f>B12*C12</f>
-        <v>180000</v>
-      </c>
-      <c r="E12" s="29">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="F12" s="30">
-        <f t="shared" si="1"/>
-        <v>1.7199999999999998</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="H12" s="32">
-        <f t="shared" si="3"/>
+      <c r="H12" s="30">
+        <f t="shared" si="5"/>
         <v>6600</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <f>(2+30/B13)*D13/100</f>
+        <f t="shared" si="0"/>
         <v>7600</v>
       </c>
       <c r="B13" s="1">
         <v>23</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="29">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="D13" s="31">
+        <f t="shared" si="1"/>
+        <v>230000</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F13" s="28">
+        <f t="shared" si="3"/>
+        <v>1.7199999999999998</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="4"/>
-        <v>10000</v>
-      </c>
-      <c r="D13" s="33">
-        <f>B13*C13</f>
-        <v>230000</v>
-      </c>
-      <c r="E13" s="29">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="F13" s="30">
-        <f t="shared" si="1"/>
-        <v>1.7199999999999998</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="H13" s="32">
-        <f t="shared" si="3"/>
+      <c r="H13" s="30">
+        <f t="shared" si="5"/>
         <v>7600</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f>(2+30/B14)*D14/100</f>
+        <f t="shared" si="0"/>
         <v>8400</v>
       </c>
       <c r="B14" s="1">
         <v>27</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="29">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="D14" s="31">
+        <f t="shared" si="1"/>
+        <v>270000</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="F14" s="28">
+        <f t="shared" si="3"/>
+        <v>1.68</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="4"/>
-        <v>10000</v>
-      </c>
-      <c r="D14" s="33">
-        <f>B14*C14</f>
-        <v>270000</v>
-      </c>
-      <c r="E14" s="29">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="F14" s="30">
-        <f t="shared" si="1"/>
-        <v>1.68</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="H14" s="32">
-        <f t="shared" si="3"/>
+      <c r="H14" s="30">
+        <f t="shared" si="5"/>
         <v>8400</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <f>(2+30/B15)*D15/100</f>
+        <f t="shared" si="0"/>
         <v>13000</v>
       </c>
       <c r="B15" s="1">
         <v>50</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="29">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="D15" s="31">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0.308</v>
+      </c>
+      <c r="F15" s="28">
+        <f t="shared" si="3"/>
+        <v>1.5399999999999998</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="4"/>
-        <v>10000</v>
-      </c>
-      <c r="D15" s="33">
-        <f>B15*C15</f>
-        <v>500000</v>
-      </c>
-      <c r="E15" s="29">
-        <v>0.308</v>
-      </c>
-      <c r="F15" s="30">
-        <f t="shared" si="1"/>
-        <v>1.5399999999999998</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="H15" s="32">
-        <f t="shared" si="3"/>
+      <c r="H15" s="30">
+        <f t="shared" si="5"/>
         <v>13000</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <f>(2+30/B16)*D16/100</f>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="B16" s="1">
         <v>60</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="29">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="D16" s="31">
+        <f t="shared" si="1"/>
+        <v>600000</v>
+      </c>
+      <c r="E16" s="27">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F16" s="28">
+        <f t="shared" si="3"/>
+        <v>1.4399999999999997</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="4"/>
-        <v>10000</v>
-      </c>
-      <c r="D16" s="33">
-        <f>B16*C16</f>
-        <v>600000</v>
-      </c>
-      <c r="E16" s="29">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="F16" s="30">
-        <f t="shared" si="1"/>
-        <v>1.4399999999999997</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="H16" s="32">
-        <f t="shared" si="3"/>
+      <c r="H16" s="30">
+        <f t="shared" si="5"/>
         <v>15000</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <f>(2+30/B17)*D17/100</f>
+        <f t="shared" si="0"/>
         <v>16999.999999999996</v>
       </c>
       <c r="B17" s="1">
         <v>70</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="29">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="D17" s="31">
+        <f t="shared" si="1"/>
+        <v>700000</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F17" s="28">
+        <f t="shared" si="3"/>
+        <v>1.36</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="4"/>
-        <v>10000</v>
-      </c>
-      <c r="D17" s="33">
-        <f>B17*C17</f>
-        <v>700000</v>
-      </c>
-      <c r="E17" s="29">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="F17" s="30">
-        <f t="shared" si="1"/>
-        <v>1.36</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="H17" s="32">
-        <f t="shared" si="3"/>
+      <c r="H17" s="30">
+        <f t="shared" si="5"/>
         <v>17000</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <f>(2+30/B18)*D18/100</f>
+        <f t="shared" si="0"/>
         <v>19000</v>
       </c>
       <c r="B18" s="1">
         <v>80</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="29">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="D18" s="31">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0.254</v>
+      </c>
+      <c r="F18" s="28">
+        <f t="shared" si="3"/>
+        <v>1.27</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="4"/>
-        <v>10000</v>
-      </c>
-      <c r="D18" s="33">
-        <f>B18*C18</f>
-        <v>800000</v>
-      </c>
-      <c r="E18" s="29">
-        <v>0.254</v>
-      </c>
-      <c r="F18" s="30">
-        <f t="shared" si="1"/>
-        <v>1.27</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="H18" s="32">
-        <f t="shared" si="3"/>
+      <c r="H18" s="30">
+        <f t="shared" si="5"/>
         <v>19000</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <f>(2+30/B19)*D19/100</f>
+        <f t="shared" si="0"/>
         <v>21000</v>
       </c>
       <c r="B19" s="1">
         <v>90</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="29">
         <f>10^4</f>
         <v>10000</v>
       </c>
-      <c r="D19" s="33">
-        <f>B19*C19</f>
+      <c r="D19" s="31">
+        <f t="shared" si="1"/>
         <v>900000</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="27">
         <v>0.24</v>
       </c>
-      <c r="F19" s="30">
-        <f t="shared" si="1"/>
+      <c r="F19" s="28">
+        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-      <c r="H19" s="32">
-        <f t="shared" si="3"/>
+      <c r="H19" s="30">
+        <f t="shared" si="5"/>
         <v>21000</v>
       </c>
     </row>
@@ -8703,7 +9440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2DBD95-3BBB-4329-A964-DC42FA0A821F}">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -8811,8 +9548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42AB24A-B1EF-4497-B49F-FF2EF80BADF0}">
   <dimension ref="B2:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C28"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -9065,8 +9802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B45CBFB-C1B1-48BC-9795-2209B8496CD0}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9097,18 +9834,18 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="27" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="28"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -9138,10 +9875,18 @@
       <c r="B4" s="1">
         <v>-5.5</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="20"/>
+      <c r="D4" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" s="22">
         <v>-5.55</v>
       </c>
@@ -9156,10 +9901,18 @@
         <f>B4+0.5</f>
         <v>-5</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="H5" s="22">
         <v>-4.97</v>
       </c>
@@ -9174,8 +9927,12 @@
         <f t="shared" ref="B6:B24" si="0">B5+0.5</f>
         <v>-4.5</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="22">
         <v>-4.53</v>
       </c>
@@ -9196,8 +9953,12 @@
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="F7" s="22">
         <v>-4</v>
       </c>
@@ -9218,8 +9979,12 @@
         <f t="shared" si="0"/>
         <v>-3.5</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="F8" s="22">
         <v>-3.52</v>
       </c>
@@ -9616,8 +10381,12 @@
       <c r="G23" s="20">
         <v>21.17</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="20"/>
+      <c r="H23" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9637,8 +10406,12 @@
       <c r="G24" s="21">
         <v>22.75</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="21"/>
+      <c r="H24" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9649,4 +10422,510 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7F6010-E2CE-4708-9864-8046E61A4D02}">
+  <dimension ref="B1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="33">
+        <v>0.182</v>
+      </c>
+      <c r="D2" s="34">
+        <f>C2/0.2</f>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="33">
+        <v>0.36</v>
+      </c>
+      <c r="I2" s="34">
+        <f>H2/0.2</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="33">
+        <v>3.24</v>
+      </c>
+      <c r="M2" s="34">
+        <f>L2/0.2</f>
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="35">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="D3" s="34">
+        <f t="shared" ref="D3:D12" si="0">C3/0.2</f>
+        <v>1.7399999999999998</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3" s="33">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="I3" s="34">
+        <f t="shared" ref="I3:I17" si="1">H3/0.2</f>
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3" s="33">
+        <v>3.14</v>
+      </c>
+      <c r="M3" s="34">
+        <f t="shared" ref="M3:M17" si="2">L3/0.2</f>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="35">
+        <v>2</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0.64</v>
+      </c>
+      <c r="D4" s="34">
+        <f t="shared" si="0"/>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="G4">
+        <v>40</v>
+      </c>
+      <c r="H4" s="33">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="I4" s="34">
+        <f t="shared" si="1"/>
+        <v>1.7799999999999998</v>
+      </c>
+      <c r="K4">
+        <v>40</v>
+      </c>
+      <c r="L4" s="33">
+        <v>2.84</v>
+      </c>
+      <c r="M4" s="34">
+        <f t="shared" si="2"/>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="35">
+        <v>5</v>
+      </c>
+      <c r="C5" s="33">
+        <v>1.23</v>
+      </c>
+      <c r="D5" s="34">
+        <f t="shared" si="0"/>
+        <v>6.1499999999999995</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5" s="33">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="I5" s="34">
+        <f t="shared" si="1"/>
+        <v>1.7399999999999998</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5" s="33">
+        <v>2.64</v>
+      </c>
+      <c r="M5" s="34">
+        <f t="shared" si="2"/>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="35">
+        <v>10</v>
+      </c>
+      <c r="C6" s="33">
+        <v>1.9</v>
+      </c>
+      <c r="D6" s="34">
+        <f t="shared" si="0"/>
+        <v>9.4999999999999982</v>
+      </c>
+      <c r="G6">
+        <v>70</v>
+      </c>
+      <c r="H6" s="33">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="I6" s="34">
+        <f t="shared" si="1"/>
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="K6">
+        <v>70</v>
+      </c>
+      <c r="L6" s="33">
+        <v>2.34</v>
+      </c>
+      <c r="M6" s="34">
+        <f t="shared" si="2"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="35">
+        <v>20</v>
+      </c>
+      <c r="C7" s="33">
+        <v>2.54</v>
+      </c>
+      <c r="D7" s="34">
+        <f t="shared" si="0"/>
+        <v>12.7</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
+      <c r="H7" s="33">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="I7" s="34">
+        <f t="shared" si="1"/>
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="K7">
+        <v>90</v>
+      </c>
+      <c r="L7" s="33">
+        <v>2</v>
+      </c>
+      <c r="M7" s="34">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="35">
+        <v>50</v>
+      </c>
+      <c r="C8" s="33">
+        <v>3.2</v>
+      </c>
+      <c r="D8" s="34">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>120</v>
+      </c>
+      <c r="H8" s="33">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="I8" s="34">
+        <f t="shared" si="1"/>
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="K8">
+        <v>120</v>
+      </c>
+      <c r="L8" s="33">
+        <v>1.68</v>
+      </c>
+      <c r="M8" s="34">
+        <f t="shared" si="2"/>
+        <v>8.3999999999999986</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="35">
+        <v>100</v>
+      </c>
+      <c r="C9" s="33">
+        <v>3.56</v>
+      </c>
+      <c r="D9" s="34">
+        <f t="shared" si="0"/>
+        <v>17.8</v>
+      </c>
+      <c r="G9">
+        <v>140</v>
+      </c>
+      <c r="H9" s="33">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="I9" s="34">
+        <f t="shared" si="1"/>
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="K9">
+        <v>140</v>
+      </c>
+      <c r="L9" s="33">
+        <v>1.48</v>
+      </c>
+      <c r="M9" s="34">
+        <f t="shared" si="2"/>
+        <v>7.3999999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="35">
+        <v>200</v>
+      </c>
+      <c r="C10" s="33">
+        <v>3.72</v>
+      </c>
+      <c r="D10" s="34">
+        <f t="shared" si="0"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G10">
+        <v>180</v>
+      </c>
+      <c r="H10" s="33">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="I10" s="34">
+        <f t="shared" si="1"/>
+        <v>1.7199999999999998</v>
+      </c>
+      <c r="K10">
+        <v>180</v>
+      </c>
+      <c r="L10" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="M10" s="34">
+        <f t="shared" si="2"/>
+        <v>5.9999999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="35">
+        <v>500</v>
+      </c>
+      <c r="C11" s="33">
+        <v>3.6</v>
+      </c>
+      <c r="D11" s="34">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>230</v>
+      </c>
+      <c r="H11" s="33">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="I11" s="34">
+        <f t="shared" si="1"/>
+        <v>1.7199999999999998</v>
+      </c>
+      <c r="K11">
+        <v>230</v>
+      </c>
+      <c r="L11" s="33">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M11" s="34">
+        <f t="shared" si="2"/>
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="35">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="33">
+        <v>3.36</v>
+      </c>
+      <c r="D12" s="34">
+        <f t="shared" si="0"/>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="G12">
+        <v>270</v>
+      </c>
+      <c r="H12" s="33">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="I12" s="34">
+        <f t="shared" si="1"/>
+        <v>1.68</v>
+      </c>
+      <c r="K12">
+        <v>270</v>
+      </c>
+      <c r="L12" s="33">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="M12" s="34">
+        <f t="shared" si="2"/>
+        <v>4.2399999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>500</v>
+      </c>
+      <c r="H13" s="33">
+        <v>0.308</v>
+      </c>
+      <c r="I13" s="34">
+        <f t="shared" si="1"/>
+        <v>1.5399999999999998</v>
+      </c>
+      <c r="K13">
+        <v>500</v>
+      </c>
+      <c r="L13" s="33">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="M13" s="34">
+        <f t="shared" si="2"/>
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>600</v>
+      </c>
+      <c r="H14" s="33">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="I14" s="34">
+        <f t="shared" si="1"/>
+        <v>1.4399999999999997</v>
+      </c>
+      <c r="K14">
+        <v>600</v>
+      </c>
+      <c r="L14" s="33">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="M14" s="34">
+        <f t="shared" si="2"/>
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>700</v>
+      </c>
+      <c r="H15" s="33">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="I15" s="34">
+        <f t="shared" si="1"/>
+        <v>1.36</v>
+      </c>
+      <c r="K15">
+        <v>700</v>
+      </c>
+      <c r="L15" s="33">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="M15" s="34">
+        <f t="shared" si="2"/>
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>800</v>
+      </c>
+      <c r="H16" s="33">
+        <v>0.254</v>
+      </c>
+      <c r="I16" s="34">
+        <f t="shared" si="1"/>
+        <v>1.27</v>
+      </c>
+      <c r="K16">
+        <v>800</v>
+      </c>
+      <c r="L16" s="33">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="M16" s="34">
+        <f t="shared" si="2"/>
+        <v>1.4399999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>900</v>
+      </c>
+      <c r="H17" s="33">
+        <v>0.24</v>
+      </c>
+      <c r="I17" s="34">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="K17">
+        <v>900</v>
+      </c>
+      <c r="L17" s="33">
+        <v>0.26</v>
+      </c>
+      <c r="M17" s="34">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/graph/Graphs.xlsx
+++ b/graph/Graphs.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SerKin0\Documents\LaTeX\Лабораторная работа 6-Исследование электронных ламп диода и триода\IBTC-physics-2k3s-latex-vacuum-tube-diodes-triodes\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B9488C-4093-42DE-B741-9489A4A38BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAACC7E9-2C77-4D77-A464-84940A4F3211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="704" xr2:uid="{E9884957-8132-4B22-A6C3-69341D62379A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="704" activeTab="1" xr2:uid="{E9884957-8132-4B22-A6C3-69341D62379A}"/>
   </bookViews>
   <sheets>
     <sheet name="Анодная характеристика триода" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="5" r:id="rId2"/>
-    <sheet name="ВАХ диода" sheetId="2" r:id="rId3"/>
-    <sheet name="Максимально допустимый ток" sheetId="3" r:id="rId4"/>
-    <sheet name="Сеточная характеристика" sheetId="4" r:id="rId5"/>
-    <sheet name="Зависимость K от 50кОм" sheetId="6" r:id="rId6"/>
+    <sheet name="Лист2" sheetId="7" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId3"/>
+    <sheet name="ВАХ диода" sheetId="2" r:id="rId4"/>
+    <sheet name="Максимально допустимый ток" sheetId="3" r:id="rId5"/>
+    <sheet name="Сеточная характеристика" sheetId="4" r:id="rId6"/>
+    <sheet name="Зависимость K от 50кОм" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>U, В</t>
   </si>
@@ -113,6 +114,12 @@
   </si>
   <si>
     <t>$K$</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>R_i</t>
   </si>
 </sst>
 </file>
@@ -355,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -442,16 +449,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -7106,16 +7116,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>596881</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>279380</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>124600</xdr:rowOff>
+      <xdr:rowOff>18766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>473648</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>30617</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>156148</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>109991</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7624,10 +7634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4394BA5C-D61B-4222-85B9-8159D3D0F758}">
-  <dimension ref="B1:S47"/>
+  <dimension ref="B1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7644,8 +7654,8 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B2" s="7"/>
       <c r="C2" s="18" t="s">
         <v>4</v>
@@ -7663,7 +7673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
@@ -7685,7 +7695,7 @@
       <c r="H3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B4" s="13">
         <v>0</v>
       </c>
@@ -7713,28 +7723,28 @@
       <c r="M4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="37">
         <f>B4*0.005+0.299</f>
         <v>0.29899999999999999</v>
       </c>
       <c r="P4" s="2" t="str">
-        <f>IF(C4,C4*0.002+0.02,"--")</f>
+        <f t="shared" ref="P4:P22" si="0">IF(C4,C4*0.002+0.02,"--")</f>
         <v>--</v>
       </c>
       <c r="Q4" s="2" t="str">
-        <f>IF(D4,D4*0.002+0.02,"--")</f>
+        <f t="shared" ref="Q4:Q22" si="1">IF(D4,D4*0.002+0.02,"--")</f>
         <v>--</v>
       </c>
-      <c r="R4" s="38">
-        <f>IF(E4,E4*0.002+0.02,"--")</f>
+      <c r="R4" s="36">
+        <f t="shared" ref="R4:R22" si="2">IF(E4,E4*0.002+0.02,"--")</f>
         <v>2.0279999999999999E-2</v>
       </c>
-      <c r="S4" s="38">
-        <f>IF(F4,F4*0.002+0.02,"--")</f>
+      <c r="S4" s="36">
+        <f t="shared" ref="S4:S22" si="3">IF(F4,F4*0.002+0.02,"--")</f>
         <v>2.026E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B5" s="13">
         <v>10</v>
       </c>
@@ -7754,39 +7764,55 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:M20" si="0">(D5-D4)/($B5-$B4)</f>
+        <f t="shared" ref="K5:M20" si="4">(D5-D4)/($B5-$B4)</f>
         <v>0</v>
       </c>
       <c r="L5" s="31">
-        <f t="shared" ref="L5:L6" si="1">($B5-$B4)/(E5-E4) *1000</f>
+        <f t="shared" ref="L5:L6" si="5">($B5-$B4)/(E5-E4) *1000</f>
         <v>8000</v>
       </c>
       <c r="M5" s="31">
-        <f t="shared" ref="M5:M6" si="2">($B5-$B4)/(F5-F4) *1000</f>
+        <f t="shared" ref="M5:M6" si="6">($B5-$B4)/(F5-F4) *1000</f>
         <v>2202.6431718061672</v>
       </c>
-      <c r="O5" s="39">
-        <f t="shared" ref="O5:O22" si="3">B5*0.005+0.299</f>
+      <c r="O5" s="37">
+        <f t="shared" ref="O5:O22" si="7">B5*0.005+0.299</f>
         <v>0.34899999999999998</v>
       </c>
       <c r="P5" s="2" t="str">
-        <f>IF(C5,C5*0.002+0.02,"--")</f>
+        <f t="shared" si="0"/>
         <v>--</v>
       </c>
       <c r="Q5" s="2" t="str">
-        <f>IF(D5,D5*0.002+0.02,"--")</f>
+        <f t="shared" si="1"/>
         <v>--</v>
       </c>
-      <c r="R5" s="38">
-        <f>IF(E5,E5*0.002+0.02,"--")</f>
+      <c r="R5" s="36">
+        <f t="shared" si="2"/>
         <v>2.2780000000000002E-2</v>
       </c>
-      <c r="S5" s="38">
-        <f>IF(F5,F5*0.002+0.02,"--")</f>
+      <c r="S5" s="36">
+        <f t="shared" si="3"/>
         <v>2.9339999999999998E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U5" s="27" t="str">
+        <f>IF(C4,(C5-C4)/($B5-$B4), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="V5" s="27" t="str">
+        <f t="shared" ref="V5:X20" si="8">IF(D4,(D5-D4)/($B5-$B4), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="W5" s="27">
+        <f t="shared" si="8"/>
+        <v>0.125</v>
+      </c>
+      <c r="X5" s="27">
+        <f t="shared" si="8"/>
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B6" s="13">
         <v>20</v>
       </c>
@@ -7806,39 +7832,55 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L6" s="31">
+        <f t="shared" si="5"/>
+        <v>10416.666666666664</v>
+      </c>
+      <c r="M6" s="31">
+        <f t="shared" si="6"/>
+        <v>7462.6865671641799</v>
+      </c>
+      <c r="O6" s="37">
+        <f t="shared" si="7"/>
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="Q6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>10416.666666666664</v>
-      </c>
-      <c r="M6" s="31">
+        <v>--</v>
+      </c>
+      <c r="R6" s="36">
         <f t="shared" si="2"/>
-        <v>7462.6865671641799</v>
-      </c>
-      <c r="O6" s="39">
+        <v>2.47E-2</v>
+      </c>
+      <c r="S6" s="36">
         <f t="shared" si="3"/>
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="P6" s="2" t="str">
-        <f>IF(C6,C6*0.002+0.02,"--")</f>
+        <v>3.202E-2</v>
+      </c>
+      <c r="U6" s="27" t="str">
+        <f t="shared" ref="U6:U22" si="9">IF(C5,(C6-C5)/($B6-$B5), "--")</f>
         <v>--</v>
       </c>
-      <c r="Q6" s="2" t="str">
-        <f>IF(D6,D6*0.002+0.02,"--")</f>
+      <c r="V6" s="27" t="str">
+        <f t="shared" si="8"/>
         <v>--</v>
       </c>
-      <c r="R6" s="38">
-        <f>IF(E6,E6*0.002+0.02,"--")</f>
-        <v>2.47E-2</v>
-      </c>
-      <c r="S6" s="38">
-        <f>IF(F6,F6*0.002+0.02,"--")</f>
-        <v>3.202E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="W6" s="27">
+        <f t="shared" si="8"/>
+        <v>9.6000000000000016E-2</v>
+      </c>
+      <c r="X6" s="27">
+        <f t="shared" si="8"/>
+        <v>0.13399999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B7" s="13">
         <v>30</v>
       </c>
@@ -7856,43 +7898,59 @@
         <v>83.333333333333329</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J9" si="4">(C7-C6)/($B7-$B6)</f>
+        <f t="shared" ref="J7:J9" si="10">(C7-C6)/($B7-$B6)</f>
         <v>0</v>
       </c>
       <c r="K7" s="31">
-        <f t="shared" ref="K7:K10" si="5">($B7-$B6)/(D7-D6) *1000</f>
+        <f t="shared" ref="K7:K10" si="11">($B7-$B6)/(D7-D6) *1000</f>
         <v>62500</v>
       </c>
       <c r="L7" s="31">
-        <f t="shared" ref="L7" si="6">($B7-$B6)/(E7-E6) *1000</f>
+        <f t="shared" ref="L7" si="12">($B7-$B6)/(E7-E6) *1000</f>
         <v>9615.3846153846152</v>
       </c>
       <c r="M7" s="31">
-        <f t="shared" ref="M7" si="7">($B7-$B6)/(F7-F6) *1000</f>
+        <f t="shared" ref="M7" si="13">($B7-$B6)/(F7-F6) *1000</f>
         <v>6711.4093959731536</v>
       </c>
-      <c r="O7" s="39">
+      <c r="O7" s="37">
+        <f t="shared" si="7"/>
+        <v>0.44899999999999995</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="Q7" s="36">
+        <f t="shared" si="1"/>
+        <v>2.0320000000000001E-2</v>
+      </c>
+      <c r="R7" s="36">
+        <f t="shared" si="2"/>
+        <v>2.6780000000000002E-2</v>
+      </c>
+      <c r="S7" s="36">
         <f t="shared" si="3"/>
-        <v>0.44899999999999995</v>
-      </c>
-      <c r="P7" s="2" t="str">
-        <f>IF(C7,C7*0.002+0.02,"--")</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="U7" s="27" t="str">
+        <f t="shared" si="9"/>
         <v>--</v>
       </c>
-      <c r="Q7" s="38">
-        <f>IF(D7,D7*0.002+0.02,"--")</f>
-        <v>2.0320000000000001E-2</v>
-      </c>
-      <c r="R7" s="38">
-        <f>IF(E7,E7*0.002+0.02,"--")</f>
-        <v>2.6780000000000002E-2</v>
-      </c>
-      <c r="S7" s="38">
-        <f>IF(F7,F7*0.002+0.02,"--")</f>
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="V7" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>--</v>
+      </c>
+      <c r="W7" s="27">
+        <f t="shared" si="8"/>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="X7" s="27">
+        <f t="shared" si="8"/>
+        <v>0.14900000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B8" s="13">
         <v>40</v>
       </c>
@@ -7910,43 +7968,59 @@
         <v>62.5</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K8" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>26315.78947368421</v>
       </c>
       <c r="L8" s="31">
-        <f t="shared" ref="L8:L17" si="8">($B8-$B7)/(E8-E7) *1000</f>
+        <f t="shared" ref="L8:L17" si="14">($B8-$B7)/(E8-E7) *1000</f>
         <v>9009.0090090090089</v>
       </c>
       <c r="M8" s="31">
-        <f t="shared" ref="M8:M14" si="9">($B8-$B7)/(F8-F7) *1000</f>
+        <f t="shared" ref="M8:M14" si="15">($B8-$B7)/(F8-F7) *1000</f>
         <v>6802.7210884353708</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="37">
+        <f t="shared" si="7"/>
+        <v>0.499</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="Q8" s="36">
+        <f t="shared" si="1"/>
+        <v>2.1080000000000002E-2</v>
+      </c>
+      <c r="R8" s="36">
+        <f t="shared" si="2"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="S8" s="36">
         <f t="shared" si="3"/>
-        <v>0.499</v>
-      </c>
-      <c r="P8" s="2" t="str">
-        <f>IF(C8,C8*0.002+0.02,"--")</f>
+        <v>3.7940000000000002E-2</v>
+      </c>
+      <c r="U8" s="27" t="str">
+        <f t="shared" si="9"/>
         <v>--</v>
       </c>
-      <c r="Q8" s="38">
-        <f>IF(D8,D8*0.002+0.02,"--")</f>
-        <v>2.1080000000000002E-2</v>
-      </c>
-      <c r="R8" s="38">
-        <f>IF(E8,E8*0.002+0.02,"--")</f>
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="S8" s="38">
-        <f>IF(F8,F8*0.002+0.02,"--")</f>
-        <v>3.7940000000000002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="V8" s="27">
+        <f t="shared" si="8"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="W8" s="27">
+        <f t="shared" si="8"/>
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="X8" s="27">
+        <f t="shared" si="8"/>
+        <v>0.14700000000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B9" s="13">
         <v>50</v>
       </c>
@@ -7964,43 +8038,59 @@
         <v>50</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K9" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>16949.152542372885</v>
       </c>
       <c r="L9" s="31">
+        <f t="shared" si="14"/>
+        <v>7874.0157480314992</v>
+      </c>
+      <c r="M9" s="31">
+        <f t="shared" si="15"/>
+        <v>6666.666666666667</v>
+      </c>
+      <c r="O9" s="37">
+        <f t="shared" si="7"/>
+        <v>0.54899999999999993</v>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="Q9" s="36">
+        <f t="shared" si="1"/>
+        <v>2.2260000000000002E-2</v>
+      </c>
+      <c r="R9" s="36">
+        <f t="shared" si="2"/>
+        <v>3.1539999999999999E-2</v>
+      </c>
+      <c r="S9" s="36">
+        <f t="shared" si="3"/>
+        <v>4.0940000000000004E-2</v>
+      </c>
+      <c r="U9" s="27" t="str">
+        <f t="shared" si="9"/>
+        <v>--</v>
+      </c>
+      <c r="V9" s="27">
         <f t="shared" si="8"/>
-        <v>7874.0157480314992</v>
-      </c>
-      <c r="M9" s="31">
-        <f t="shared" si="9"/>
-        <v>6666.666666666667</v>
-      </c>
-      <c r="O9" s="39">
-        <f t="shared" si="3"/>
-        <v>0.54899999999999993</v>
-      </c>
-      <c r="P9" s="2" t="str">
-        <f>IF(C9,C9*0.002+0.02,"--")</f>
-        <v>--</v>
-      </c>
-      <c r="Q9" s="38">
-        <f>IF(D9,D9*0.002+0.02,"--")</f>
-        <v>2.2260000000000002E-2</v>
-      </c>
-      <c r="R9" s="38">
-        <f>IF(E9,E9*0.002+0.02,"--")</f>
-        <v>3.1539999999999999E-2</v>
-      </c>
-      <c r="S9" s="38">
-        <f>IF(F9,F9*0.002+0.02,"--")</f>
-        <v>4.0940000000000004E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+        <v>5.8999999999999983E-2</v>
+      </c>
+      <c r="W9" s="27">
+        <f t="shared" si="8"/>
+        <v>0.12699999999999995</v>
+      </c>
+      <c r="X9" s="27">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="13">
         <v>60</v>
       </c>
@@ -8023,39 +8113,55 @@
         <v>0</v>
       </c>
       <c r="K10" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>12987.012987012988</v>
       </c>
       <c r="L10" s="31">
+        <f t="shared" si="14"/>
+        <v>8333.3333333333321</v>
+      </c>
+      <c r="M10" s="31">
+        <f t="shared" si="15"/>
+        <v>6535.9477124183031</v>
+      </c>
+      <c r="O10" s="37">
+        <f t="shared" si="7"/>
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="P10" s="36">
+        <f t="shared" si="0"/>
+        <v>2.0240000000000001E-2</v>
+      </c>
+      <c r="Q10" s="36">
+        <f t="shared" si="1"/>
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="R10" s="36">
+        <f t="shared" si="2"/>
+        <v>3.3939999999999998E-2</v>
+      </c>
+      <c r="S10" s="36">
+        <f t="shared" si="3"/>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="U10" s="27" t="str">
+        <f t="shared" si="9"/>
+        <v>--</v>
+      </c>
+      <c r="V10" s="27">
         <f t="shared" si="8"/>
-        <v>8333.3333333333321</v>
-      </c>
-      <c r="M10" s="31">
-        <f t="shared" si="9"/>
-        <v>6535.9477124183031</v>
-      </c>
-      <c r="O10" s="39">
-        <f t="shared" si="3"/>
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="P10" s="38">
-        <f>IF(C10,C10*0.002+0.02,"--")</f>
-        <v>2.0240000000000001E-2</v>
-      </c>
-      <c r="Q10" s="38">
-        <f>IF(D10,D10*0.002+0.02,"--")</f>
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="R10" s="38">
-        <f>IF(E10,E10*0.002+0.02,"--")</f>
-        <v>3.3939999999999998E-2</v>
-      </c>
-      <c r="S10" s="38">
-        <f>IF(F10,F10*0.002+0.02,"--")</f>
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="W10" s="27">
+        <f t="shared" si="8"/>
+        <v>0.12000000000000002</v>
+      </c>
+      <c r="X10" s="27">
+        <f t="shared" si="8"/>
+        <v>0.15299999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B11" s="13">
         <v>70</v>
       </c>
@@ -8083,35 +8189,51 @@
         <v>10989.010989010987</v>
       </c>
       <c r="L11" s="31">
+        <f t="shared" si="14"/>
+        <v>7352.9411764705865</v>
+      </c>
+      <c r="M11" s="31">
+        <f t="shared" si="15"/>
+        <v>6289.3081761006297</v>
+      </c>
+      <c r="O11" s="37">
+        <f t="shared" si="7"/>
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="P11" s="36">
+        <f t="shared" si="0"/>
+        <v>2.068E-2</v>
+      </c>
+      <c r="Q11" s="36">
+        <f t="shared" si="1"/>
+        <v>2.562E-2</v>
+      </c>
+      <c r="R11" s="36">
+        <f t="shared" si="2"/>
+        <v>3.6659999999999998E-2</v>
+      </c>
+      <c r="S11" s="36">
+        <f t="shared" si="3"/>
+        <v>4.718E-2</v>
+      </c>
+      <c r="U11" s="27">
+        <f t="shared" si="9"/>
+        <v>2.2000000000000002E-2</v>
+      </c>
+      <c r="V11" s="27">
         <f t="shared" si="8"/>
-        <v>7352.9411764705865</v>
-      </c>
-      <c r="M11" s="31">
-        <f t="shared" si="9"/>
-        <v>6289.3081761006297</v>
-      </c>
-      <c r="O11" s="39">
-        <f t="shared" si="3"/>
-        <v>0.64900000000000002</v>
-      </c>
-      <c r="P11" s="38">
-        <f>IF(C11,C11*0.002+0.02,"--")</f>
-        <v>2.068E-2</v>
-      </c>
-      <c r="Q11" s="38">
-        <f>IF(D11,D11*0.002+0.02,"--")</f>
-        <v>2.562E-2</v>
-      </c>
-      <c r="R11" s="38">
-        <f>IF(E11,E11*0.002+0.02,"--")</f>
-        <v>3.6659999999999998E-2</v>
-      </c>
-      <c r="S11" s="38">
-        <f>IF(F11,F11*0.002+0.02,"--")</f>
-        <v>4.718E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+        <v>9.1000000000000011E-2</v>
+      </c>
+      <c r="W11" s="27">
+        <f t="shared" si="8"/>
+        <v>0.13600000000000004</v>
+      </c>
+      <c r="X11" s="27">
+        <f t="shared" si="8"/>
+        <v>0.15899999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B12" s="13">
         <v>80</v>
       </c>
@@ -8131,43 +8253,59 @@
         <v>31.25</v>
       </c>
       <c r="J12" s="31">
-        <f t="shared" ref="J12:J22" si="10">($B12-$B11)/(C12-C11) *1000</f>
+        <f t="shared" ref="J12:J22" si="16">($B12-$B11)/(C12-C11) *1000</f>
         <v>26315.789473684214</v>
       </c>
       <c r="K12" s="31">
-        <f t="shared" ref="K12:K18" si="11">($B12-$B11)/(D12-D11) *1000</f>
+        <f t="shared" ref="K12:K18" si="17">($B12-$B11)/(D12-D11) *1000</f>
         <v>9900.9900990099031</v>
       </c>
       <c r="L12" s="31">
+        <f t="shared" si="14"/>
+        <v>7194.2446043165437</v>
+      </c>
+      <c r="M12" s="31">
+        <f t="shared" si="15"/>
+        <v>6211.1801242236043</v>
+      </c>
+      <c r="O12" s="37">
+        <f t="shared" si="7"/>
+        <v>0.69900000000000007</v>
+      </c>
+      <c r="P12" s="36">
+        <f t="shared" si="0"/>
+        <v>2.1440000000000001E-2</v>
+      </c>
+      <c r="Q12" s="36">
+        <f t="shared" si="1"/>
+        <v>2.7640000000000001E-2</v>
+      </c>
+      <c r="R12" s="36">
+        <f t="shared" si="2"/>
+        <v>3.9440000000000003E-2</v>
+      </c>
+      <c r="S12" s="36">
+        <f t="shared" si="3"/>
+        <v>5.04E-2</v>
+      </c>
+      <c r="U12" s="27">
+        <f t="shared" si="9"/>
+        <v>3.7999999999999992E-2</v>
+      </c>
+      <c r="V12" s="27">
         <f t="shared" si="8"/>
-        <v>7194.2446043165437</v>
-      </c>
-      <c r="M12" s="31">
-        <f t="shared" si="9"/>
-        <v>6211.1801242236043</v>
-      </c>
-      <c r="O12" s="39">
-        <f t="shared" si="3"/>
-        <v>0.69900000000000007</v>
-      </c>
-      <c r="P12" s="38">
-        <f>IF(C12,C12*0.002+0.02,"--")</f>
-        <v>2.1440000000000001E-2</v>
-      </c>
-      <c r="Q12" s="38">
-        <f>IF(D12,D12*0.002+0.02,"--")</f>
-        <v>2.7640000000000001E-2</v>
-      </c>
-      <c r="R12" s="38">
-        <f>IF(E12,E12*0.002+0.02,"--")</f>
-        <v>3.9440000000000003E-2</v>
-      </c>
-      <c r="S12" s="38">
-        <f>IF(F12,F12*0.002+0.02,"--")</f>
-        <v>5.04E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0.10099999999999998</v>
+      </c>
+      <c r="W12" s="27">
+        <f t="shared" si="8"/>
+        <v>0.13900000000000007</v>
+      </c>
+      <c r="X12" s="27">
+        <f t="shared" si="8"/>
+        <v>0.16099999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B13" s="13">
         <v>90</v>
       </c>
@@ -8187,43 +8325,59 @@
         <v>27.777777777777775</v>
       </c>
       <c r="J13" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18518.518518518518</v>
       </c>
       <c r="K13" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>9090.9090909090901</v>
       </c>
       <c r="L13" s="31">
+        <f t="shared" si="14"/>
+        <v>6802.721088435379</v>
+      </c>
+      <c r="M13" s="31">
+        <f t="shared" si="15"/>
+        <v>5952.3809523809532</v>
+      </c>
+      <c r="O13" s="37">
+        <f t="shared" si="7"/>
+        <v>0.749</v>
+      </c>
+      <c r="P13" s="36">
+        <f t="shared" si="0"/>
+        <v>2.2520000000000002E-2</v>
+      </c>
+      <c r="Q13" s="36">
+        <f t="shared" si="1"/>
+        <v>2.9839999999999998E-2</v>
+      </c>
+      <c r="R13" s="36">
+        <f t="shared" si="2"/>
+        <v>4.2380000000000001E-2</v>
+      </c>
+      <c r="S13" s="36">
+        <f t="shared" si="3"/>
+        <v>5.3760000000000002E-2</v>
+      </c>
+      <c r="U13" s="27">
+        <f t="shared" si="9"/>
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="V13" s="27">
         <f t="shared" si="8"/>
-        <v>6802.721088435379</v>
-      </c>
-      <c r="M13" s="31">
-        <f t="shared" si="9"/>
-        <v>5952.3809523809532</v>
-      </c>
-      <c r="O13" s="39">
-        <f t="shared" si="3"/>
-        <v>0.749</v>
-      </c>
-      <c r="P13" s="38">
-        <f>IF(C13,C13*0.002+0.02,"--")</f>
-        <v>2.2520000000000002E-2</v>
-      </c>
-      <c r="Q13" s="38">
-        <f>IF(D13,D13*0.002+0.02,"--")</f>
-        <v>2.9839999999999998E-2</v>
-      </c>
-      <c r="R13" s="38">
-        <f>IF(E13,E13*0.002+0.02,"--")</f>
-        <v>4.2380000000000001E-2</v>
-      </c>
-      <c r="S13" s="38">
-        <f>IF(F13,F13*0.002+0.02,"--")</f>
-        <v>5.3760000000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="W13" s="27">
+        <f t="shared" si="8"/>
+        <v>0.14699999999999988</v>
+      </c>
+      <c r="X13" s="27">
+        <f t="shared" si="8"/>
+        <v>0.16799999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B14" s="13">
         <v>100</v>
       </c>
@@ -8243,43 +8397,59 @@
         <v>25</v>
       </c>
       <c r="J14" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>14492.753623188406</v>
       </c>
       <c r="K14" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>7936.5079365079373</v>
       </c>
       <c r="L14" s="31">
+        <f t="shared" si="14"/>
+        <v>6493.5064935064902</v>
+      </c>
+      <c r="M14" s="31">
+        <f t="shared" si="15"/>
+        <v>5917.1597633136053</v>
+      </c>
+      <c r="O14" s="37">
+        <f t="shared" si="7"/>
+        <v>0.79899999999999993</v>
+      </c>
+      <c r="P14" s="36">
+        <f t="shared" si="0"/>
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="Q14" s="36">
+        <f t="shared" si="1"/>
+        <v>3.236E-2</v>
+      </c>
+      <c r="R14" s="36">
+        <f t="shared" si="2"/>
+        <v>4.546E-2</v>
+      </c>
+      <c r="S14" s="36">
+        <f t="shared" si="3"/>
+        <v>5.7139999999999996E-2</v>
+      </c>
+      <c r="U14" s="27">
+        <f t="shared" si="9"/>
+        <v>6.8999999999999992E-2</v>
+      </c>
+      <c r="V14" s="27">
         <f t="shared" si="8"/>
-        <v>6493.5064935064902</v>
-      </c>
-      <c r="M14" s="31">
-        <f t="shared" si="9"/>
-        <v>5917.1597633136053</v>
-      </c>
-      <c r="O14" s="39">
-        <f t="shared" si="3"/>
-        <v>0.79899999999999993</v>
-      </c>
-      <c r="P14" s="38">
-        <f>IF(C14,C14*0.002+0.02,"--")</f>
-        <v>2.3900000000000001E-2</v>
-      </c>
-      <c r="Q14" s="38">
-        <f>IF(D14,D14*0.002+0.02,"--")</f>
-        <v>3.236E-2</v>
-      </c>
-      <c r="R14" s="38">
-        <f>IF(E14,E14*0.002+0.02,"--")</f>
-        <v>4.546E-2</v>
-      </c>
-      <c r="S14" s="38">
-        <f>IF(F14,F14*0.002+0.02,"--")</f>
-        <v>5.7139999999999996E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0.12599999999999997</v>
+      </c>
+      <c r="W14" s="27">
+        <f t="shared" si="8"/>
+        <v>0.15400000000000008</v>
+      </c>
+      <c r="X14" s="27">
+        <f t="shared" si="8"/>
+        <v>0.16900000000000012</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B15" s="13">
         <v>110</v>
       </c>
@@ -8299,43 +8469,59 @@
         <v>22.727272727272727</v>
       </c>
       <c r="J15" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>12195.121951219511</v>
       </c>
       <c r="K15" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>7812.4999999999982</v>
       </c>
       <c r="L15" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6289.3081761006297</v>
       </c>
       <c r="M15" s="31">
         <f>($B15-$B14)/(F15-F14) *1000</f>
         <v>5747.1264367816138</v>
       </c>
-      <c r="O15" s="39">
+      <c r="O15" s="37">
+        <f t="shared" si="7"/>
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="P15" s="36">
+        <f t="shared" si="0"/>
+        <v>2.554E-2</v>
+      </c>
+      <c r="Q15" s="36">
+        <f t="shared" si="1"/>
+        <v>3.492E-2</v>
+      </c>
+      <c r="R15" s="36">
+        <f t="shared" si="2"/>
+        <v>4.8640000000000003E-2</v>
+      </c>
+      <c r="S15" s="36">
         <f t="shared" si="3"/>
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="P15" s="38">
-        <f>IF(C15,C15*0.002+0.02,"--")</f>
-        <v>2.554E-2</v>
-      </c>
-      <c r="Q15" s="38">
-        <f>IF(D15,D15*0.002+0.02,"--")</f>
-        <v>3.492E-2</v>
-      </c>
-      <c r="R15" s="38">
-        <f>IF(E15,E15*0.002+0.02,"--")</f>
-        <v>4.8640000000000003E-2</v>
-      </c>
-      <c r="S15" s="38">
-        <f>IF(F15,F15*0.002+0.02,"--")</f>
         <v>6.0619999999999993E-2</v>
       </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U15" s="27">
+        <f t="shared" si="9"/>
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="V15" s="27">
+        <f t="shared" si="8"/>
+        <v>0.12800000000000003</v>
+      </c>
+      <c r="W15" s="27">
+        <f t="shared" si="8"/>
+        <v>0.15899999999999997</v>
+      </c>
+      <c r="X15" s="27">
+        <f t="shared" si="8"/>
+        <v>0.17399999999999985</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16" s="13">
         <v>120</v>
       </c>
@@ -8353,42 +8539,58 @@
         <v>20.833333333333332</v>
       </c>
       <c r="J16" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>10526.315789473681</v>
       </c>
       <c r="K16" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>7633.5877862595444</v>
       </c>
       <c r="L16" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>8849.5575221239014</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
       </c>
-      <c r="O16" s="39">
+      <c r="O16" s="37">
+        <f t="shared" si="7"/>
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="P16" s="36">
+        <f t="shared" si="0"/>
+        <v>2.7439999999999999E-2</v>
+      </c>
+      <c r="Q16" s="36">
+        <f t="shared" si="1"/>
+        <v>3.7540000000000004E-2</v>
+      </c>
+      <c r="R16" s="36">
+        <f t="shared" si="2"/>
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="S16" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="P16" s="38">
-        <f>IF(C16,C16*0.002+0.02,"--")</f>
-        <v>2.7439999999999999E-2</v>
-      </c>
-      <c r="Q16" s="38">
-        <f>IF(D16,D16*0.002+0.02,"--")</f>
-        <v>3.7540000000000004E-2</v>
-      </c>
-      <c r="R16" s="38">
-        <f>IF(E16,E16*0.002+0.02,"--")</f>
-        <v>5.0900000000000001E-2</v>
-      </c>
-      <c r="S16" s="2" t="str">
-        <f>IF(F16,F16*0.002+0.02,"--")</f>
         <v>--</v>
       </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U16" s="27">
+        <f t="shared" si="9"/>
+        <v>9.5000000000000015E-2</v>
+      </c>
+      <c r="V16" s="27">
+        <f t="shared" si="8"/>
+        <v>0.13099999999999995</v>
+      </c>
+      <c r="W16" s="27">
+        <f t="shared" si="8"/>
+        <v>0.11299999999999991</v>
+      </c>
+      <c r="X16" s="27">
+        <f t="shared" si="8"/>
+        <v>-2.0309999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="13">
         <v>130</v>
       </c>
@@ -8406,43 +8608,59 @@
         <v>19.230769230769234</v>
       </c>
       <c r="J17" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>9708.7378640776715</v>
       </c>
       <c r="K17" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>7194.2446043165437</v>
       </c>
       <c r="L17" s="31">
+        <f t="shared" si="14"/>
+        <v>4651.1627906976701</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="37">
+        <f t="shared" si="7"/>
+        <v>0.94900000000000007</v>
+      </c>
+      <c r="P17" s="36">
+        <f t="shared" si="0"/>
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="Q17" s="36">
+        <f t="shared" si="1"/>
+        <v>4.0320000000000002E-2</v>
+      </c>
+      <c r="R17" s="36">
+        <f t="shared" si="2"/>
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="S17" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="U17" s="27">
+        <f t="shared" si="9"/>
+        <v>0.10299999999999998</v>
+      </c>
+      <c r="V17" s="27">
         <f t="shared" si="8"/>
-        <v>4651.1627906976701</v>
-      </c>
-      <c r="M17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="39">
-        <f t="shared" si="3"/>
-        <v>0.94900000000000007</v>
-      </c>
-      <c r="P17" s="38">
-        <f>IF(C17,C17*0.002+0.02,"--")</f>
-        <v>2.9499999999999998E-2</v>
-      </c>
-      <c r="Q17" s="38">
-        <f>IF(D17,D17*0.002+0.02,"--")</f>
-        <v>4.0320000000000002E-2</v>
-      </c>
-      <c r="R17" s="38">
-        <f>IF(E17,E17*0.002+0.02,"--")</f>
-        <v>5.5199999999999999E-2</v>
-      </c>
-      <c r="S17" s="2" t="str">
-        <f>IF(F17,F17*0.002+0.02,"--")</f>
+        <v>0.13900000000000007</v>
+      </c>
+      <c r="W17" s="27">
+        <f t="shared" si="8"/>
+        <v>0.21500000000000022</v>
+      </c>
+      <c r="X17" s="27" t="str">
+        <f t="shared" si="8"/>
         <v>--</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="13">
         <v>140</v>
       </c>
@@ -8458,42 +8676,58 @@
         <v>17.857142857142858</v>
       </c>
       <c r="J18" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>8474.5762711864427</v>
       </c>
       <c r="K18" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6711.4093959731536</v>
       </c>
       <c r="L18" s="1">
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O18" s="39">
+      <c r="O18" s="37">
+        <f t="shared" si="7"/>
+        <v>0.99900000000000011</v>
+      </c>
+      <c r="P18" s="36">
+        <f t="shared" si="0"/>
+        <v>3.1859999999999999E-2</v>
+      </c>
+      <c r="Q18" s="36">
+        <f t="shared" si="1"/>
+        <v>4.3300000000000005E-2</v>
+      </c>
+      <c r="R18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="S18" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.99900000000000011</v>
-      </c>
-      <c r="P18" s="38">
-        <f>IF(C18,C18*0.002+0.02,"--")</f>
-        <v>3.1859999999999999E-2</v>
-      </c>
-      <c r="Q18" s="38">
-        <f>IF(D18,D18*0.002+0.02,"--")</f>
-        <v>4.3300000000000005E-2</v>
-      </c>
-      <c r="R18" s="2" t="str">
-        <f>IF(E18,E18*0.002+0.02,"--")</f>
         <v>--</v>
       </c>
-      <c r="S18" s="2" t="str">
-        <f>IF(F18,F18*0.002+0.02,"--")</f>
+      <c r="U18" s="27">
+        <f t="shared" si="9"/>
+        <v>0.11799999999999997</v>
+      </c>
+      <c r="V18" s="27">
+        <f t="shared" si="8"/>
+        <v>0.14900000000000002</v>
+      </c>
+      <c r="W18" s="27">
+        <f t="shared" si="8"/>
+        <v>-1.7600000000000002</v>
+      </c>
+      <c r="X18" s="27" t="str">
+        <f t="shared" si="8"/>
         <v>--</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" s="13">
         <v>150</v>
       </c>
@@ -8507,42 +8741,58 @@
         <v>16.666666666666668</v>
       </c>
       <c r="J19" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>8196.7213114754049</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O19" s="39">
+      <c r="O19" s="37">
+        <f t="shared" si="7"/>
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="P19" s="36">
+        <f t="shared" si="0"/>
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="Q19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="S19" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>1.0489999999999999</v>
-      </c>
-      <c r="P19" s="38">
-        <f>IF(C19,C19*0.002+0.02,"--")</f>
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="Q19" s="2" t="str">
-        <f>IF(D19,D19*0.002+0.02,"--")</f>
         <v>--</v>
       </c>
-      <c r="R19" s="2" t="str">
-        <f>IF(E19,E19*0.002+0.02,"--")</f>
+      <c r="U19" s="27">
+        <f t="shared" si="9"/>
+        <v>0.12200000000000007</v>
+      </c>
+      <c r="V19" s="27">
+        <f t="shared" si="8"/>
+        <v>-1.165</v>
+      </c>
+      <c r="W19" s="27" t="str">
+        <f t="shared" si="8"/>
         <v>--</v>
       </c>
-      <c r="S19" s="2" t="str">
-        <f>IF(F19,F19*0.002+0.02,"--")</f>
+      <c r="X19" s="27" t="str">
+        <f t="shared" si="8"/>
         <v>--</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="13">
         <v>160</v>
       </c>
@@ -8556,43 +8806,59 @@
         <v>15.625</v>
       </c>
       <c r="J20" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>7751.9379844961286</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O20" s="39">
+      <c r="O20" s="37">
+        <f t="shared" si="7"/>
+        <v>1.099</v>
+      </c>
+      <c r="P20" s="36">
+        <f t="shared" si="0"/>
+        <v>3.6879999999999996E-2</v>
+      </c>
+      <c r="Q20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="S20" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>1.099</v>
-      </c>
-      <c r="P20" s="38">
-        <f>IF(C20,C20*0.002+0.02,"--")</f>
-        <v>3.6879999999999996E-2</v>
-      </c>
-      <c r="Q20" s="2" t="str">
-        <f>IF(D20,D20*0.002+0.02,"--")</f>
         <v>--</v>
       </c>
-      <c r="R20" s="2" t="str">
-        <f>IF(E20,E20*0.002+0.02,"--")</f>
+      <c r="U20" s="27">
+        <f t="shared" si="9"/>
+        <v>0.12899999999999992</v>
+      </c>
+      <c r="V20" s="27" t="str">
+        <f t="shared" si="8"/>
         <v>--</v>
       </c>
-      <c r="S20" s="2" t="str">
-        <f>IF(F20,F20*0.002+0.02,"--")</f>
+      <c r="W20" s="27" t="str">
+        <f t="shared" si="8"/>
         <v>--</v>
       </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="X20" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="13">
         <v>170</v>
       </c>
@@ -8606,43 +8872,59 @@
         <v>14.705882352941176</v>
       </c>
       <c r="J21" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>7142.8571428571413</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" ref="K21:K22" si="12">(D21-D20)/($B21-$B20)</f>
+        <f t="shared" ref="K21:K22" si="18">(D21-D20)/($B21-$B20)</f>
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" ref="L21:L22" si="13">(E21-E20)/($B21-$B20)</f>
+        <f t="shared" ref="L21:L22" si="19">(E21-E20)/($B21-$B20)</f>
         <v>0</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" ref="M21:M22" si="14">(F21-F20)/($B21-$B20)</f>
+        <f t="shared" ref="M21:M22" si="20">(F21-F20)/($B21-$B20)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="39">
+      <c r="O21" s="37">
+        <f t="shared" si="7"/>
+        <v>1.149</v>
+      </c>
+      <c r="P21" s="36">
+        <f t="shared" si="0"/>
+        <v>3.968E-2</v>
+      </c>
+      <c r="Q21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="S21" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>1.149</v>
-      </c>
-      <c r="P21" s="38">
-        <f>IF(C21,C21*0.002+0.02,"--")</f>
-        <v>3.968E-2</v>
-      </c>
-      <c r="Q21" s="2" t="str">
-        <f>IF(D21,D21*0.002+0.02,"--")</f>
         <v>--</v>
       </c>
-      <c r="R21" s="2" t="str">
-        <f>IF(E21,E21*0.002+0.02,"--")</f>
+      <c r="U21" s="27">
+        <f t="shared" si="9"/>
+        <v>0.14000000000000004</v>
+      </c>
+      <c r="V21" s="27" t="str">
+        <f t="shared" ref="V21:V22" si="21">IF(D20,(D21-D20)/($B21-$B20), "--")</f>
         <v>--</v>
       </c>
-      <c r="S21" s="2" t="str">
-        <f>IF(F21,F21*0.002+0.02,"--")</f>
+      <c r="W21" s="27" t="str">
+        <f t="shared" ref="W21:W22" si="22">IF(E20,(E21-E20)/($B21-$B20), "--")</f>
         <v>--</v>
       </c>
-    </row>
-    <row r="22" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="27" t="str">
+        <f t="shared" ref="X21:X22" si="23">IF(F20,(F21-F20)/($B21-$B20), "--")</f>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <v>180</v>
       </c>
@@ -8656,43 +8938,59 @@
         <v>13.888888888888888</v>
       </c>
       <c r="J22" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6993.006993006994</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O22" s="39">
+      <c r="O22" s="37">
+        <f t="shared" si="7"/>
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="P22" s="36">
+        <f t="shared" si="0"/>
+        <v>4.2540000000000001E-2</v>
+      </c>
+      <c r="Q22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="S22" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>1.1990000000000001</v>
-      </c>
-      <c r="P22" s="38">
-        <f>IF(C22,C22*0.002+0.02,"--")</f>
-        <v>4.2540000000000001E-2</v>
-      </c>
-      <c r="Q22" s="2" t="str">
-        <f>IF(D22,D22*0.002+0.02,"--")</f>
         <v>--</v>
       </c>
-      <c r="R22" s="2" t="str">
-        <f>IF(E22,E22*0.002+0.02,"--")</f>
+      <c r="U22" s="27">
+        <f>IF(C21,(C22-C21)/($B22-$B21), "--")</f>
+        <v>0.14299999999999996</v>
+      </c>
+      <c r="V22" s="27" t="str">
+        <f t="shared" si="21"/>
         <v>--</v>
       </c>
-      <c r="S22" s="2" t="str">
-        <f>IF(F22,F22*0.002+0.02,"--")</f>
+      <c r="W22" s="27" t="str">
+        <f t="shared" si="22"/>
         <v>--</v>
       </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="X22" s="27" t="str">
+        <f t="shared" si="23"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="13">
         <v>190</v>
       </c>
@@ -8704,7 +9002,7 @@
         <v>13.157894736842104</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14">
         <v>200</v>
       </c>
@@ -8716,7 +9014,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" s="13">
         <v>210</v>
       </c>
@@ -8728,7 +9026,7 @@
         <v>11.904761904761903</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="14">
         <v>220</v>
       </c>
@@ -8740,7 +9038,7 @@
         <v>11.363636363636363</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="13">
         <v>230</v>
       </c>
@@ -8752,7 +9050,7 @@
         <v>10.869565217391305</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
         <v>240</v>
       </c>
@@ -8884,6 +9182,923 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F79F2E6-6FA3-40A8-BF1F-FBF97ABAB3AA}">
+  <dimension ref="C2:R21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="J2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="O2" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+    </row>
+    <row r="3" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f>IF(AND(ISNUMBER(D2),ISNUMBER(D3)), (D3 - D2) / ($C3 -$C2), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f t="shared" ref="K3:M18" si="0">IF(AND(ISNUMBER(E2),ISNUMBER(E3)), (E3 - E2) / ($C3 -$C2), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f>IF(AND(ISNUMBER(D2),ISNUMBER(D3)), ($C3 -$C2) / (D3 - D2), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="P3" s="2" t="str">
+        <f t="shared" ref="P3:R18" si="1">IF(AND(ISNUMBER(E2),ISNUMBER(E3)), ($C3 -$C2) / (E3 - E2), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="Q3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="8">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="10">
+        <v>1.39</v>
+      </c>
+      <c r="G4" s="10">
+        <v>4.67</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f t="shared" ref="J4:J22" si="2">IF(AND(ISNUMBER(D3),ISNUMBER(D4)), (D4 - D3) / ($C4 -$C3), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f t="shared" ref="O4:O21" si="3">IF(AND(ISNUMBER(D3),ISNUMBER(D4)), ($C4 -$C3) / (D4 - D3), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2026431718061672</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="8">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="10">
+        <v>2.35</v>
+      </c>
+      <c r="G5" s="10">
+        <v>6.01</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000016E-2</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13399999999999998</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="1"/>
+        <v>10.416666666666664</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" si="1"/>
+        <v>7.4626865671641802</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="8">
+        <v>30</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="F6" s="10">
+        <v>3.39</v>
+      </c>
+      <c r="G6" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14900000000000002</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="1"/>
+        <v>9.615384615384615</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="1"/>
+        <v>6.7114093959731536</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="8">
+        <v>40</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="F7" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="G7" s="10">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14700000000000008</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="1"/>
+        <v>26.315789473684209</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0090090090090094</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="1"/>
+        <v>6.802721088435371</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="8">
+        <v>50</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F8" s="10">
+        <v>5.77</v>
+      </c>
+      <c r="G8" s="10">
+        <v>10.47</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8999999999999983E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12699999999999995</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="1"/>
+        <v>16.949152542372886</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="1"/>
+        <v>7.874015748031499</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="8">
+        <v>60</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="F9" s="10">
+        <v>6.97</v>
+      </c>
+      <c r="G9" s="10">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12000000000000002</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15299999999999994</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="1"/>
+        <v>12.987012987012987</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="1"/>
+        <v>6.5359477124183032</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="8">
+        <v>70</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2.81</v>
+      </c>
+      <c r="F10" s="10">
+        <v>8.33</v>
+      </c>
+      <c r="G10" s="10">
+        <v>13.59</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002E-2</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>9.1000000000000011E-2</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000004</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15899999999999997</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="3"/>
+        <v>45.454545454545446</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="1"/>
+        <v>10.989010989010987</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="1"/>
+        <v>7.3529411764705861</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="1"/>
+        <v>6.2893081761006293</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C11" s="8">
+        <v>80</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3.82</v>
+      </c>
+      <c r="F11" s="10">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="G11" s="10">
+        <v>15.2</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>3.7999999999999992E-2</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10099999999999998</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13900000000000007</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16099999999999995</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="3"/>
+        <v>26.315789473684212</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9009900990099027</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="1"/>
+        <v>7.1942446043165438</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="1"/>
+        <v>6.2111801242236044</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="8">
+        <v>90</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1.26</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.92</v>
+      </c>
+      <c r="F12" s="10">
+        <v>11.19</v>
+      </c>
+      <c r="G12" s="10">
+        <v>16.88</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14699999999999988</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16799999999999998</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="3"/>
+        <v>18.518518518518519</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090899</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="1"/>
+        <v>6.802721088435379</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="1"/>
+        <v>5.9523809523809534</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="8">
+        <v>100</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1.95</v>
+      </c>
+      <c r="E13" s="8">
+        <v>6.18</v>
+      </c>
+      <c r="F13" s="10">
+        <v>12.73</v>
+      </c>
+      <c r="G13" s="10">
+        <v>18.57</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="2"/>
+        <v>6.8999999999999992E-2</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12599999999999997</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15400000000000008</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16900000000000012</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="3"/>
+        <v>14.492753623188406</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="1"/>
+        <v>7.9365079365079376</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="1"/>
+        <v>6.4935064935064899</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="1"/>
+        <v>5.917159763313605</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C14" s="8">
+        <v>110</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2.77</v>
+      </c>
+      <c r="E14" s="8">
+        <v>7.46</v>
+      </c>
+      <c r="F14" s="10">
+        <v>14.32</v>
+      </c>
+      <c r="G14" s="10">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="2"/>
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12800000000000003</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15899999999999997</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="3"/>
+        <v>12.195121951219511</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="1"/>
+        <v>7.8124999999999982</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="1"/>
+        <v>6.2893081761006293</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="1"/>
+        <v>5.7471264367816142</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="8">
+        <v>120</v>
+      </c>
+      <c r="D15" s="8">
+        <v>3.72</v>
+      </c>
+      <c r="E15" s="8">
+        <v>8.77</v>
+      </c>
+      <c r="F15" s="10">
+        <v>15.45</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="J15" s="2">
+        <f t="shared" si="2"/>
+        <v>9.5000000000000015E-2</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13099999999999995</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11299999999999991</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="3"/>
+        <v>10.526315789473681</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="1"/>
+        <v>7.633587786259544</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="1"/>
+        <v>8.8495575221239022</v>
+      </c>
+      <c r="R15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C16" s="8">
+        <v>130</v>
+      </c>
+      <c r="D16" s="8">
+        <v>4.75</v>
+      </c>
+      <c r="E16" s="8">
+        <v>10.16</v>
+      </c>
+      <c r="F16" s="10">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="J16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10299999999999998</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13900000000000007</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21500000000000022</v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="3"/>
+        <v>9.7087378640776709</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="1"/>
+        <v>7.1942446043165438</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="1"/>
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="R16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C17" s="8">
+        <v>140</v>
+      </c>
+      <c r="D17" s="8">
+        <v>5.93</v>
+      </c>
+      <c r="E17" s="8">
+        <v>11.65</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="J17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.11799999999999997</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14900000000000002</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="3"/>
+        <v>8.474576271186443</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="1"/>
+        <v>6.7114093959731536</v>
+      </c>
+      <c r="Q17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C18" s="8">
+        <v>150</v>
+      </c>
+      <c r="D18" s="8">
+        <v>7.15</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="J18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.12200000000000007</v>
+      </c>
+      <c r="K18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="L18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="M18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="3"/>
+        <v>8.1967213114754056</v>
+      </c>
+      <c r="P18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="Q18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C19" s="8">
+        <v>160</v>
+      </c>
+      <c r="D19" s="8">
+        <v>8.44</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="J19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.12899999999999992</v>
+      </c>
+      <c r="K19" s="2" t="str">
+        <f t="shared" ref="K19:K21" si="4">IF(AND(ISNUMBER(E18),ISNUMBER(E19)), (E19 - E18) / ($C19 -$C18), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="L19" s="2" t="str">
+        <f t="shared" ref="L19:L21" si="5">IF(AND(ISNUMBER(F18),ISNUMBER(F19)), (F19 - F18) / ($C19 -$C18), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="M19" s="2" t="str">
+        <f t="shared" ref="M19:M21" si="6">IF(AND(ISNUMBER(G18),ISNUMBER(G19)), (G19 - G18) / ($C19 -$C18), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="3"/>
+        <v>7.7519379844961289</v>
+      </c>
+      <c r="P19" s="2" t="str">
+        <f t="shared" ref="P19:P21" si="7">IF(AND(ISNUMBER(E18),ISNUMBER(E19)), ($C19 -$C18) / (E19 - E18), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="Q19" s="2" t="str">
+        <f t="shared" ref="Q19:Q21" si="8">IF(AND(ISNUMBER(F18),ISNUMBER(F19)), ($C19 -$C18) / (F19 - F18), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="R19" s="2" t="str">
+        <f t="shared" ref="R19:R21" si="9">IF(AND(ISNUMBER(G18),ISNUMBER(G19)), ($C19 -$C18) / (G19 - G18), "--")</f>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C20" s="8">
+        <v>170</v>
+      </c>
+      <c r="D20" s="8">
+        <v>9.84</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="J20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000004</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="L20" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>--</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571415</v>
+      </c>
+      <c r="P20" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>--</v>
+      </c>
+      <c r="Q20" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>--</v>
+      </c>
+      <c r="R20" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C21" s="8">
+        <v>180</v>
+      </c>
+      <c r="D21" s="8">
+        <v>11.27</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="J21" s="2">
+        <f t="shared" si="2"/>
+        <v>0.14299999999999996</v>
+      </c>
+      <c r="K21" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="L21" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>--</v>
+      </c>
+      <c r="M21" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="3"/>
+        <v>6.9930069930069942</v>
+      </c>
+      <c r="P21" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>--</v>
+      </c>
+      <c r="Q21" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>--</v>
+      </c>
+      <c r="R21" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>--</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="O2:R2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1A7CA5-6721-4819-A6AD-9AC2B2D8FA6F}">
   <dimension ref="A3:H19"/>
   <sheetViews>
@@ -9436,7 +10651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2DBD95-3BBB-4329-A964-DC42FA0A821F}">
   <dimension ref="B1:C12"/>
   <sheetViews>
@@ -9544,7 +10759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42AB24A-B1EF-4497-B49F-FF2EF80BADF0}">
   <dimension ref="B2:C28"/>
   <sheetViews>
@@ -9798,7 +11013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B45CBFB-C1B1-48BC-9795-2209B8496CD0}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -9834,18 +11049,18 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="36" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="37"/>
+      <c r="I2" s="39"/>
       <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -10424,7 +11639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7F6010-E2CE-4708-9864-8046E61A4D02}">
   <dimension ref="B1:M17"/>
   <sheetViews>

--- a/graph/Graphs.xlsx
+++ b/graph/Graphs.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SerKin0\Documents\LaTeX\Лабораторная работа 6-Исследование электронных ламп диода и триода\IBTC-physics-2k3s-latex-vacuum-tube-diodes-triodes\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAACC7E9-2C77-4D77-A464-84940A4F3211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9128C0B2-7BAB-48AF-8972-84DB93C07E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="704" activeTab="1" xr2:uid="{E9884957-8132-4B22-A6C3-69341D62379A}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="704" activeTab="2" xr2:uid="{E9884957-8132-4B22-A6C3-69341D62379A}"/>
   </bookViews>
   <sheets>
     <sheet name="Анодная характеристика триода" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="7" r:id="rId2"/>
-    <sheet name="Лист1" sheetId="5" r:id="rId3"/>
-    <sheet name="ВАХ диода" sheetId="2" r:id="rId4"/>
-    <sheet name="Максимально допустимый ток" sheetId="3" r:id="rId5"/>
-    <sheet name="Сеточная характеристика" sheetId="4" r:id="rId6"/>
-    <sheet name="Зависимость K от 50кОм" sheetId="6" r:id="rId7"/>
+    <sheet name="Лист3" sheetId="8" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId4"/>
+    <sheet name="ВАХ диода" sheetId="2" r:id="rId5"/>
+    <sheet name="Максимально допустимый ток" sheetId="3" r:id="rId6"/>
+    <sheet name="Сеточная характеристика" sheetId="4" r:id="rId7"/>
+    <sheet name="Зависимость K от 50кОм" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
   <si>
     <t>U, В</t>
   </si>
@@ -120,6 +122,15 @@
   </si>
   <si>
     <t>R_i</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>S_i, мА/В</t>
+  </si>
+  <si>
+    <t>R_i, мОм</t>
   </si>
 </sst>
 </file>
@@ -362,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -453,6 +464,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -460,7 +480,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7637,7 +7657,7 @@
   <dimension ref="B1:X47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F22"/>
+      <selection activeCell="F2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7764,19 +7784,19 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:M20" si="4">(D5-D4)/($B5-$B4)</f>
+        <f>(D5-D4)/($B5-$B4)</f>
         <v>0</v>
       </c>
       <c r="L5" s="31">
-        <f t="shared" ref="L5:L6" si="5">($B5-$B4)/(E5-E4) *1000</f>
+        <f t="shared" ref="L5:M7" si="4">($B5-$B4)/(E5-E4) *1000</f>
         <v>8000</v>
       </c>
       <c r="M5" s="31">
-        <f t="shared" ref="M5:M6" si="6">($B5-$B4)/(F5-F4) *1000</f>
+        <f t="shared" si="4"/>
         <v>2202.6431718061672</v>
       </c>
       <c r="O5" s="37">
-        <f t="shared" ref="O5:O22" si="7">B5*0.005+0.299</f>
+        <f t="shared" ref="O5:O22" si="5">B5*0.005+0.299</f>
         <v>0.34899999999999998</v>
       </c>
       <c r="P5" s="2" t="str">
@@ -7800,15 +7820,15 @@
         <v>--</v>
       </c>
       <c r="V5" s="27" t="str">
-        <f t="shared" ref="V5:X20" si="8">IF(D4,(D5-D4)/($B5-$B4), "--")</f>
+        <f t="shared" ref="V5:X20" si="6">IF(D4,(D5-D4)/($B5-$B4), "--")</f>
         <v>--</v>
       </c>
       <c r="W5" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
       <c r="X5" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.45400000000000001</v>
       </c>
     </row>
@@ -7832,19 +7852,19 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
+        <f>(D6-D5)/($B6-$B5)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="31">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="31">
+        <v>10416.666666666664</v>
+      </c>
+      <c r="M6" s="31">
+        <f t="shared" si="4"/>
+        <v>7462.6865671641799</v>
+      </c>
+      <c r="O6" s="37">
         <f t="shared" si="5"/>
-        <v>10416.666666666664</v>
-      </c>
-      <c r="M6" s="31">
-        <f t="shared" si="6"/>
-        <v>7462.6865671641799</v>
-      </c>
-      <c r="O6" s="37">
-        <f t="shared" si="7"/>
         <v>0.39900000000000002</v>
       </c>
       <c r="P6" s="2" t="str">
@@ -7864,19 +7884,19 @@
         <v>3.202E-2</v>
       </c>
       <c r="U6" s="27" t="str">
-        <f t="shared" ref="U6:U22" si="9">IF(C5,(C6-C5)/($B6-$B5), "--")</f>
+        <f t="shared" ref="U6:U21" si="7">IF(C5,(C6-C5)/($B6-$B5), "--")</f>
         <v>--</v>
       </c>
       <c r="V6" s="27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>--</v>
       </c>
       <c r="W6" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>9.6000000000000016E-2</v>
       </c>
       <c r="X6" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.13399999999999998</v>
       </c>
     </row>
@@ -7898,23 +7918,23 @@
         <v>83.333333333333329</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J9" si="10">(C7-C6)/($B7-$B6)</f>
+        <f>(C7-C6)/($B7-$B6)</f>
         <v>0</v>
       </c>
       <c r="K7" s="31">
-        <f t="shared" ref="K7:K10" si="11">($B7-$B6)/(D7-D6) *1000</f>
+        <f>($B7-$B6)/(D7-D6) *1000</f>
         <v>62500</v>
       </c>
       <c r="L7" s="31">
-        <f t="shared" ref="L7" si="12">($B7-$B6)/(E7-E6) *1000</f>
+        <f t="shared" si="4"/>
         <v>9615.3846153846152</v>
       </c>
       <c r="M7" s="31">
-        <f t="shared" ref="M7" si="13">($B7-$B6)/(F7-F6) *1000</f>
+        <f t="shared" si="4"/>
         <v>6711.4093959731536</v>
       </c>
       <c r="O7" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.44899999999999995</v>
       </c>
       <c r="P7" s="2" t="str">
@@ -7934,19 +7954,19 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="U7" s="27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>--</v>
       </c>
       <c r="V7" s="27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>--</v>
       </c>
       <c r="W7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.10400000000000001</v>
       </c>
       <c r="X7" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.14900000000000002</v>
       </c>
     </row>
@@ -7968,23 +7988,23 @@
         <v>62.5</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="10"/>
+        <f>(C8-C7)/($B8-$B7)</f>
         <v>0</v>
       </c>
       <c r="K8" s="31">
-        <f t="shared" si="11"/>
+        <f>($B8-$B7)/(D8-D7) *1000</f>
         <v>26315.78947368421</v>
       </c>
       <c r="L8" s="31">
-        <f t="shared" ref="L8:L17" si="14">($B8-$B7)/(E8-E7) *1000</f>
+        <f t="shared" ref="L8:L17" si="8">($B8-$B7)/(E8-E7) *1000</f>
         <v>9009.0090090090089</v>
       </c>
       <c r="M8" s="31">
-        <f t="shared" ref="M8:M14" si="15">($B8-$B7)/(F8-F7) *1000</f>
+        <f t="shared" ref="M8:M14" si="9">($B8-$B7)/(F8-F7) *1000</f>
         <v>6802.7210884353708</v>
       </c>
       <c r="O8" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.499</v>
       </c>
       <c r="P8" s="2" t="str">
@@ -8004,19 +8024,19 @@
         <v>3.7940000000000002E-2</v>
       </c>
       <c r="U8" s="27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>--</v>
       </c>
       <c r="V8" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="W8" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.11099999999999999</v>
       </c>
       <c r="X8" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.14700000000000008</v>
       </c>
     </row>
@@ -8038,23 +8058,23 @@
         <v>50</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="10"/>
+        <f>(C9-C8)/($B9-$B8)</f>
         <v>0</v>
       </c>
       <c r="K9" s="31">
-        <f t="shared" si="11"/>
+        <f>($B9-$B8)/(D9-D8) *1000</f>
         <v>16949.152542372885</v>
       </c>
       <c r="L9" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>7874.0157480314992</v>
       </c>
       <c r="M9" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>6666.666666666667</v>
       </c>
       <c r="O9" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.54899999999999993</v>
       </c>
       <c r="P9" s="2" t="str">
@@ -8074,19 +8094,19 @@
         <v>4.0940000000000004E-2</v>
       </c>
       <c r="U9" s="27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>--</v>
       </c>
       <c r="V9" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.8999999999999983E-2</v>
       </c>
       <c r="W9" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.12699999999999995</v>
       </c>
       <c r="X9" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
     </row>
@@ -8113,19 +8133,19 @@
         <v>0</v>
       </c>
       <c r="K10" s="31">
-        <f t="shared" si="11"/>
+        <f>($B10-$B9)/(D10-D9) *1000</f>
         <v>12987.012987012988</v>
       </c>
       <c r="L10" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>8333.3333333333321</v>
       </c>
       <c r="M10" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>6535.9477124183031</v>
       </c>
       <c r="O10" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.59899999999999998</v>
       </c>
       <c r="P10" s="36">
@@ -8145,19 +8165,19 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="U10" s="27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>--</v>
       </c>
       <c r="V10" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="W10" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.12000000000000002</v>
       </c>
       <c r="X10" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.15299999999999994</v>
       </c>
     </row>
@@ -8189,15 +8209,15 @@
         <v>10989.010989010987</v>
       </c>
       <c r="L11" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>7352.9411764705865</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>6289.3081761006297</v>
       </c>
       <c r="O11" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.64900000000000002</v>
       </c>
       <c r="P11" s="36">
@@ -8217,19 +8237,19 @@
         <v>4.718E-2</v>
       </c>
       <c r="U11" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="V11" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>9.1000000000000011E-2</v>
       </c>
       <c r="W11" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.13600000000000004</v>
       </c>
       <c r="X11" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.15899999999999997</v>
       </c>
     </row>
@@ -8253,23 +8273,23 @@
         <v>31.25</v>
       </c>
       <c r="J12" s="31">
-        <f t="shared" ref="J12:J22" si="16">($B12-$B11)/(C12-C11) *1000</f>
+        <f t="shared" ref="J12:J22" si="10">($B12-$B11)/(C12-C11) *1000</f>
         <v>26315.789473684214</v>
       </c>
       <c r="K12" s="31">
-        <f t="shared" ref="K12:K18" si="17">($B12-$B11)/(D12-D11) *1000</f>
+        <f t="shared" ref="K12:K18" si="11">($B12-$B11)/(D12-D11) *1000</f>
         <v>9900.9900990099031</v>
       </c>
       <c r="L12" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>7194.2446043165437</v>
       </c>
       <c r="M12" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>6211.1801242236043</v>
       </c>
       <c r="O12" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.69900000000000007</v>
       </c>
       <c r="P12" s="36">
@@ -8289,19 +8309,19 @@
         <v>5.04E-2</v>
       </c>
       <c r="U12" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3.7999999999999992E-2</v>
       </c>
       <c r="V12" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.10099999999999998</v>
       </c>
       <c r="W12" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.13900000000000007</v>
       </c>
       <c r="X12" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.16099999999999995</v>
       </c>
     </row>
@@ -8325,23 +8345,23 @@
         <v>27.777777777777775</v>
       </c>
       <c r="J13" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>18518.518518518518</v>
       </c>
       <c r="K13" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>9090.9090909090901</v>
       </c>
       <c r="L13" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>6802.721088435379</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>5952.3809523809532</v>
       </c>
       <c r="O13" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.749</v>
       </c>
       <c r="P13" s="36">
@@ -8361,19 +8381,19 @@
         <v>5.3760000000000002E-2</v>
       </c>
       <c r="U13" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>5.4000000000000006E-2</v>
       </c>
       <c r="V13" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.11000000000000001</v>
       </c>
       <c r="W13" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.14699999999999988</v>
       </c>
       <c r="X13" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.16799999999999998</v>
       </c>
     </row>
@@ -8397,23 +8417,23 @@
         <v>25</v>
       </c>
       <c r="J14" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>14492.753623188406</v>
       </c>
       <c r="K14" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>7936.5079365079373</v>
       </c>
       <c r="L14" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>6493.5064935064902</v>
       </c>
       <c r="M14" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>5917.1597633136053</v>
       </c>
       <c r="O14" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.79899999999999993</v>
       </c>
       <c r="P14" s="36">
@@ -8433,19 +8453,19 @@
         <v>5.7139999999999996E-2</v>
       </c>
       <c r="U14" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6.8999999999999992E-2</v>
       </c>
       <c r="V14" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.12599999999999997</v>
       </c>
       <c r="W14" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.15400000000000008</v>
       </c>
       <c r="X14" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.16900000000000012</v>
       </c>
     </row>
@@ -8469,15 +8489,15 @@
         <v>22.727272727272727</v>
       </c>
       <c r="J15" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>12195.121951219511</v>
       </c>
       <c r="K15" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>7812.4999999999982</v>
       </c>
       <c r="L15" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>6289.3081761006297</v>
       </c>
       <c r="M15" s="31">
@@ -8485,7 +8505,7 @@
         <v>5747.1264367816138</v>
       </c>
       <c r="O15" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.84899999999999998</v>
       </c>
       <c r="P15" s="36">
@@ -8505,19 +8525,19 @@
         <v>6.0619999999999993E-2</v>
       </c>
       <c r="U15" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="V15" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.12800000000000003</v>
       </c>
       <c r="W15" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.15899999999999997</v>
       </c>
       <c r="X15" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.17399999999999985</v>
       </c>
     </row>
@@ -8539,22 +8559,22 @@
         <v>20.833333333333332</v>
       </c>
       <c r="J16" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>10526.315789473681</v>
       </c>
       <c r="K16" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>7633.5877862595444</v>
       </c>
       <c r="L16" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>8849.5575221239014</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
       </c>
       <c r="O16" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.89900000000000002</v>
       </c>
       <c r="P16" s="36">
@@ -8574,19 +8594,19 @@
         <v>--</v>
       </c>
       <c r="U16" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>9.5000000000000015E-2</v>
       </c>
       <c r="V16" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.13099999999999995</v>
       </c>
       <c r="W16" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.11299999999999991</v>
       </c>
       <c r="X16" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-2.0309999999999997</v>
       </c>
     </row>
@@ -8608,23 +8628,23 @@
         <v>19.230769230769234</v>
       </c>
       <c r="J17" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>9708.7378640776715</v>
       </c>
       <c r="K17" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>7194.2446043165437</v>
       </c>
       <c r="L17" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>4651.1627906976701</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M17:M22" si="12">(F17-F16)/($B17-$B16)</f>
         <v>0</v>
       </c>
       <c r="O17" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.94900000000000007</v>
       </c>
       <c r="P17" s="36">
@@ -8644,19 +8664,19 @@
         <v>--</v>
       </c>
       <c r="U17" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.10299999999999998</v>
       </c>
       <c r="V17" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.13900000000000007</v>
       </c>
       <c r="W17" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.21500000000000022</v>
       </c>
       <c r="X17" s="27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>--</v>
       </c>
     </row>
@@ -8676,22 +8696,22 @@
         <v>17.857142857142858</v>
       </c>
       <c r="J18" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>8474.5762711864427</v>
       </c>
       <c r="K18" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>6711.4093959731536</v>
       </c>
       <c r="L18" s="1">
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O18" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.99900000000000011</v>
       </c>
       <c r="P18" s="36">
@@ -8711,19 +8731,19 @@
         <v>--</v>
       </c>
       <c r="U18" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.11799999999999997</v>
       </c>
       <c r="V18" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.14900000000000002</v>
       </c>
       <c r="W18" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-1.7600000000000002</v>
       </c>
       <c r="X18" s="27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>--</v>
       </c>
     </row>
@@ -8741,22 +8761,22 @@
         <v>16.666666666666668</v>
       </c>
       <c r="J19" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>8196.7213114754049</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="4"/>
+        <f>(E19-E18)/($B19-$B18)</f>
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O19" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.0489999999999999</v>
       </c>
       <c r="P19" s="36">
@@ -8776,19 +8796,19 @@
         <v>--</v>
       </c>
       <c r="U19" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.12200000000000007</v>
       </c>
       <c r="V19" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-1.165</v>
       </c>
       <c r="W19" s="27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>--</v>
       </c>
       <c r="X19" s="27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>--</v>
       </c>
     </row>
@@ -8806,23 +8826,23 @@
         <v>15.625</v>
       </c>
       <c r="J20" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>7751.9379844961286</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
+        <f>(D20-D19)/($B20-$B19)</f>
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="4"/>
+        <f>(E20-E19)/($B20-$B19)</f>
         <v>0</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O20" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.099</v>
       </c>
       <c r="P20" s="36">
@@ -8842,19 +8862,19 @@
         <v>--</v>
       </c>
       <c r="U20" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.12899999999999992</v>
       </c>
       <c r="V20" s="27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>--</v>
       </c>
       <c r="W20" s="27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>--</v>
       </c>
       <c r="X20" s="27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>--</v>
       </c>
     </row>
@@ -8872,23 +8892,23 @@
         <v>14.705882352941176</v>
       </c>
       <c r="J21" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>7142.8571428571413</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" ref="K21:K22" si="18">(D21-D20)/($B21-$B20)</f>
+        <f>(D21-D20)/($B21-$B20)</f>
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" ref="L21:L22" si="19">(E21-E20)/($B21-$B20)</f>
+        <f>(E21-E20)/($B21-$B20)</f>
         <v>0</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" ref="M21:M22" si="20">(F21-F20)/($B21-$B20)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O21" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.149</v>
       </c>
       <c r="P21" s="36">
@@ -8908,19 +8928,19 @@
         <v>--</v>
       </c>
       <c r="U21" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.14000000000000004</v>
       </c>
       <c r="V21" s="27" t="str">
-        <f t="shared" ref="V21:V22" si="21">IF(D20,(D21-D20)/($B21-$B20), "--")</f>
+        <f t="shared" ref="V21:X22" si="13">IF(D20,(D21-D20)/($B21-$B20), "--")</f>
         <v>--</v>
       </c>
       <c r="W21" s="27" t="str">
-        <f t="shared" ref="W21:W22" si="22">IF(E20,(E21-E20)/($B21-$B20), "--")</f>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
       <c r="X21" s="27" t="str">
-        <f t="shared" ref="X21:X22" si="23">IF(F20,(F21-F20)/($B21-$B20), "--")</f>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
     </row>
@@ -8938,23 +8958,23 @@
         <v>13.888888888888888</v>
       </c>
       <c r="J22" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>6993.006993006994</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="18"/>
+        <f>(D22-D21)/($B22-$B21)</f>
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="19"/>
+        <f>(E22-E21)/($B22-$B21)</f>
         <v>0</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O22" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.1990000000000001</v>
       </c>
       <c r="P22" s="36">
@@ -8978,15 +8998,15 @@
         <v>0.14299999999999996</v>
       </c>
       <c r="V22" s="27" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
       <c r="W22" s="27" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
       <c r="X22" s="27" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>--</v>
       </c>
     </row>
@@ -9183,10 +9203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F79F2E6-6FA3-40A8-BF1F-FBF97ABAB3AA}">
-  <dimension ref="C2:R21"/>
+  <dimension ref="C2:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -9194,7 +9214,7 @@
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J2" s="40" t="s">
         <v>23</v>
       </c>
@@ -9208,7 +9228,7 @@
       <c r="Q2" s="40"/>
       <c r="R2" s="40"/>
     </row>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C3" s="8">
         <v>0</v>
       </c>
@@ -9252,8 +9272,24 @@
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
-    </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="T3" s="2" t="str">
+        <f>IF(AND(J3&lt;&gt;"--", O3&lt;&gt;"--"), J3*O3, "--")</f>
+        <v>--</v>
+      </c>
+      <c r="U3" s="38" t="str">
+        <f t="shared" ref="U3:W18" si="2">IF(AND(K3&lt;&gt;"--", P3&lt;&gt;"--"), K3*P3, "--")</f>
+        <v>--</v>
+      </c>
+      <c r="V3" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="W3" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C4" s="8">
         <v>10</v>
       </c>
@@ -9266,7 +9302,7 @@
         <v>4.67</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f t="shared" ref="J4:J22" si="2">IF(AND(ISNUMBER(D3),ISNUMBER(D4)), (D4 - D3) / ($C4 -$C3), "--")</f>
+        <f t="shared" ref="J4:J21" si="3">IF(AND(ISNUMBER(D3),ISNUMBER(D4)), (D4 - D3) / ($C4 -$C3), "--")</f>
         <v>--</v>
       </c>
       <c r="K4" s="2" t="str">
@@ -9282,7 +9318,7 @@
         <v>0.45400000000000001</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f t="shared" ref="O4:O21" si="3">IF(AND(ISNUMBER(D3),ISNUMBER(D4)), ($C4 -$C3) / (D4 - D3), "--")</f>
+        <f t="shared" ref="O4:O21" si="4">IF(AND(ISNUMBER(D3),ISNUMBER(D4)), ($C4 -$C3) / (D4 - D3), "--")</f>
         <v>--</v>
       </c>
       <c r="P4" s="2" t="str">
@@ -9297,8 +9333,24 @@
         <f t="shared" si="1"/>
         <v>2.2026431718061672</v>
       </c>
-    </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="T4" s="38" t="str">
+        <f t="shared" ref="T4:T21" si="5">IF(AND(J4&lt;&gt;"--", O4&lt;&gt;"--"), J4*O4, "--")</f>
+        <v>--</v>
+      </c>
+      <c r="U4" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="V4" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W4" s="38">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C5" s="8">
         <v>20</v>
       </c>
@@ -9311,7 +9363,7 @@
         <v>6.01</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>--</v>
       </c>
       <c r="K5" s="2" t="str">
@@ -9327,7 +9379,7 @@
         <v>0.13399999999999998</v>
       </c>
       <c r="O5" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="P5" s="2" t="str">
@@ -9342,8 +9394,24 @@
         <f t="shared" si="1"/>
         <v>7.4626865671641802</v>
       </c>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="T5" s="38" t="str">
+        <f t="shared" si="5"/>
+        <v>--</v>
+      </c>
+      <c r="U5" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="V5" s="38">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="W5" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C6" s="8">
         <v>30</v>
       </c>
@@ -9358,7 +9426,7 @@
         <v>7.5</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>--</v>
       </c>
       <c r="K6" s="2" t="str">
@@ -9374,7 +9442,7 @@
         <v>0.14900000000000002</v>
       </c>
       <c r="O6" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="P6" s="2" t="str">
@@ -9389,8 +9457,24 @@
         <f t="shared" si="1"/>
         <v>6.7114093959731536</v>
       </c>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="T6" s="38" t="str">
+        <f t="shared" si="5"/>
+        <v>--</v>
+      </c>
+      <c r="U6" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="V6" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W6" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C7" s="8">
         <v>40</v>
       </c>
@@ -9405,7 +9489,7 @@
         <v>8.9700000000000006</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>--</v>
       </c>
       <c r="K7" s="2">
@@ -9421,7 +9505,7 @@
         <v>0.14700000000000008</v>
       </c>
       <c r="O7" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="P7" s="2">
@@ -9436,8 +9520,24 @@
         <f t="shared" si="1"/>
         <v>6.802721088435371</v>
       </c>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="T7" s="38" t="str">
+        <f t="shared" si="5"/>
+        <v>--</v>
+      </c>
+      <c r="U7" s="38">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="V7" s="38">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="W7" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C8" s="8">
         <v>50</v>
       </c>
@@ -9452,7 +9552,7 @@
         <v>10.47</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>--</v>
       </c>
       <c r="K8" s="2">
@@ -9468,7 +9568,7 @@
         <v>0.15</v>
       </c>
       <c r="O8" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="P8" s="2">
@@ -9483,8 +9583,24 @@
         <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="T8" s="38" t="str">
+        <f t="shared" si="5"/>
+        <v>--</v>
+      </c>
+      <c r="U8" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="38">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="W8" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C9" s="8">
         <v>60</v>
       </c>
@@ -9501,7 +9617,7 @@
         <v>12</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>--</v>
       </c>
       <c r="K9" s="2">
@@ -9517,7 +9633,7 @@
         <v>0.15299999999999994</v>
       </c>
       <c r="O9" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="P9" s="2">
@@ -9532,8 +9648,24 @@
         <f t="shared" si="1"/>
         <v>6.5359477124183032</v>
       </c>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="T9" s="38" t="str">
+        <f t="shared" si="5"/>
+        <v>--</v>
+      </c>
+      <c r="U9" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V9" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W9" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C10" s="8">
         <v>70</v>
       </c>
@@ -9550,7 +9682,7 @@
         <v>13.59</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="K10" s="2">
@@ -9566,7 +9698,7 @@
         <v>0.15899999999999997</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45.454545454545446</v>
       </c>
       <c r="P10" s="2">
@@ -9581,8 +9713,24 @@
         <f t="shared" si="1"/>
         <v>6.2893081761006293</v>
       </c>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="T10" s="38">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="U10" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W10" s="38">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C11" s="8">
         <v>80</v>
       </c>
@@ -9599,7 +9747,7 @@
         <v>15.2</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7999999999999992E-2</v>
       </c>
       <c r="K11" s="2">
@@ -9615,7 +9763,7 @@
         <v>0.16099999999999995</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.315789473684212</v>
       </c>
       <c r="P11" s="2">
@@ -9630,8 +9778,24 @@
         <f t="shared" si="1"/>
         <v>6.2111801242236044</v>
       </c>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="T11" s="38">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="U11" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W11" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C12" s="8">
         <v>90</v>
       </c>
@@ -9648,7 +9812,7 @@
         <v>16.88</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.4000000000000006E-2</v>
       </c>
       <c r="K12" s="2">
@@ -9664,7 +9828,7 @@
         <v>0.16799999999999998</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.518518518518519</v>
       </c>
       <c r="P12" s="2">
@@ -9679,8 +9843,24 @@
         <f t="shared" si="1"/>
         <v>5.9523809523809534</v>
       </c>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="T12" s="38">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="U12" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="38">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="W12" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C13" s="8">
         <v>100</v>
       </c>
@@ -9697,7 +9877,7 @@
         <v>18.57</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.8999999999999992E-2</v>
       </c>
       <c r="K13" s="2">
@@ -9713,7 +9893,7 @@
         <v>0.16900000000000012</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.492753623188406</v>
       </c>
       <c r="P13" s="2">
@@ -9728,8 +9908,24 @@
         <f t="shared" si="1"/>
         <v>5.917159763313605</v>
       </c>
-    </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="T13" s="38">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="U13" s="38">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="V13" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W13" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C14" s="8">
         <v>110</v>
       </c>
@@ -9746,7 +9942,7 @@
         <v>20.309999999999999</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="K14" s="2">
@@ -9762,7 +9958,7 @@
         <v>0.17399999999999985</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.195121951219511</v>
       </c>
       <c r="P14" s="2">
@@ -9777,8 +9973,24 @@
         <f t="shared" si="1"/>
         <v>5.7471264367816142</v>
       </c>
-    </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="T14" s="38">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="U14" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V14" s="38">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="W14" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C15" s="8">
         <v>120</v>
       </c>
@@ -9793,7 +10005,7 @@
       </c>
       <c r="G15" s="8"/>
       <c r="J15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.5000000000000015E-2</v>
       </c>
       <c r="K15" s="2">
@@ -9809,7 +10021,7 @@
         <v>--</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.526315789473681</v>
       </c>
       <c r="P15" s="2">
@@ -9824,8 +10036,24 @@
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
-    </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="T15" s="38">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="U15" s="38">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="V15" s="38">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="W15" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C16" s="8">
         <v>130</v>
       </c>
@@ -9840,7 +10068,7 @@
       </c>
       <c r="G16" s="8"/>
       <c r="J16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10299999999999998</v>
       </c>
       <c r="K16" s="2">
@@ -9856,7 +10084,7 @@
         <v>--</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.7087378640776709</v>
       </c>
       <c r="P16" s="2">
@@ -9871,8 +10099,24 @@
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="T16" s="38">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="U16" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V16" s="38">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="W16" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C17" s="8">
         <v>140</v>
       </c>
@@ -9885,7 +10129,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="J17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11799999999999997</v>
       </c>
       <c r="K17" s="2">
@@ -9901,7 +10145,7 @@
         <v>--</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.474576271186443</v>
       </c>
       <c r="P17" s="2">
@@ -9916,8 +10160,24 @@
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="T17" s="38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U17" s="38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V17" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="W17" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C18" s="8">
         <v>150</v>
       </c>
@@ -9928,7 +10188,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="J18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12200000000000007</v>
       </c>
       <c r="K18" s="2" t="str">
@@ -9944,7 +10204,7 @@
         <v>--</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.1967213114754056</v>
       </c>
       <c r="P18" s="2" t="str">
@@ -9959,8 +10219,24 @@
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="T18" s="38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U18" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="V18" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="W18" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C19" s="8">
         <v>160</v>
       </c>
@@ -9971,39 +10247,55 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="J19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12899999999999992</v>
       </c>
       <c r="K19" s="2" t="str">
-        <f t="shared" ref="K19:K21" si="4">IF(AND(ISNUMBER(E18),ISNUMBER(E19)), (E19 - E18) / ($C19 -$C18), "--")</f>
+        <f t="shared" ref="K19:M21" si="6">IF(AND(ISNUMBER(E18),ISNUMBER(E19)), (E19 - E18) / ($C19 -$C18), "--")</f>
         <v>--</v>
       </c>
       <c r="L19" s="2" t="str">
-        <f t="shared" ref="L19:L21" si="5">IF(AND(ISNUMBER(F18),ISNUMBER(F19)), (F19 - F18) / ($C19 -$C18), "--")</f>
+        <f t="shared" si="6"/>
         <v>--</v>
       </c>
       <c r="M19" s="2" t="str">
-        <f t="shared" ref="M19:M21" si="6">IF(AND(ISNUMBER(G18),ISNUMBER(G19)), (G19 - G18) / ($C19 -$C18), "--")</f>
+        <f t="shared" si="6"/>
         <v>--</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.7519379844961289</v>
       </c>
       <c r="P19" s="2" t="str">
-        <f t="shared" ref="P19:P21" si="7">IF(AND(ISNUMBER(E18),ISNUMBER(E19)), ($C19 -$C18) / (E19 - E18), "--")</f>
+        <f t="shared" ref="P19:R21" si="7">IF(AND(ISNUMBER(E18),ISNUMBER(E19)), ($C19 -$C18) / (E19 - E18), "--")</f>
         <v>--</v>
       </c>
       <c r="Q19" s="2" t="str">
-        <f t="shared" ref="Q19:Q21" si="8">IF(AND(ISNUMBER(F18),ISNUMBER(F19)), ($C19 -$C18) / (F19 - F18), "--")</f>
+        <f t="shared" si="7"/>
         <v>--</v>
       </c>
       <c r="R19" s="2" t="str">
-        <f t="shared" ref="R19:R21" si="9">IF(AND(ISNUMBER(G18),ISNUMBER(G19)), ($C19 -$C18) / (G19 - G18), "--")</f>
-        <v>--</v>
-      </c>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>--</v>
+      </c>
+      <c r="T19" s="38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U19" s="38" t="str">
+        <f t="shared" ref="U19:W21" si="8">IF(AND(K19&lt;&gt;"--", P19&lt;&gt;"--"), K19*P19, "--")</f>
+        <v>--</v>
+      </c>
+      <c r="V19" s="38" t="str">
+        <f t="shared" si="8"/>
+        <v>--</v>
+      </c>
+      <c r="W19" s="38" t="str">
+        <f t="shared" si="8"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C20" s="8">
         <v>170</v>
       </c>
@@ -10014,15 +10306,15 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="J20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14000000000000004</v>
       </c>
       <c r="K20" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>--</v>
       </c>
       <c r="L20" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>--</v>
       </c>
       <c r="M20" s="2" t="str">
@@ -10030,7 +10322,7 @@
         <v>--</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.1428571428571415</v>
       </c>
       <c r="P20" s="2" t="str">
@@ -10038,15 +10330,31 @@
         <v>--</v>
       </c>
       <c r="Q20" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>--</v>
+      </c>
+      <c r="R20" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>--</v>
+      </c>
+      <c r="T20" s="38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U20" s="38" t="str">
         <f t="shared" si="8"/>
         <v>--</v>
       </c>
-      <c r="R20" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>--</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="V20" s="38" t="str">
+        <f t="shared" si="8"/>
+        <v>--</v>
+      </c>
+      <c r="W20" s="38" t="str">
+        <f t="shared" si="8"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C21" s="8">
         <v>180</v>
       </c>
@@ -10057,15 +10365,15 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="J21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14299999999999996</v>
       </c>
       <c r="K21" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>--</v>
       </c>
       <c r="L21" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>--</v>
       </c>
       <c r="M21" s="2" t="str">
@@ -10073,7 +10381,7 @@
         <v>--</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.9930069930069942</v>
       </c>
       <c r="P21" s="2" t="str">
@@ -10081,11 +10389,27 @@
         <v>--</v>
       </c>
       <c r="Q21" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>--</v>
+      </c>
+      <c r="R21" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>--</v>
+      </c>
+      <c r="T21" s="38">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="U21" s="38" t="str">
         <f t="shared" si="8"/>
         <v>--</v>
       </c>
-      <c r="R21" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="V21" s="38" t="str">
+        <f t="shared" si="8"/>
+        <v>--</v>
+      </c>
+      <c r="W21" s="38" t="str">
+        <f t="shared" si="8"/>
         <v>--</v>
       </c>
     </row>
@@ -10099,6 +10423,1570 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31F1FF8-B134-4BDA-9149-B7512F697385}">
+  <dimension ref="B2:AA21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:AA21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C2" s="38">
+        <v>-4</v>
+      </c>
+      <c r="D2" s="38">
+        <v>-2</v>
+      </c>
+      <c r="E2" s="38">
+        <v>0</v>
+      </c>
+      <c r="F2" s="38">
+        <v>2</v>
+      </c>
+      <c r="H2" s="38">
+        <v>-4</v>
+      </c>
+      <c r="I2" s="38">
+        <v>-2</v>
+      </c>
+      <c r="J2" s="39">
+        <v>0</v>
+      </c>
+      <c r="K2" s="39">
+        <v>2</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="S2" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10">
+        <v>1.39</v>
+      </c>
+      <c r="F4" s="10">
+        <v>4.67</v>
+      </c>
+      <c r="H4" s="38" t="str">
+        <f>IF(C4&lt;&gt;"",C4/1000,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="I4" s="39" t="str">
+        <f t="shared" ref="I4:K19" si="0">IF(D4&lt;&gt;"",D4/1000,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="J4" s="39">
+        <f t="shared" si="0"/>
+        <v>1.39E-3</v>
+      </c>
+      <c r="K4" s="39">
+        <f t="shared" si="0"/>
+        <v>4.6699999999999997E-3</v>
+      </c>
+      <c r="M4" s="8">
+        <v>10</v>
+      </c>
+      <c r="N4" s="38" t="str">
+        <f>IF(AND(C4&lt;&gt;"", D4&lt;&gt;""), ROUND((D4 - C4) / (D$2-C$2), 2), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="O4" s="39" t="str">
+        <f t="shared" ref="O4:Q19" si="1">IF(AND(D4&lt;&gt;"", E4&lt;&gt;""), ROUND((E4 - D4) / (E$2-D$2), 2), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="P4" s="39">
+        <f t="shared" si="1"/>
+        <v>1.64</v>
+      </c>
+      <c r="Q4" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="S4" s="39" t="str">
+        <f t="shared" ref="S4:S20" si="2">IF(AND(H4&lt;&gt;"--",$B4&lt;&gt;"--",$B3&lt;&gt;"--",H3&lt;&gt;"--"),ROUND(($B4 - $B3) / (H4-H3) / 1000, 2),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="T4" s="39" t="str">
+        <f t="shared" ref="T4:T20" si="3">IF(AND(I4&lt;&gt;"--",$B4&lt;&gt;"--",$B3&lt;&gt;"--",I3&lt;&gt;"--"),ROUND(($B4 - $B3) / (I4-I3) / 1000, 2),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="U4" s="39">
+        <f t="shared" ref="U4:U20" si="4">IF(AND(J4&lt;&gt;"--",$B4&lt;&gt;"--",$B3&lt;&gt;"--",J3&lt;&gt;"--"),ROUND(($B4 - $B3) / (J4-J3) / 1000, 2),"--")</f>
+        <v>7.19</v>
+      </c>
+      <c r="V4" s="39">
+        <f t="shared" ref="V4:V20" si="5">IF(AND(K4&lt;&gt;"--",$B4&lt;&gt;"--",$B3&lt;&gt;"--",K3&lt;&gt;"--"),ROUND(($B4 - $B3) / (K4-K3) / 1000, 2),"--")</f>
+        <v>2.14</v>
+      </c>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39" t="str">
+        <f>IF(AND(N4&lt;&gt;"--", S4&lt;&gt;"--"), ROUND(N4*S4/1000, 3), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="Y4" s="39" t="str">
+        <f t="shared" ref="Y4:AA19" si="6">IF(AND(O4&lt;&gt;"--", T4&lt;&gt;"--"), ROUND(O4*T4/1000, 3), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="Z4" s="39">
+        <f t="shared" si="6"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="AA4" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10">
+        <v>2.35</v>
+      </c>
+      <c r="F5" s="10">
+        <v>6.01</v>
+      </c>
+      <c r="H5" s="39" t="str">
+        <f t="shared" ref="H5:H21" si="7">IF(C5&lt;&gt;"",C5/1000,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="I5" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="J5" s="39">
+        <f t="shared" si="0"/>
+        <v>2.3500000000000001E-3</v>
+      </c>
+      <c r="K5" s="39">
+        <f t="shared" si="0"/>
+        <v>6.0099999999999997E-3</v>
+      </c>
+      <c r="M5" s="8">
+        <v>20</v>
+      </c>
+      <c r="N5" s="39" t="str">
+        <f t="shared" ref="N5:N21" si="8">IF(AND(C5&lt;&gt;"", D5&lt;&gt;""), ROUND((D5 - C5) / (D$2-C$2), 2), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="O5" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="P5" s="39">
+        <f t="shared" si="1"/>
+        <v>1.83</v>
+      </c>
+      <c r="Q5" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="S5" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="T5" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="U5" s="39">
+        <f t="shared" si="4"/>
+        <v>10.42</v>
+      </c>
+      <c r="V5" s="39">
+        <f t="shared" si="5"/>
+        <v>7.46</v>
+      </c>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39" t="str">
+        <f t="shared" ref="X5:X21" si="9">IF(AND(N5&lt;&gt;"--", S5&lt;&gt;"--"), ROUND(N5*S5/1000, 3), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="Y5" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+      <c r="Z5" s="39">
+        <f t="shared" si="6"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="AA5" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>30</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3.39</v>
+      </c>
+      <c r="F6" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="H6" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v>--</v>
+      </c>
+      <c r="I6" s="39">
+        <f t="shared" si="0"/>
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="J6" s="39">
+        <f t="shared" si="0"/>
+        <v>3.3900000000000002E-3</v>
+      </c>
+      <c r="K6" s="39">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="M6" s="8">
+        <v>30</v>
+      </c>
+      <c r="N6" s="39" t="str">
+        <f t="shared" si="8"/>
+        <v>--</v>
+      </c>
+      <c r="O6" s="39">
+        <f t="shared" si="1"/>
+        <v>1.62</v>
+      </c>
+      <c r="P6" s="39">
+        <f t="shared" si="1"/>
+        <v>2.06</v>
+      </c>
+      <c r="Q6" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="S6" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="T6" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="U6" s="39">
+        <f t="shared" si="4"/>
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="V6" s="39">
+        <f t="shared" si="5"/>
+        <v>6.71</v>
+      </c>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>--</v>
+      </c>
+      <c r="Y6" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+      <c r="Z6" s="39">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="AA6" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>40</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="E7" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="F7" s="10">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="H7" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v>--</v>
+      </c>
+      <c r="I7" s="39">
+        <f t="shared" si="0"/>
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="J7" s="39">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="K7" s="39">
+        <f t="shared" si="0"/>
+        <v>8.9700000000000005E-3</v>
+      </c>
+      <c r="M7" s="8">
+        <v>40</v>
+      </c>
+      <c r="N7" s="39" t="str">
+        <f t="shared" si="8"/>
+        <v>--</v>
+      </c>
+      <c r="O7" s="39">
+        <f t="shared" si="1"/>
+        <v>1.98</v>
+      </c>
+      <c r="P7" s="39">
+        <f t="shared" si="1"/>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="Q7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="S7" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="T7" s="39">
+        <f t="shared" si="3"/>
+        <v>26.32</v>
+      </c>
+      <c r="U7" s="39">
+        <f t="shared" si="4"/>
+        <v>9.01</v>
+      </c>
+      <c r="V7" s="39">
+        <f t="shared" si="5"/>
+        <v>6.8</v>
+      </c>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>--</v>
+      </c>
+      <c r="Y7" s="39">
+        <f t="shared" si="6"/>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Z7" s="39">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="AA7" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>50</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E8" s="10">
+        <v>5.77</v>
+      </c>
+      <c r="F8" s="10">
+        <v>10.47</v>
+      </c>
+      <c r="H8" s="39" t="str">
+        <f t="shared" si="7"/>
+        <v>--</v>
+      </c>
+      <c r="I8" s="39">
+        <f t="shared" si="0"/>
+        <v>1.1299999999999999E-3</v>
+      </c>
+      <c r="J8" s="39">
+        <f t="shared" si="0"/>
+        <v>5.77E-3</v>
+      </c>
+      <c r="K8" s="39">
+        <f t="shared" si="0"/>
+        <v>1.047E-2</v>
+      </c>
+      <c r="M8" s="8">
+        <v>50</v>
+      </c>
+      <c r="N8" s="39" t="str">
+        <f t="shared" si="8"/>
+        <v>--</v>
+      </c>
+      <c r="O8" s="39">
+        <f t="shared" si="1"/>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="P8" s="39">
+        <f t="shared" si="1"/>
+        <v>2.35</v>
+      </c>
+      <c r="Q8" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="S8" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="T8" s="39">
+        <f t="shared" si="3"/>
+        <v>16.95</v>
+      </c>
+      <c r="U8" s="39">
+        <f t="shared" si="4"/>
+        <v>7.87</v>
+      </c>
+      <c r="V8" s="39">
+        <f t="shared" si="5"/>
+        <v>6.67</v>
+      </c>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>--</v>
+      </c>
+      <c r="Y8" s="39">
+        <f t="shared" si="6"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="Z8" s="39">
+        <f t="shared" si="6"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AA8" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="E9" s="10">
+        <v>6.97</v>
+      </c>
+      <c r="F9" s="10">
+        <v>12</v>
+      </c>
+      <c r="H9" s="39">
+        <f t="shared" si="7"/>
+        <v>1.1999999999999999E-4</v>
+      </c>
+      <c r="I9" s="39">
+        <f t="shared" si="0"/>
+        <v>1.9E-3</v>
+      </c>
+      <c r="J9" s="39">
+        <f t="shared" si="0"/>
+        <v>6.9699999999999996E-3</v>
+      </c>
+      <c r="K9" s="39">
+        <f t="shared" si="0"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="M9" s="8">
+        <v>60</v>
+      </c>
+      <c r="N9" s="39">
+        <f t="shared" si="8"/>
+        <v>0.89</v>
+      </c>
+      <c r="O9" s="39">
+        <f t="shared" si="1"/>
+        <v>2.54</v>
+      </c>
+      <c r="P9" s="39">
+        <f t="shared" si="1"/>
+        <v>2.52</v>
+      </c>
+      <c r="Q9" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="S9" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>--</v>
+      </c>
+      <c r="T9" s="39">
+        <f t="shared" si="3"/>
+        <v>12.99</v>
+      </c>
+      <c r="U9" s="39">
+        <f t="shared" si="4"/>
+        <v>8.33</v>
+      </c>
+      <c r="V9" s="39">
+        <f t="shared" si="5"/>
+        <v>6.54</v>
+      </c>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>--</v>
+      </c>
+      <c r="Y9" s="39">
+        <f t="shared" si="6"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Z9" s="39">
+        <f t="shared" si="6"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AA9" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <v>70</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2.81</v>
+      </c>
+      <c r="E10" s="10">
+        <v>8.33</v>
+      </c>
+      <c r="F10" s="10">
+        <v>13.59</v>
+      </c>
+      <c r="H10" s="39">
+        <f t="shared" si="7"/>
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="I10" s="39">
+        <f t="shared" si="0"/>
+        <v>2.81E-3</v>
+      </c>
+      <c r="J10" s="39">
+        <f t="shared" si="0"/>
+        <v>8.3300000000000006E-3</v>
+      </c>
+      <c r="K10" s="39">
+        <f t="shared" si="0"/>
+        <v>1.359E-2</v>
+      </c>
+      <c r="M10" s="8">
+        <v>70</v>
+      </c>
+      <c r="N10" s="39">
+        <f t="shared" si="8"/>
+        <v>1.24</v>
+      </c>
+      <c r="O10" s="39">
+        <f t="shared" si="1"/>
+        <v>2.76</v>
+      </c>
+      <c r="P10" s="39">
+        <f t="shared" si="1"/>
+        <v>2.63</v>
+      </c>
+      <c r="Q10" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="S10" s="39">
+        <f t="shared" si="2"/>
+        <v>45.45</v>
+      </c>
+      <c r="T10" s="39">
+        <f t="shared" si="3"/>
+        <v>10.99</v>
+      </c>
+      <c r="U10" s="39">
+        <f t="shared" si="4"/>
+        <v>7.35</v>
+      </c>
+      <c r="V10" s="39">
+        <f t="shared" si="5"/>
+        <v>6.29</v>
+      </c>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39">
+        <f t="shared" si="9"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="Y10" s="39">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="Z10" s="39">
+        <f t="shared" si="6"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="AA10" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
+        <v>80</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3.82</v>
+      </c>
+      <c r="E11" s="10">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="F11" s="10">
+        <v>15.2</v>
+      </c>
+      <c r="H11" s="39">
+        <f t="shared" si="7"/>
+        <v>7.1999999999999994E-4</v>
+      </c>
+      <c r="I11" s="39">
+        <f t="shared" si="0"/>
+        <v>3.82E-3</v>
+      </c>
+      <c r="J11" s="39">
+        <f t="shared" si="0"/>
+        <v>9.7200000000000012E-3</v>
+      </c>
+      <c r="K11" s="39">
+        <f t="shared" si="0"/>
+        <v>1.52E-2</v>
+      </c>
+      <c r="M11" s="8">
+        <v>80</v>
+      </c>
+      <c r="N11" s="39">
+        <f t="shared" si="8"/>
+        <v>1.55</v>
+      </c>
+      <c r="O11" s="39">
+        <f t="shared" si="1"/>
+        <v>2.95</v>
+      </c>
+      <c r="P11" s="39">
+        <f t="shared" si="1"/>
+        <v>2.74</v>
+      </c>
+      <c r="Q11" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="S11" s="39">
+        <f t="shared" si="2"/>
+        <v>26.32</v>
+      </c>
+      <c r="T11" s="39">
+        <f t="shared" si="3"/>
+        <v>9.9</v>
+      </c>
+      <c r="U11" s="39">
+        <f t="shared" si="4"/>
+        <v>7.19</v>
+      </c>
+      <c r="V11" s="39">
+        <f t="shared" si="5"/>
+        <v>6.21</v>
+      </c>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39">
+        <f t="shared" si="9"/>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="Y11" s="39">
+        <f t="shared" si="6"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="Z11" s="39">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="AA11" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <v>90</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1.26</v>
+      </c>
+      <c r="D12" s="8">
+        <v>4.92</v>
+      </c>
+      <c r="E12" s="10">
+        <v>11.19</v>
+      </c>
+      <c r="F12" s="10">
+        <v>16.88</v>
+      </c>
+      <c r="H12" s="39">
+        <f t="shared" si="7"/>
+        <v>1.2600000000000001E-3</v>
+      </c>
+      <c r="I12" s="39">
+        <f t="shared" si="0"/>
+        <v>4.9199999999999999E-3</v>
+      </c>
+      <c r="J12" s="39">
+        <f t="shared" si="0"/>
+        <v>1.119E-2</v>
+      </c>
+      <c r="K12" s="39">
+        <f t="shared" si="0"/>
+        <v>1.6879999999999999E-2</v>
+      </c>
+      <c r="M12" s="8">
+        <v>90</v>
+      </c>
+      <c r="N12" s="39">
+        <f t="shared" si="8"/>
+        <v>1.83</v>
+      </c>
+      <c r="O12" s="39">
+        <f t="shared" si="1"/>
+        <v>3.14</v>
+      </c>
+      <c r="P12" s="39">
+        <f t="shared" si="1"/>
+        <v>2.85</v>
+      </c>
+      <c r="Q12" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="S12" s="39">
+        <f t="shared" si="2"/>
+        <v>18.52</v>
+      </c>
+      <c r="T12" s="39">
+        <f t="shared" si="3"/>
+        <v>9.09</v>
+      </c>
+      <c r="U12" s="39">
+        <f t="shared" si="4"/>
+        <v>6.8</v>
+      </c>
+      <c r="V12" s="39">
+        <f t="shared" si="5"/>
+        <v>5.95</v>
+      </c>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39">
+        <f t="shared" si="9"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Y12" s="39">
+        <f t="shared" si="6"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="Z12" s="39">
+        <f t="shared" si="6"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="AA12" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>100</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.95</v>
+      </c>
+      <c r="D13" s="8">
+        <v>6.18</v>
+      </c>
+      <c r="E13" s="10">
+        <v>12.73</v>
+      </c>
+      <c r="F13" s="10">
+        <v>18.57</v>
+      </c>
+      <c r="H13" s="39">
+        <f t="shared" si="7"/>
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="I13" s="39">
+        <f t="shared" si="0"/>
+        <v>6.1799999999999997E-3</v>
+      </c>
+      <c r="J13" s="39">
+        <f t="shared" si="0"/>
+        <v>1.273E-2</v>
+      </c>
+      <c r="K13" s="39">
+        <f t="shared" si="0"/>
+        <v>1.857E-2</v>
+      </c>
+      <c r="M13" s="8">
+        <v>100</v>
+      </c>
+      <c r="N13" s="39">
+        <f t="shared" si="8"/>
+        <v>2.12</v>
+      </c>
+      <c r="O13" s="39">
+        <f t="shared" si="1"/>
+        <v>3.28</v>
+      </c>
+      <c r="P13" s="39">
+        <f t="shared" si="1"/>
+        <v>2.92</v>
+      </c>
+      <c r="Q13" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="S13" s="39">
+        <f t="shared" si="2"/>
+        <v>14.49</v>
+      </c>
+      <c r="T13" s="39">
+        <f t="shared" si="3"/>
+        <v>7.94</v>
+      </c>
+      <c r="U13" s="39">
+        <f t="shared" si="4"/>
+        <v>6.49</v>
+      </c>
+      <c r="V13" s="39">
+        <f t="shared" si="5"/>
+        <v>5.92</v>
+      </c>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39">
+        <f t="shared" si="9"/>
+        <v>3.1E-2</v>
+      </c>
+      <c r="Y13" s="39">
+        <f t="shared" si="6"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Z13" s="39">
+        <f t="shared" si="6"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="AA13" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
+        <v>110</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2.77</v>
+      </c>
+      <c r="D14" s="8">
+        <v>7.46</v>
+      </c>
+      <c r="E14" s="10">
+        <v>14.32</v>
+      </c>
+      <c r="F14" s="10">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="H14" s="39">
+        <f t="shared" si="7"/>
+        <v>2.7699999999999999E-3</v>
+      </c>
+      <c r="I14" s="39">
+        <f t="shared" si="0"/>
+        <v>7.4599999999999996E-3</v>
+      </c>
+      <c r="J14" s="39">
+        <f t="shared" si="0"/>
+        <v>1.4320000000000001E-2</v>
+      </c>
+      <c r="K14" s="39">
+        <f t="shared" si="0"/>
+        <v>2.0309999999999998E-2</v>
+      </c>
+      <c r="M14" s="8">
+        <v>110</v>
+      </c>
+      <c r="N14" s="39">
+        <f t="shared" si="8"/>
+        <v>2.35</v>
+      </c>
+      <c r="O14" s="39">
+        <f t="shared" si="1"/>
+        <v>3.43</v>
+      </c>
+      <c r="P14" s="39">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q14" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="S14" s="39">
+        <f t="shared" si="2"/>
+        <v>12.2</v>
+      </c>
+      <c r="T14" s="39">
+        <f t="shared" si="3"/>
+        <v>7.81</v>
+      </c>
+      <c r="U14" s="39">
+        <f t="shared" si="4"/>
+        <v>6.29</v>
+      </c>
+      <c r="V14" s="39">
+        <f t="shared" si="5"/>
+        <v>5.75</v>
+      </c>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39">
+        <f t="shared" si="9"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="Y14" s="39">
+        <f t="shared" si="6"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="Z14" s="39">
+        <f t="shared" si="6"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="AA14" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <v>120</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3.72</v>
+      </c>
+      <c r="D15" s="8">
+        <v>8.77</v>
+      </c>
+      <c r="E15" s="10">
+        <v>15.45</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="H15" s="39">
+        <f t="shared" si="7"/>
+        <v>3.7200000000000002E-3</v>
+      </c>
+      <c r="I15" s="39">
+        <f t="shared" si="0"/>
+        <v>8.77E-3</v>
+      </c>
+      <c r="J15" s="39">
+        <f t="shared" si="0"/>
+        <v>1.5449999999999998E-2</v>
+      </c>
+      <c r="K15" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="M15" s="8">
+        <v>120</v>
+      </c>
+      <c r="N15" s="39">
+        <f t="shared" si="8"/>
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="O15" s="39">
+        <f t="shared" si="1"/>
+        <v>3.34</v>
+      </c>
+      <c r="P15" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="Q15" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="S15" s="39">
+        <f t="shared" si="2"/>
+        <v>10.53</v>
+      </c>
+      <c r="T15" s="39">
+        <f t="shared" si="3"/>
+        <v>7.63</v>
+      </c>
+      <c r="U15" s="39">
+        <f t="shared" si="4"/>
+        <v>8.85</v>
+      </c>
+      <c r="V15" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>--</v>
+      </c>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39">
+        <f t="shared" si="9"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="Y15" s="39">
+        <f t="shared" si="6"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Z15" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+      <c r="AA15" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <v>130</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4.75</v>
+      </c>
+      <c r="D16" s="8">
+        <v>10.16</v>
+      </c>
+      <c r="E16" s="10">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="H16" s="39">
+        <f t="shared" si="7"/>
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="I16" s="39">
+        <f t="shared" si="0"/>
+        <v>1.0160000000000001E-2</v>
+      </c>
+      <c r="J16" s="39">
+        <f t="shared" si="0"/>
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="K16" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="M16" s="8">
+        <v>130</v>
+      </c>
+      <c r="N16" s="39">
+        <f t="shared" si="8"/>
+        <v>2.71</v>
+      </c>
+      <c r="O16" s="39">
+        <f t="shared" si="1"/>
+        <v>3.72</v>
+      </c>
+      <c r="P16" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="Q16" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="S16" s="39">
+        <f t="shared" si="2"/>
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="T16" s="39">
+        <f t="shared" si="3"/>
+        <v>7.19</v>
+      </c>
+      <c r="U16" s="39">
+        <f t="shared" si="4"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="V16" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>--</v>
+      </c>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39">
+        <f t="shared" si="9"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Y16" s="39">
+        <f t="shared" si="6"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="Z16" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+      <c r="AA16" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>140</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5.93</v>
+      </c>
+      <c r="D17" s="8">
+        <v>11.65</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="H17" s="39">
+        <f t="shared" si="7"/>
+        <v>5.9299999999999995E-3</v>
+      </c>
+      <c r="I17" s="39">
+        <f t="shared" si="0"/>
+        <v>1.1650000000000001E-2</v>
+      </c>
+      <c r="J17" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="K17" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="M17" s="8">
+        <v>140</v>
+      </c>
+      <c r="N17" s="39">
+        <f t="shared" si="8"/>
+        <v>2.86</v>
+      </c>
+      <c r="O17" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="P17" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="Q17" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="S17" s="39">
+        <f t="shared" si="2"/>
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="T17" s="39">
+        <f t="shared" si="3"/>
+        <v>6.71</v>
+      </c>
+      <c r="U17" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="V17" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>--</v>
+      </c>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39">
+        <f t="shared" si="9"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="Y17" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+      <c r="Z17" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+      <c r="AA17" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B18" s="8">
+        <v>150</v>
+      </c>
+      <c r="C18" s="8">
+        <v>7.15</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="H18" s="39">
+        <f t="shared" si="7"/>
+        <v>7.1500000000000001E-3</v>
+      </c>
+      <c r="I18" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="J18" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="K18" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="M18" s="8">
+        <v>150</v>
+      </c>
+      <c r="N18" s="39" t="str">
+        <f t="shared" si="8"/>
+        <v>--</v>
+      </c>
+      <c r="O18" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="P18" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="Q18" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="S18" s="39">
+        <f t="shared" si="2"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="T18" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="U18" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="V18" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>--</v>
+      </c>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>--</v>
+      </c>
+      <c r="Y18" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+      <c r="Z18" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+      <c r="AA18" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
+        <v>160</v>
+      </c>
+      <c r="C19" s="8">
+        <v>8.44</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="H19" s="39">
+        <f t="shared" si="7"/>
+        <v>8.4399999999999996E-3</v>
+      </c>
+      <c r="I19" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="J19" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="K19" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="M19" s="8">
+        <v>160</v>
+      </c>
+      <c r="N19" s="39" t="str">
+        <f t="shared" si="8"/>
+        <v>--</v>
+      </c>
+      <c r="O19" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="P19" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="Q19" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="S19" s="39">
+        <f t="shared" si="2"/>
+        <v>7.75</v>
+      </c>
+      <c r="T19" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="U19" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="V19" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>--</v>
+      </c>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>--</v>
+      </c>
+      <c r="Y19" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+      <c r="Z19" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+      <c r="AA19" s="39" t="str">
+        <f t="shared" si="6"/>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
+        <v>170</v>
+      </c>
+      <c r="C20" s="8">
+        <v>9.84</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="H20" s="39">
+        <f t="shared" si="7"/>
+        <v>9.8399999999999998E-3</v>
+      </c>
+      <c r="I20" s="39" t="str">
+        <f t="shared" ref="I20:I21" si="10">IF(D20&lt;&gt;"",D20/1000,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="J20" s="39" t="str">
+        <f t="shared" ref="J20:J21" si="11">IF(E20&lt;&gt;"",E20/1000,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="K20" s="39" t="str">
+        <f t="shared" ref="K20:K21" si="12">IF(F20&lt;&gt;"",F20/1000,"--")</f>
+        <v>--</v>
+      </c>
+      <c r="M20" s="8">
+        <v>170</v>
+      </c>
+      <c r="N20" s="39" t="str">
+        <f t="shared" si="8"/>
+        <v>--</v>
+      </c>
+      <c r="O20" s="39" t="str">
+        <f t="shared" ref="O20:O21" si="13">IF(AND(D20&lt;&gt;"", E20&lt;&gt;""), ROUND((E20 - D20) / (E$2-D$2), 2), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="P20" s="39" t="str">
+        <f t="shared" ref="P20:P21" si="14">IF(AND(E20&lt;&gt;"", F20&lt;&gt;""), ROUND((F20 - E20) / (F$2-E$2), 2), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="Q20" s="39" t="str">
+        <f t="shared" ref="Q20:Q21" si="15">IF(AND(F20&lt;&gt;"", G20&lt;&gt;""), ROUND((G20 - F20) / (G$2-F$2), 2), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="S20" s="39">
+        <f t="shared" si="2"/>
+        <v>7.14</v>
+      </c>
+      <c r="T20" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="U20" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="V20" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>--</v>
+      </c>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>--</v>
+      </c>
+      <c r="Y20" s="39" t="str">
+        <f t="shared" ref="Y20:Y21" si="16">IF(AND(O20&lt;&gt;"--", T20&lt;&gt;"--"), ROUND(O20*T20/1000, 3), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="Z20" s="39" t="str">
+        <f t="shared" ref="Z20:Z21" si="17">IF(AND(P20&lt;&gt;"--", U20&lt;&gt;"--"), ROUND(P20*U20/1000, 3), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="AA20" s="39" t="str">
+        <f t="shared" ref="AA20:AA21" si="18">IF(AND(Q20&lt;&gt;"--", V20&lt;&gt;"--"), ROUND(Q20*V20/1000, 3), "--")</f>
+        <v>--</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
+        <v>180</v>
+      </c>
+      <c r="C21" s="8">
+        <v>11.27</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="H21" s="39">
+        <f t="shared" si="7"/>
+        <v>1.1269999999999999E-2</v>
+      </c>
+      <c r="I21" s="39" t="str">
+        <f t="shared" si="10"/>
+        <v>--</v>
+      </c>
+      <c r="J21" s="39" t="str">
+        <f t="shared" si="11"/>
+        <v>--</v>
+      </c>
+      <c r="K21" s="39" t="str">
+        <f t="shared" si="12"/>
+        <v>--</v>
+      </c>
+      <c r="M21" s="8">
+        <v>180</v>
+      </c>
+      <c r="N21" s="39" t="str">
+        <f t="shared" si="8"/>
+        <v>--</v>
+      </c>
+      <c r="O21" s="39" t="str">
+        <f t="shared" si="13"/>
+        <v>--</v>
+      </c>
+      <c r="P21" s="39" t="str">
+        <f t="shared" si="14"/>
+        <v>--</v>
+      </c>
+      <c r="Q21" s="39" t="str">
+        <f t="shared" si="15"/>
+        <v>--</v>
+      </c>
+      <c r="S21" s="39">
+        <f t="shared" ref="S5:S21" si="19">IF(AND(H21&lt;&gt;"--",$B21&lt;&gt;"--",$B20&lt;&gt;"--",H20&lt;&gt;"--"),ROUND(($B21 - $B20) / (H21-H20) / 1000, 2),"--")</f>
+        <v>6.99</v>
+      </c>
+      <c r="T21" s="39" t="str">
+        <f t="shared" ref="T21" si="20">IF(AND(I21&lt;&gt;"--",$B21&lt;&gt;"--",$B20&lt;&gt;"--",I20&lt;&gt;"--"),ROUND(($B21 - $B20) / (I21-I20) / 1000, 2),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="U21" s="39" t="str">
+        <f t="shared" ref="U21" si="21">IF(AND(J21&lt;&gt;"--",$B21&lt;&gt;"--",$B20&lt;&gt;"--",J20&lt;&gt;"--"),ROUND(($B21 - $B20) / (J21-J20) / 1000, 2),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="V21" s="39" t="str">
+        <f t="shared" ref="V21" si="22">IF(AND(K21&lt;&gt;"--",$B21&lt;&gt;"--",$B20&lt;&gt;"--",K20&lt;&gt;"--"),ROUND(($B21 - $B20) / (K21-K20) / 1000, 2),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39" t="str">
+        <f t="shared" si="9"/>
+        <v>--</v>
+      </c>
+      <c r="Y21" s="39" t="str">
+        <f t="shared" si="16"/>
+        <v>--</v>
+      </c>
+      <c r="Z21" s="39" t="str">
+        <f t="shared" si="17"/>
+        <v>--</v>
+      </c>
+      <c r="AA21" s="39" t="str">
+        <f t="shared" si="18"/>
+        <v>--</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1A7CA5-6721-4819-A6AD-9AC2B2D8FA6F}">
   <dimension ref="A3:H19"/>
   <sheetViews>
@@ -10174,7 +12062,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="29">
-        <f t="shared" ref="C5:C9" si="2">10^3</f>
+        <f>10^3</f>
         <v>1000</v>
       </c>
       <c r="D5" s="31">
@@ -10185,15 +12073,15 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="F5" s="28">
-        <f t="shared" ref="F5:F19" si="3">E5/0.2</f>
+        <f t="shared" ref="F5:F19" si="2">E5/0.2</f>
         <v>1.7599999999999998</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G19" si="4">D5/1000</f>
+        <f t="shared" ref="G5:G19" si="3">D5/1000</f>
         <v>20</v>
       </c>
       <c r="H5" s="30">
-        <f t="shared" ref="H5:H19" si="5">(2 * B5 + 30) / 100 * C5</f>
+        <f t="shared" ref="H5:H19" si="4">(2 * B5 + 30) / 100 * C5</f>
         <v>700</v>
       </c>
     </row>
@@ -10206,7 +12094,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="29">
-        <f t="shared" si="2"/>
+        <f>10^3</f>
         <v>1000</v>
       </c>
       <c r="D6" s="31">
@@ -10217,15 +12105,15 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="F6" s="28">
+        <f t="shared" si="2"/>
+        <v>1.7799999999999998</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="3"/>
-        <v>1.7799999999999998</v>
-      </c>
-      <c r="G6" s="1">
+        <v>40</v>
+      </c>
+      <c r="H6" s="30">
         <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="H6" s="30">
-        <f t="shared" si="5"/>
         <v>1100</v>
       </c>
     </row>
@@ -10238,7 +12126,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="29">
-        <f t="shared" si="2"/>
+        <f>10^3</f>
         <v>1000</v>
       </c>
       <c r="D7" s="31">
@@ -10249,15 +12137,15 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="F7" s="28">
+        <f t="shared" si="2"/>
+        <v>1.7399999999999998</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="3"/>
-        <v>1.7399999999999998</v>
-      </c>
-      <c r="G7" s="1">
+        <v>50</v>
+      </c>
+      <c r="H7" s="30">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="H7" s="30">
-        <f t="shared" si="5"/>
         <v>1300</v>
       </c>
     </row>
@@ -10270,7 +12158,7 @@
         <v>70</v>
       </c>
       <c r="C8" s="29">
-        <f t="shared" si="2"/>
+        <f>10^3</f>
         <v>1000</v>
       </c>
       <c r="D8" s="31">
@@ -10281,15 +12169,15 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="F8" s="28">
+        <f t="shared" si="2"/>
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>1.7599999999999998</v>
-      </c>
-      <c r="G8" s="1">
+        <v>70</v>
+      </c>
+      <c r="H8" s="30">
         <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="H8" s="30">
-        <f t="shared" si="5"/>
         <v>1700</v>
       </c>
     </row>
@@ -10302,7 +12190,7 @@
         <v>90</v>
       </c>
       <c r="C9" s="29">
-        <f t="shared" si="2"/>
+        <f>10^3</f>
         <v>1000</v>
       </c>
       <c r="D9" s="31">
@@ -10313,15 +12201,15 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="F9" s="28">
+        <f t="shared" si="2"/>
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>1.7599999999999998</v>
-      </c>
-      <c r="G9" s="1">
+        <v>90</v>
+      </c>
+      <c r="H9" s="30">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="H9" s="30">
-        <f t="shared" si="5"/>
         <v>2100</v>
       </c>
     </row>
@@ -10334,7 +12222,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="29">
-        <f t="shared" ref="C10:C18" si="6">10^4</f>
+        <f t="shared" ref="C10:C18" si="5">10^4</f>
         <v>10000</v>
       </c>
       <c r="D10" s="31">
@@ -10345,15 +12233,15 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="F10" s="28">
+        <f t="shared" si="2"/>
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>1.7599999999999998</v>
-      </c>
-      <c r="G10" s="1">
+        <v>120</v>
+      </c>
+      <c r="H10" s="30">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="H10" s="30">
-        <f t="shared" si="5"/>
         <v>5400</v>
       </c>
     </row>
@@ -10366,7 +12254,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="D11" s="31">
@@ -10377,15 +12265,15 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="F11" s="28">
+        <f t="shared" si="2"/>
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>1.7599999999999998</v>
-      </c>
-      <c r="G11" s="1">
+        <v>140</v>
+      </c>
+      <c r="H11" s="30">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-      <c r="H11" s="30">
-        <f t="shared" si="5"/>
         <v>5800</v>
       </c>
     </row>
@@ -10398,7 +12286,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="D12" s="31">
@@ -10409,15 +12297,15 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="F12" s="28">
+        <f t="shared" si="2"/>
+        <v>1.7199999999999998</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="3"/>
-        <v>1.7199999999999998</v>
-      </c>
-      <c r="G12" s="1">
+        <v>180</v>
+      </c>
+      <c r="H12" s="30">
         <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="H12" s="30">
-        <f t="shared" si="5"/>
         <v>6600</v>
       </c>
     </row>
@@ -10430,7 +12318,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="D13" s="31">
@@ -10441,15 +12329,15 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="F13" s="28">
+        <f t="shared" si="2"/>
+        <v>1.7199999999999998</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="3"/>
-        <v>1.7199999999999998</v>
-      </c>
-      <c r="G13" s="1">
+        <v>230</v>
+      </c>
+      <c r="H13" s="30">
         <f t="shared" si="4"/>
-        <v>230</v>
-      </c>
-      <c r="H13" s="30">
-        <f t="shared" si="5"/>
         <v>7600</v>
       </c>
     </row>
@@ -10462,7 +12350,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="D14" s="31">
@@ -10473,15 +12361,15 @@
         <v>0.33600000000000002</v>
       </c>
       <c r="F14" s="28">
+        <f t="shared" si="2"/>
+        <v>1.68</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="3"/>
-        <v>1.68</v>
-      </c>
-      <c r="G14" s="1">
+        <v>270</v>
+      </c>
+      <c r="H14" s="30">
         <f t="shared" si="4"/>
-        <v>270</v>
-      </c>
-      <c r="H14" s="30">
-        <f t="shared" si="5"/>
         <v>8400</v>
       </c>
     </row>
@@ -10494,7 +12382,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="D15" s="31">
@@ -10505,15 +12393,15 @@
         <v>0.308</v>
       </c>
       <c r="F15" s="28">
+        <f t="shared" si="2"/>
+        <v>1.5399999999999998</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="3"/>
-        <v>1.5399999999999998</v>
-      </c>
-      <c r="G15" s="1">
+        <v>500</v>
+      </c>
+      <c r="H15" s="30">
         <f t="shared" si="4"/>
-        <v>500</v>
-      </c>
-      <c r="H15" s="30">
-        <f t="shared" si="5"/>
         <v>13000</v>
       </c>
     </row>
@@ -10526,7 +12414,7 @@
         <v>60</v>
       </c>
       <c r="C16" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="D16" s="31">
@@ -10537,15 +12425,15 @@
         <v>0.28799999999999998</v>
       </c>
       <c r="F16" s="28">
+        <f t="shared" si="2"/>
+        <v>1.4399999999999997</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="3"/>
-        <v>1.4399999999999997</v>
-      </c>
-      <c r="G16" s="1">
+        <v>600</v>
+      </c>
+      <c r="H16" s="30">
         <f t="shared" si="4"/>
-        <v>600</v>
-      </c>
-      <c r="H16" s="30">
-        <f t="shared" si="5"/>
         <v>15000</v>
       </c>
     </row>
@@ -10558,7 +12446,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="D17" s="31">
@@ -10569,15 +12457,15 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="F17" s="28">
+        <f t="shared" si="2"/>
+        <v>1.36</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="3"/>
-        <v>1.36</v>
-      </c>
-      <c r="G17" s="1">
+        <v>700</v>
+      </c>
+      <c r="H17" s="30">
         <f t="shared" si="4"/>
-        <v>700</v>
-      </c>
-      <c r="H17" s="30">
-        <f t="shared" si="5"/>
         <v>17000</v>
       </c>
     </row>
@@ -10590,7 +12478,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="D18" s="31">
@@ -10601,15 +12489,15 @@
         <v>0.254</v>
       </c>
       <c r="F18" s="28">
+        <f t="shared" si="2"/>
+        <v>1.27</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="3"/>
-        <v>1.27</v>
-      </c>
-      <c r="G18" s="1">
+        <v>800</v>
+      </c>
+      <c r="H18" s="30">
         <f t="shared" si="4"/>
-        <v>800</v>
-      </c>
-      <c r="H18" s="30">
-        <f t="shared" si="5"/>
         <v>19000</v>
       </c>
     </row>
@@ -10633,15 +12521,15 @@
         <v>0.24</v>
       </c>
       <c r="F19" s="28">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-      <c r="G19" s="1">
+        <v>900</v>
+      </c>
+      <c r="H19" s="30">
         <f t="shared" si="4"/>
-        <v>900</v>
-      </c>
-      <c r="H19" s="30">
-        <f t="shared" si="5"/>
         <v>21000</v>
       </c>
     </row>
@@ -10651,7 +12539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2DBD95-3BBB-4329-A964-DC42FA0A821F}">
   <dimension ref="B1:C12"/>
   <sheetViews>
@@ -10759,7 +12647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42AB24A-B1EF-4497-B49F-FF2EF80BADF0}">
   <dimension ref="B2:C28"/>
   <sheetViews>
@@ -11013,7 +12901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B45CBFB-C1B1-48BC-9795-2209B8496CD0}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -11049,18 +12937,18 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="38" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="38" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="39"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -11639,7 +13527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7F6010-E2CE-4708-9864-8046E61A4D02}">
   <dimension ref="B1:M17"/>
   <sheetViews>

--- a/graph/Graphs.xlsx
+++ b/graph/Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SerKin0\Documents\LaTeX\Лабораторная работа 6-Исследование электронных ламп диода и триода\IBTC-physics-2k3s-latex-vacuum-tube-diodes-triodes\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9128C0B2-7BAB-48AF-8972-84DB93C07E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F26758C-8B76-495F-A5A0-02A022DB9C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="704" activeTab="2" xr2:uid="{E9884957-8132-4B22-A6C3-69341D62379A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="704" activeTab="2" xr2:uid="{E9884957-8132-4B22-A6C3-69341D62379A}"/>
   </bookViews>
   <sheets>
     <sheet name="Анодная характеристика триода" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Зависимость K от 50кОм" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -373,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -473,14 +472,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9215,18 +9217,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="O2" s="40" t="s">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="O2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
     </row>
     <row r="3" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C3" s="8">
@@ -10426,8 +10428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31F1FF8-B134-4BDA-9149-B7512F697385}">
   <dimension ref="B2:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:AA21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -10460,12 +10462,12 @@
       <c r="K2" s="39">
         <v>2</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
       <c r="S2" s="39" t="s">
         <v>27</v>
       </c>
@@ -10531,15 +10533,15 @@
         <f>IF(AND(C4&lt;&gt;"", D4&lt;&gt;""), ROUND((D4 - C4) / (D$2-C$2), 2), "--")</f>
         <v>--</v>
       </c>
-      <c r="O4" s="39" t="str">
+      <c r="O4" s="40" t="str">
         <f t="shared" ref="O4:Q19" si="1">IF(AND(D4&lt;&gt;"", E4&lt;&gt;""), ROUND((E4 - D4) / (E$2-D$2), 2), "--")</f>
         <v>--</v>
       </c>
-      <c r="P4" s="39">
-        <f t="shared" si="1"/>
+      <c r="P4" s="40">
+        <f>IF(AND(E4&lt;&gt;"", F4&lt;&gt;""), ROUND((F4 - E4) / (F$2-E$2), 2), "--")</f>
         <v>1.64</v>
       </c>
-      <c r="Q4" s="39" t="str">
+      <c r="Q4" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
@@ -10552,11 +10554,11 @@
         <v>--</v>
       </c>
       <c r="U4" s="39">
-        <f t="shared" ref="U4:U20" si="4">IF(AND(J4&lt;&gt;"--",$B4&lt;&gt;"--",$B3&lt;&gt;"--",J3&lt;&gt;"--"),ROUND(($B4 - $B3) / (J4-J3) / 1000, 2),"--")</f>
+        <f>IF(AND(J4&lt;&gt;"--",$B4&lt;&gt;"--",$B3&lt;&gt;"--",J3&lt;&gt;"--"),ROUND(($B4 - $B3) / (J4-J3) / 1000, 2),"--")</f>
         <v>7.19</v>
       </c>
       <c r="V4" s="39">
-        <f t="shared" ref="V4:V20" si="5">IF(AND(K4&lt;&gt;"--",$B4&lt;&gt;"--",$B3&lt;&gt;"--",K3&lt;&gt;"--"),ROUND(($B4 - $B3) / (K4-K3) / 1000, 2),"--")</f>
+        <f t="shared" ref="V4:V20" si="4">IF(AND(K4&lt;&gt;"--",$B4&lt;&gt;"--",$B3&lt;&gt;"--",K3&lt;&gt;"--"),ROUND(($B4 - $B3) / (K4-K3) / 1000, 2),"--")</f>
         <v>2.14</v>
       </c>
       <c r="W4" s="39"/>
@@ -10565,15 +10567,15 @@
         <v>--</v>
       </c>
       <c r="Y4" s="39" t="str">
-        <f t="shared" ref="Y4:AA19" si="6">IF(AND(O4&lt;&gt;"--", T4&lt;&gt;"--"), ROUND(O4*T4/1000, 3), "--")</f>
+        <f t="shared" ref="Y4:AA19" si="5">IF(AND(O4&lt;&gt;"--", T4&lt;&gt;"--"), ROUND(O4*T4/1000, 3), "--")</f>
         <v>--</v>
       </c>
       <c r="Z4" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.2E-2</v>
       </c>
       <c r="AA4" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
     </row>
@@ -10590,7 +10592,7 @@
         <v>6.01</v>
       </c>
       <c r="H5" s="39" t="str">
-        <f t="shared" ref="H5:H21" si="7">IF(C5&lt;&gt;"",C5/1000,"--")</f>
+        <f t="shared" ref="H5:H21" si="6">IF(C5&lt;&gt;"",C5/1000,"--")</f>
         <v>--</v>
       </c>
       <c r="I5" s="39" t="str">
@@ -10608,19 +10610,19 @@
       <c r="M5" s="8">
         <v>20</v>
       </c>
-      <c r="N5" s="39" t="str">
-        <f t="shared" ref="N5:N21" si="8">IF(AND(C5&lt;&gt;"", D5&lt;&gt;""), ROUND((D5 - C5) / (D$2-C$2), 2), "--")</f>
-        <v>--</v>
-      </c>
-      <c r="O5" s="39" t="str">
+      <c r="N5" s="40" t="str">
+        <f t="shared" ref="N5:N21" si="7">IF(AND(C5&lt;&gt;"", D5&lt;&gt;""), ROUND((D5 - C5) / (D$2-C$2), 2), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="O5" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
-      <c r="P5" s="39">
+      <c r="P5" s="40">
         <f t="shared" si="1"/>
         <v>1.83</v>
       </c>
-      <c r="Q5" s="39" t="str">
+      <c r="Q5" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
@@ -10633,11 +10635,11 @@
         <v>--</v>
       </c>
       <c r="U5" s="39">
+        <f t="shared" ref="U4:U20" si="8">IF(AND(J5&lt;&gt;"--",$B5&lt;&gt;"--",$B4&lt;&gt;"--",J4&lt;&gt;"--"),ROUND(($B5 - $B4) / (J5-J4) / 1000, 2),"--")</f>
+        <v>10.42</v>
+      </c>
+      <c r="V5" s="39">
         <f t="shared" si="4"/>
-        <v>10.42</v>
-      </c>
-      <c r="V5" s="39">
-        <f t="shared" si="5"/>
         <v>7.46</v>
       </c>
       <c r="W5" s="39"/>
@@ -10646,15 +10648,15 @@
         <v>--</v>
       </c>
       <c r="Y5" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
       <c r="Z5" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.9E-2</v>
       </c>
       <c r="AA5" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
     </row>
@@ -10673,7 +10675,7 @@
         <v>7.5</v>
       </c>
       <c r="H6" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>--</v>
       </c>
       <c r="I6" s="39">
@@ -10691,19 +10693,19 @@
       <c r="M6" s="8">
         <v>30</v>
       </c>
-      <c r="N6" s="39" t="str">
-        <f t="shared" si="8"/>
-        <v>--</v>
-      </c>
-      <c r="O6" s="39">
-        <f t="shared" si="1"/>
+      <c r="N6" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>--</v>
+      </c>
+      <c r="O6" s="40">
+        <f>IF(AND(D6&lt;&gt;"", E6&lt;&gt;""), ROUND((E6 - D6) / (E$2-D$2), 2), "--")</f>
         <v>1.62</v>
       </c>
-      <c r="P6" s="39">
+      <c r="P6" s="40">
         <f t="shared" si="1"/>
         <v>2.06</v>
       </c>
-      <c r="Q6" s="39" t="str">
+      <c r="Q6" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
@@ -10716,11 +10718,11 @@
         <v>--</v>
       </c>
       <c r="U6" s="39">
+        <f t="shared" si="8"/>
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="V6" s="39">
         <f t="shared" si="4"/>
-        <v>9.6199999999999992</v>
-      </c>
-      <c r="V6" s="39">
-        <f t="shared" si="5"/>
         <v>6.71</v>
       </c>
       <c r="W6" s="39"/>
@@ -10729,15 +10731,15 @@
         <v>--</v>
       </c>
       <c r="Y6" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
       <c r="Z6" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="AA6" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
     </row>
@@ -10756,7 +10758,7 @@
         <v>8.9700000000000006</v>
       </c>
       <c r="H7" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>--</v>
       </c>
       <c r="I7" s="39">
@@ -10774,19 +10776,19 @@
       <c r="M7" s="8">
         <v>40</v>
       </c>
-      <c r="N7" s="39" t="str">
-        <f t="shared" si="8"/>
-        <v>--</v>
-      </c>
-      <c r="O7" s="39">
+      <c r="N7" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>--</v>
+      </c>
+      <c r="O7" s="40">
         <f t="shared" si="1"/>
         <v>1.98</v>
       </c>
-      <c r="P7" s="39">
+      <c r="P7" s="40">
         <f t="shared" si="1"/>
         <v>2.2400000000000002</v>
       </c>
-      <c r="Q7" s="39" t="str">
+      <c r="Q7" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
@@ -10799,11 +10801,11 @@
         <v>26.32</v>
       </c>
       <c r="U7" s="39">
+        <f t="shared" si="8"/>
+        <v>9.01</v>
+      </c>
+      <c r="V7" s="39">
         <f t="shared" si="4"/>
-        <v>9.01</v>
-      </c>
-      <c r="V7" s="39">
-        <f t="shared" si="5"/>
         <v>6.8</v>
       </c>
       <c r="W7" s="39"/>
@@ -10812,15 +10814,15 @@
         <v>--</v>
       </c>
       <c r="Y7" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="Z7" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="AA7" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
     </row>
@@ -10839,7 +10841,7 @@
         <v>10.47</v>
       </c>
       <c r="H8" s="39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>--</v>
       </c>
       <c r="I8" s="39">
@@ -10857,19 +10859,19 @@
       <c r="M8" s="8">
         <v>50</v>
       </c>
-      <c r="N8" s="39" t="str">
-        <f t="shared" si="8"/>
-        <v>--</v>
-      </c>
-      <c r="O8" s="39">
+      <c r="N8" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>--</v>
+      </c>
+      <c r="O8" s="40">
         <f t="shared" si="1"/>
         <v>2.3199999999999998</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="40">
         <f t="shared" si="1"/>
         <v>2.35</v>
       </c>
-      <c r="Q8" s="39" t="str">
+      <c r="Q8" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
@@ -10882,11 +10884,11 @@
         <v>16.95</v>
       </c>
       <c r="U8" s="39">
+        <f t="shared" si="8"/>
+        <v>7.87</v>
+      </c>
+      <c r="V8" s="39">
         <f t="shared" si="4"/>
-        <v>7.87</v>
-      </c>
-      <c r="V8" s="39">
-        <f t="shared" si="5"/>
         <v>6.67</v>
       </c>
       <c r="W8" s="39"/>
@@ -10895,15 +10897,15 @@
         <v>--</v>
       </c>
       <c r="Y8" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.9E-2</v>
       </c>
       <c r="Z8" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="AA8" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
     </row>
@@ -10924,7 +10926,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.1999999999999999E-4</v>
       </c>
       <c r="I9" s="39">
@@ -10942,19 +10944,19 @@
       <c r="M9" s="8">
         <v>60</v>
       </c>
-      <c r="N9" s="39">
-        <f t="shared" si="8"/>
+      <c r="N9" s="40">
+        <f>IF(AND(C9&lt;&gt;"", D9&lt;&gt;""), ROUND((D9 - C9) / (D$2-C$2), 2), "--")</f>
         <v>0.89</v>
       </c>
-      <c r="O9" s="39">
-        <f t="shared" si="1"/>
+      <c r="O9" s="40">
+        <f>IF(AND(D9&lt;&gt;"", E9&lt;&gt;""), ROUND((E9 - D9) / (E$2-D$2), 2), "--")</f>
         <v>2.54</v>
       </c>
-      <c r="P9" s="39">
+      <c r="P9" s="40">
         <f t="shared" si="1"/>
         <v>2.52</v>
       </c>
-      <c r="Q9" s="39" t="str">
+      <c r="Q9" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
@@ -10967,11 +10969,11 @@
         <v>12.99</v>
       </c>
       <c r="U9" s="39">
+        <f t="shared" si="8"/>
+        <v>8.33</v>
+      </c>
+      <c r="V9" s="39">
         <f t="shared" si="4"/>
-        <v>8.33</v>
-      </c>
-      <c r="V9" s="39">
-        <f t="shared" si="5"/>
         <v>6.54</v>
       </c>
       <c r="W9" s="39"/>
@@ -10980,15 +10982,15 @@
         <v>--</v>
       </c>
       <c r="Y9" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="Z9" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="AA9" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
     </row>
@@ -11009,7 +11011,7 @@
         <v>13.59</v>
       </c>
       <c r="H10" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.4000000000000002E-4</v>
       </c>
       <c r="I10" s="39">
@@ -11027,19 +11029,19 @@
       <c r="M10" s="8">
         <v>70</v>
       </c>
-      <c r="N10" s="39">
-        <f t="shared" si="8"/>
+      <c r="N10" s="40">
+        <f t="shared" si="7"/>
         <v>1.24</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="40">
         <f t="shared" si="1"/>
         <v>2.76</v>
       </c>
-      <c r="P10" s="39">
+      <c r="P10" s="40">
         <f t="shared" si="1"/>
         <v>2.63</v>
       </c>
-      <c r="Q10" s="39" t="str">
+      <c r="Q10" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
@@ -11052,11 +11054,11 @@
         <v>10.99</v>
       </c>
       <c r="U10" s="39">
+        <f t="shared" si="8"/>
+        <v>7.35</v>
+      </c>
+      <c r="V10" s="39">
         <f t="shared" si="4"/>
-        <v>7.35</v>
-      </c>
-      <c r="V10" s="39">
-        <f t="shared" si="5"/>
         <v>6.29</v>
       </c>
       <c r="W10" s="39"/>
@@ -11065,15 +11067,15 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="Y10" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
       <c r="Z10" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.9E-2</v>
       </c>
       <c r="AA10" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
     </row>
@@ -11094,7 +11096,7 @@
         <v>15.2</v>
       </c>
       <c r="H11" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.1999999999999994E-4</v>
       </c>
       <c r="I11" s="39">
@@ -11112,19 +11114,19 @@
       <c r="M11" s="8">
         <v>80</v>
       </c>
-      <c r="N11" s="39">
-        <f t="shared" si="8"/>
+      <c r="N11" s="40">
+        <f t="shared" si="7"/>
         <v>1.55</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="40">
         <f t="shared" si="1"/>
         <v>2.95</v>
       </c>
-      <c r="P11" s="39">
+      <c r="P11" s="40">
         <f t="shared" si="1"/>
         <v>2.74</v>
       </c>
-      <c r="Q11" s="39" t="str">
+      <c r="Q11" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
@@ -11137,11 +11139,11 @@
         <v>9.9</v>
       </c>
       <c r="U11" s="39">
+        <f t="shared" si="8"/>
+        <v>7.19</v>
+      </c>
+      <c r="V11" s="39">
         <f t="shared" si="4"/>
-        <v>7.19</v>
-      </c>
-      <c r="V11" s="39">
-        <f t="shared" si="5"/>
         <v>6.21</v>
       </c>
       <c r="W11" s="39"/>
@@ -11150,15 +11152,15 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="Y11" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="Z11" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="AA11" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
     </row>
@@ -11179,7 +11181,7 @@
         <v>16.88</v>
       </c>
       <c r="H12" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.2600000000000001E-3</v>
       </c>
       <c r="I12" s="39">
@@ -11197,19 +11199,19 @@
       <c r="M12" s="8">
         <v>90</v>
       </c>
-      <c r="N12" s="39">
-        <f t="shared" si="8"/>
+      <c r="N12" s="40">
+        <f t="shared" si="7"/>
         <v>1.83</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12" s="40">
         <f t="shared" si="1"/>
         <v>3.14</v>
       </c>
-      <c r="P12" s="39">
+      <c r="P12" s="40">
         <f t="shared" si="1"/>
         <v>2.85</v>
       </c>
-      <c r="Q12" s="39" t="str">
+      <c r="Q12" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
@@ -11222,11 +11224,11 @@
         <v>9.09</v>
       </c>
       <c r="U12" s="39">
+        <f t="shared" si="8"/>
+        <v>6.8</v>
+      </c>
+      <c r="V12" s="39">
         <f t="shared" si="4"/>
-        <v>6.8</v>
-      </c>
-      <c r="V12" s="39">
-        <f t="shared" si="5"/>
         <v>5.95</v>
       </c>
       <c r="W12" s="39"/>
@@ -11235,15 +11237,15 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="Y12" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="Z12" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.9E-2</v>
       </c>
       <c r="AA12" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
     </row>
@@ -11264,7 +11266,7 @@
         <v>18.57</v>
       </c>
       <c r="H13" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.9499999999999999E-3</v>
       </c>
       <c r="I13" s="39">
@@ -11282,19 +11284,19 @@
       <c r="M13" s="8">
         <v>100</v>
       </c>
-      <c r="N13" s="39">
-        <f t="shared" si="8"/>
+      <c r="N13" s="40">
+        <f t="shared" si="7"/>
         <v>2.12</v>
       </c>
-      <c r="O13" s="39">
+      <c r="O13" s="40">
         <f t="shared" si="1"/>
         <v>3.28</v>
       </c>
-      <c r="P13" s="39">
+      <c r="P13" s="40">
         <f t="shared" si="1"/>
         <v>2.92</v>
       </c>
-      <c r="Q13" s="39" t="str">
+      <c r="Q13" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
@@ -11307,11 +11309,11 @@
         <v>7.94</v>
       </c>
       <c r="U13" s="39">
+        <f t="shared" si="8"/>
+        <v>6.49</v>
+      </c>
+      <c r="V13" s="39">
         <f t="shared" si="4"/>
-        <v>6.49</v>
-      </c>
-      <c r="V13" s="39">
-        <f t="shared" si="5"/>
         <v>5.92</v>
       </c>
       <c r="W13" s="39"/>
@@ -11320,15 +11322,15 @@
         <v>3.1E-2</v>
       </c>
       <c r="Y13" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="Z13" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.9E-2</v>
       </c>
       <c r="AA13" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
     </row>
@@ -11349,7 +11351,7 @@
         <v>20.309999999999999</v>
       </c>
       <c r="H14" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.7699999999999999E-3</v>
       </c>
       <c r="I14" s="39">
@@ -11367,19 +11369,19 @@
       <c r="M14" s="8">
         <v>110</v>
       </c>
-      <c r="N14" s="39">
-        <f t="shared" si="8"/>
+      <c r="N14" s="40">
+        <f t="shared" si="7"/>
         <v>2.35</v>
       </c>
-      <c r="O14" s="39">
+      <c r="O14" s="40">
         <f t="shared" si="1"/>
         <v>3.43</v>
       </c>
-      <c r="P14" s="39">
-        <f t="shared" si="1"/>
+      <c r="P14" s="40">
+        <f>IF(AND(E14&lt;&gt;"", F14&lt;&gt;""), ROUND((F14 - E14) / (F$2-E$2), 2), "--")</f>
         <v>3</v>
       </c>
-      <c r="Q14" s="39" t="str">
+      <c r="Q14" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
@@ -11392,11 +11394,11 @@
         <v>7.81</v>
       </c>
       <c r="U14" s="39">
+        <f t="shared" si="8"/>
+        <v>6.29</v>
+      </c>
+      <c r="V14" s="39">
         <f t="shared" si="4"/>
-        <v>6.29</v>
-      </c>
-      <c r="V14" s="39">
-        <f t="shared" si="5"/>
         <v>5.75</v>
       </c>
       <c r="W14" s="39"/>
@@ -11405,15 +11407,15 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="Y14" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.7E-2</v>
       </c>
       <c r="Z14" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.9E-2</v>
       </c>
       <c r="AA14" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
     </row>
@@ -11432,7 +11434,7 @@
       </c>
       <c r="F15" s="8"/>
       <c r="H15" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.7200000000000002E-3</v>
       </c>
       <c r="I15" s="39">
@@ -11450,19 +11452,19 @@
       <c r="M15" s="8">
         <v>120</v>
       </c>
-      <c r="N15" s="39">
-        <f t="shared" si="8"/>
+      <c r="N15" s="40">
+        <f t="shared" si="7"/>
         <v>2.5299999999999998</v>
       </c>
-      <c r="O15" s="39">
+      <c r="O15" s="40">
         <f t="shared" si="1"/>
         <v>3.34</v>
       </c>
-      <c r="P15" s="39" t="str">
+      <c r="P15" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
-      <c r="Q15" s="39" t="str">
+      <c r="Q15" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
@@ -11475,11 +11477,11 @@
         <v>7.63</v>
       </c>
       <c r="U15" s="39">
+        <f t="shared" si="8"/>
+        <v>8.85</v>
+      </c>
+      <c r="V15" s="39" t="str">
         <f t="shared" si="4"/>
-        <v>8.85</v>
-      </c>
-      <c r="V15" s="39" t="str">
-        <f t="shared" si="5"/>
         <v>--</v>
       </c>
       <c r="W15" s="39"/>
@@ -11488,15 +11490,15 @@
         <v>2.7E-2</v>
       </c>
       <c r="Y15" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="Z15" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
       <c r="AA15" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
     </row>
@@ -11515,7 +11517,7 @@
       </c>
       <c r="F16" s="8"/>
       <c r="H16" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4.7499999999999999E-3</v>
       </c>
       <c r="I16" s="39">
@@ -11533,19 +11535,19 @@
       <c r="M16" s="8">
         <v>130</v>
       </c>
-      <c r="N16" s="39">
-        <f t="shared" si="8"/>
+      <c r="N16" s="40">
+        <f t="shared" si="7"/>
         <v>2.71</v>
       </c>
-      <c r="O16" s="39">
+      <c r="O16" s="40">
         <f t="shared" si="1"/>
         <v>3.72</v>
       </c>
-      <c r="P16" s="39" t="str">
+      <c r="P16" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
-      <c r="Q16" s="39" t="str">
+      <c r="Q16" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
@@ -11558,11 +11560,11 @@
         <v>7.19</v>
       </c>
       <c r="U16" s="39">
+        <f t="shared" si="8"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="V16" s="39" t="str">
         <f t="shared" si="4"/>
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="V16" s="39" t="str">
-        <f t="shared" si="5"/>
         <v>--</v>
       </c>
       <c r="W16" s="39"/>
@@ -11571,15 +11573,15 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="Y16" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.7E-2</v>
       </c>
       <c r="Z16" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
       <c r="AA16" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
     </row>
@@ -11596,7 +11598,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="H17" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5.9299999999999995E-3</v>
       </c>
       <c r="I17" s="39">
@@ -11614,19 +11616,19 @@
       <c r="M17" s="8">
         <v>140</v>
       </c>
-      <c r="N17" s="39">
-        <f t="shared" si="8"/>
+      <c r="N17" s="40">
+        <f t="shared" si="7"/>
         <v>2.86</v>
       </c>
-      <c r="O17" s="39" t="str">
+      <c r="O17" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
-      <c r="P17" s="39" t="str">
+      <c r="P17" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
-      <c r="Q17" s="39" t="str">
+      <c r="Q17" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
@@ -11639,11 +11641,11 @@
         <v>6.71</v>
       </c>
       <c r="U17" s="39" t="str">
+        <f t="shared" si="8"/>
+        <v>--</v>
+      </c>
+      <c r="V17" s="39" t="str">
         <f t="shared" si="4"/>
-        <v>--</v>
-      </c>
-      <c r="V17" s="39" t="str">
-        <f t="shared" si="5"/>
         <v>--</v>
       </c>
       <c r="W17" s="39"/>
@@ -11652,15 +11654,15 @@
         <v>2.4E-2</v>
       </c>
       <c r="Y17" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
       <c r="Z17" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
       <c r="AA17" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
     </row>
@@ -11675,11 +11677,11 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="H18" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.1500000000000001E-3</v>
       </c>
       <c r="I18" s="39" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D18&lt;&gt;"",D18/1000,"--")</f>
         <v>--</v>
       </c>
       <c r="J18" s="39" t="str">
@@ -11693,19 +11695,19 @@
       <c r="M18" s="8">
         <v>150</v>
       </c>
-      <c r="N18" s="39" t="str">
-        <f t="shared" si="8"/>
-        <v>--</v>
-      </c>
-      <c r="O18" s="39" t="str">
+      <c r="N18" s="40" t="str">
+        <f>IF(AND(C18&lt;&gt;"", D18&lt;&gt;""), ROUND((D18 - C18) / (D$2-C$2), 2), "--")</f>
+        <v>--</v>
+      </c>
+      <c r="O18" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
-      <c r="P18" s="39" t="str">
+      <c r="P18" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
-      <c r="Q18" s="39" t="str">
+      <c r="Q18" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
@@ -11718,11 +11720,11 @@
         <v>--</v>
       </c>
       <c r="U18" s="39" t="str">
+        <f t="shared" si="8"/>
+        <v>--</v>
+      </c>
+      <c r="V18" s="39" t="str">
         <f t="shared" si="4"/>
-        <v>--</v>
-      </c>
-      <c r="V18" s="39" t="str">
-        <f t="shared" si="5"/>
         <v>--</v>
       </c>
       <c r="W18" s="39"/>
@@ -11731,15 +11733,15 @@
         <v>--</v>
       </c>
       <c r="Y18" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
       <c r="Z18" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
       <c r="AA18" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
     </row>
@@ -11754,7 +11756,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="H19" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.4399999999999996E-3</v>
       </c>
       <c r="I19" s="39" t="str">
@@ -11772,19 +11774,19 @@
       <c r="M19" s="8">
         <v>160</v>
       </c>
-      <c r="N19" s="39" t="str">
-        <f t="shared" si="8"/>
-        <v>--</v>
-      </c>
-      <c r="O19" s="39" t="str">
+      <c r="N19" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>--</v>
+      </c>
+      <c r="O19" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
-      <c r="P19" s="39" t="str">
+      <c r="P19" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
-      <c r="Q19" s="39" t="str">
+      <c r="Q19" s="40" t="str">
         <f t="shared" si="1"/>
         <v>--</v>
       </c>
@@ -11797,11 +11799,11 @@
         <v>--</v>
       </c>
       <c r="U19" s="39" t="str">
+        <f t="shared" si="8"/>
+        <v>--</v>
+      </c>
+      <c r="V19" s="39" t="str">
         <f t="shared" si="4"/>
-        <v>--</v>
-      </c>
-      <c r="V19" s="39" t="str">
-        <f t="shared" si="5"/>
         <v>--</v>
       </c>
       <c r="W19" s="39"/>
@@ -11810,15 +11812,15 @@
         <v>--</v>
       </c>
       <c r="Y19" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
       <c r="Z19" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
       <c r="AA19" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>--</v>
       </c>
     </row>
@@ -11833,7 +11835,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="H20" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.8399999999999998E-3</v>
       </c>
       <c r="I20" s="39" t="str">
@@ -11851,19 +11853,19 @@
       <c r="M20" s="8">
         <v>170</v>
       </c>
-      <c r="N20" s="39" t="str">
-        <f t="shared" si="8"/>
-        <v>--</v>
-      </c>
-      <c r="O20" s="39" t="str">
+      <c r="N20" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>--</v>
+      </c>
+      <c r="O20" s="40" t="str">
         <f t="shared" ref="O20:O21" si="13">IF(AND(D20&lt;&gt;"", E20&lt;&gt;""), ROUND((E20 - D20) / (E$2-D$2), 2), "--")</f>
         <v>--</v>
       </c>
-      <c r="P20" s="39" t="str">
+      <c r="P20" s="40" t="str">
         <f t="shared" ref="P20:P21" si="14">IF(AND(E20&lt;&gt;"", F20&lt;&gt;""), ROUND((F20 - E20) / (F$2-E$2), 2), "--")</f>
         <v>--</v>
       </c>
-      <c r="Q20" s="39" t="str">
+      <c r="Q20" s="40" t="str">
         <f t="shared" ref="Q20:Q21" si="15">IF(AND(F20&lt;&gt;"", G20&lt;&gt;""), ROUND((G20 - F20) / (G$2-F$2), 2), "--")</f>
         <v>--</v>
       </c>
@@ -11876,11 +11878,11 @@
         <v>--</v>
       </c>
       <c r="U20" s="39" t="str">
+        <f t="shared" si="8"/>
+        <v>--</v>
+      </c>
+      <c r="V20" s="39" t="str">
         <f t="shared" si="4"/>
-        <v>--</v>
-      </c>
-      <c r="V20" s="39" t="str">
-        <f t="shared" si="5"/>
         <v>--</v>
       </c>
       <c r="W20" s="39"/>
@@ -11912,7 +11914,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="H21" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.1269999999999999E-2</v>
       </c>
       <c r="I21" s="39" t="str">
@@ -11930,24 +11932,24 @@
       <c r="M21" s="8">
         <v>180</v>
       </c>
-      <c r="N21" s="39" t="str">
-        <f t="shared" si="8"/>
-        <v>--</v>
-      </c>
-      <c r="O21" s="39" t="str">
+      <c r="N21" s="40" t="str">
+        <f t="shared" si="7"/>
+        <v>--</v>
+      </c>
+      <c r="O21" s="40" t="str">
         <f t="shared" si="13"/>
         <v>--</v>
       </c>
-      <c r="P21" s="39" t="str">
+      <c r="P21" s="40" t="str">
         <f t="shared" si="14"/>
         <v>--</v>
       </c>
-      <c r="Q21" s="39" t="str">
+      <c r="Q21" s="40" t="str">
         <f t="shared" si="15"/>
         <v>--</v>
       </c>
       <c r="S21" s="39">
-        <f t="shared" ref="S5:S21" si="19">IF(AND(H21&lt;&gt;"--",$B21&lt;&gt;"--",$B20&lt;&gt;"--",H20&lt;&gt;"--"),ROUND(($B21 - $B20) / (H21-H20) / 1000, 2),"--")</f>
+        <f t="shared" ref="S21" si="19">IF(AND(H21&lt;&gt;"--",$B21&lt;&gt;"--",$B20&lt;&gt;"--",H20&lt;&gt;"--"),ROUND(($B21 - $B20) / (H21-H20) / 1000, 2),"--")</f>
         <v>6.99</v>
       </c>
       <c r="T21" s="39" t="str">
@@ -12937,18 +12939,18 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="41" t="s">
+      <c r="E2" s="44"/>
+      <c r="F2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="41" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="42"/>
+      <c r="I2" s="44"/>
       <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
